--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="StreamPartition30%（32位）" sheetId="1" r:id="rId1"/>
-    <sheet name="StreamPartition50%80%（64位）" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="节点边度数" sheetId="4" r:id="rId4"/>
-    <sheet name="SGPStreamKL（64位）" sheetId="7" r:id="rId5"/>
-    <sheet name="SGPKL（64位）" sheetId="6" r:id="rId6"/>
+    <sheet name="Final - SGPStreamKL（64位）" sheetId="7" r:id="rId1"/>
+    <sheet name="Final - SGPKL（64位）" sheetId="6" r:id="rId2"/>
+    <sheet name="Final - relatedwork" sheetId="8" r:id="rId3"/>
+    <sheet name="StreamPartition30%（32位）" sheetId="1" r:id="rId4"/>
+    <sheet name="StreamPartition50%80%（64位）" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="节点边度数" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="64">
   <si>
     <t>hash</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -277,6 +278,22 @@
     <t>dataName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">    Total Cut Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGPKL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGPSTREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -314,20 +331,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -336,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +391,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -629,9 +691,3453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>525</v>
+      </c>
+      <c r="C2">
+        <v>526</v>
+      </c>
+      <c r="D2">
+        <v>357</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>4358</v>
+      </c>
+      <c r="H2">
+        <v>2915</v>
+      </c>
+      <c r="I2">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>441</v>
+      </c>
+      <c r="C3">
+        <v>368</v>
+      </c>
+      <c r="D3">
+        <v>270</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>3617</v>
+      </c>
+      <c r="H3">
+        <v>2102</v>
+      </c>
+      <c r="I3">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>915</v>
+      </c>
+      <c r="C5">
+        <v>1380</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12650</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9133</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>3878</v>
+      </c>
+      <c r="C10">
+        <v>8539</v>
+      </c>
+      <c r="D10">
+        <v>7550</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>75233</v>
+      </c>
+      <c r="H10">
+        <v>55273</v>
+      </c>
+      <c r="I10">
+        <v>40289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>25477</v>
+      </c>
+      <c r="C11">
+        <v>36988</v>
+      </c>
+      <c r="D11">
+        <v>32785</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>219918</v>
+      </c>
+      <c r="H11">
+        <v>179816</v>
+      </c>
+      <c r="I11">
+        <v>121783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A5:C6">
+    <sortCondition ref="A5"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.25" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="22.5" style="5" customWidth="1"/>
+    <col min="7" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="22" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5">
+        <v>571</v>
+      </c>
+      <c r="C3" s="5">
+        <v>492</v>
+      </c>
+      <c r="D3" s="5">
+        <v>768</v>
+      </c>
+      <c r="E3" s="4">
+        <f>MIN(B3:D3)</f>
+        <v>492</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5">
+        <v>423</v>
+      </c>
+      <c r="H3" s="5">
+        <v>226</v>
+      </c>
+      <c r="I3" s="5">
+        <v>314</v>
+      </c>
+      <c r="J3" s="4">
+        <f>MIN(G3:I3)</f>
+        <v>226</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5">
+        <v>279</v>
+      </c>
+      <c r="M3" s="5">
+        <v>214</v>
+      </c>
+      <c r="N3" s="5">
+        <v>309</v>
+      </c>
+      <c r="O3" s="4">
+        <f>MIN(L3:N3)</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>634</v>
+      </c>
+      <c r="C4" s="5">
+        <v>569</v>
+      </c>
+      <c r="D4" s="5">
+        <v>770</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E28" si="0">MIN(B4:D4)</f>
+        <v>569</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5">
+        <v>443</v>
+      </c>
+      <c r="H4" s="5">
+        <v>498</v>
+      </c>
+      <c r="I4" s="5">
+        <v>767</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J28" si="1">MIN(G4:I4)</f>
+        <v>443</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="5">
+        <v>269</v>
+      </c>
+      <c r="M4" s="5">
+        <v>226</v>
+      </c>
+      <c r="N4" s="5">
+        <v>247</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O28" si="2">MIN(L4:N4)</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
+        <v>237</v>
+      </c>
+      <c r="C5" s="5">
+        <v>172</v>
+      </c>
+      <c r="D5" s="5">
+        <v>209</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5">
+        <v>120</v>
+      </c>
+      <c r="I5" s="5">
+        <v>388</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5">
+        <v>94</v>
+      </c>
+      <c r="M5" s="5">
+        <v>95</v>
+      </c>
+      <c r="N5" s="5">
+        <v>135</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>74</v>
+      </c>
+      <c r="C6" s="5">
+        <v>149</v>
+      </c>
+      <c r="D6" s="5">
+        <v>164</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7">
+        <v>77</v>
+      </c>
+      <c r="H6" s="7">
+        <v>155</v>
+      </c>
+      <c r="I6" s="7">
+        <v>209</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="7">
+        <v>110</v>
+      </c>
+      <c r="M6" s="7">
+        <v>125</v>
+      </c>
+      <c r="N6" s="7">
+        <v>147</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1361</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1140</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1291</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1159</v>
+      </c>
+      <c r="H7" s="5">
+        <v>956</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1142</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>956</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7">
+        <v>968</v>
+      </c>
+      <c r="M7" s="7">
+        <v>915</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1002</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="2"/>
+        <v>915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <v>251</v>
+      </c>
+      <c r="C8" s="5">
+        <v>260</v>
+      </c>
+      <c r="D8" s="5">
+        <v>276</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>305</v>
+      </c>
+      <c r="H8" s="5">
+        <v>281</v>
+      </c>
+      <c r="I8" s="5">
+        <v>269</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="7">
+        <v>325</v>
+      </c>
+      <c r="M8" s="7">
+        <v>362</v>
+      </c>
+      <c r="N8" s="7">
+        <v>353</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5">
+        <v>789</v>
+      </c>
+      <c r="C9" s="5">
+        <v>619</v>
+      </c>
+      <c r="D9" s="5">
+        <v>558</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1106</v>
+      </c>
+      <c r="H9" s="5">
+        <v>869</v>
+      </c>
+      <c r="I9" s="5">
+        <v>852</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>852</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1822</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1418</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1528</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="2"/>
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4916</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4520</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5244</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>4520</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5800</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5307</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5965</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>5307</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7">
+        <v>8730</v>
+      </c>
+      <c r="M10" s="7">
+        <v>8193</v>
+      </c>
+      <c r="N10" s="7">
+        <v>8761</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="2"/>
+        <v>8193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5">
+        <v>832</v>
+      </c>
+      <c r="C11" s="5">
+        <v>836</v>
+      </c>
+      <c r="D11" s="5">
+        <v>903</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>832</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1018</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1230</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1067</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>1018</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1851</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1755</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1921</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="2"/>
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2549</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3460</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2465</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>2465</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2928</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4398</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2676</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>2676</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="5">
+        <v>4904</v>
+      </c>
+      <c r="M12" s="5">
+        <v>5132</v>
+      </c>
+      <c r="N12" s="5">
+        <v>4870</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="2"/>
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2431</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3897</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2420</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>2420</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2950</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4903</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2678</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>2678</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="5">
+        <v>5560</v>
+      </c>
+      <c r="M13" s="5">
+        <v>5347</v>
+      </c>
+      <c r="N13" s="5">
+        <v>5650</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="2"/>
+        <v>5347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2615</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5002</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2484</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>2484</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3240</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5300</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2999</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>2999</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="5">
+        <v>5453</v>
+      </c>
+      <c r="M14" s="5">
+        <v>5823</v>
+      </c>
+      <c r="N14" s="5">
+        <v>5899</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="2"/>
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4458</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6047</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4985</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>4458</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3114</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1782</v>
+      </c>
+      <c r="I17" s="5">
+        <v>4225</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>1782</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1610</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2038</v>
+      </c>
+      <c r="N17" s="5">
+        <v>2051</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="2"/>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4149</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5402</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4426</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>4149</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2622</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3907</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2840</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
+        <v>2622</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1407</v>
+      </c>
+      <c r="M18" s="5">
+        <v>3744</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1401</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="2"/>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5">
+        <v>8308</v>
+      </c>
+      <c r="C19" s="5">
+        <v>11021</v>
+      </c>
+      <c r="D19" s="5">
+        <v>7194</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>7194</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7350</v>
+      </c>
+      <c r="H19" s="5">
+        <v>9696</v>
+      </c>
+      <c r="I19" s="5">
+        <v>6567</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>6567</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="5">
+        <v>6657</v>
+      </c>
+      <c r="M19" s="5">
+        <v>8051</v>
+      </c>
+      <c r="N19" s="5">
+        <v>6328</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="2"/>
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3948</v>
+      </c>
+      <c r="C20" s="5">
+        <v>35182</v>
+      </c>
+      <c r="D20" s="5">
+        <v>39167</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>3948</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4529</v>
+      </c>
+      <c r="H20" s="5">
+        <v>29193</v>
+      </c>
+      <c r="I20" s="5">
+        <v>29519</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>4529</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="7">
+        <v>3950</v>
+      </c>
+      <c r="M20" s="7">
+        <v>11452</v>
+      </c>
+      <c r="N20" s="7">
+        <v>11429</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="2"/>
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5">
+        <v>8296</v>
+      </c>
+      <c r="C21" s="5">
+        <v>13457</v>
+      </c>
+      <c r="D21" s="5">
+        <v>8273</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>8273</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5821</v>
+      </c>
+      <c r="H21" s="5">
+        <v>9629</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5671</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>5671</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="7">
+        <v>3129</v>
+      </c>
+      <c r="M21" s="7">
+        <v>4699</v>
+      </c>
+      <c r="N21" s="7">
+        <v>3030</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="2"/>
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5">
+        <v>16718</v>
+      </c>
+      <c r="C22" s="5">
+        <v>25123</v>
+      </c>
+      <c r="D22" s="5">
+        <v>18742</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>16718</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="5">
+        <v>14522</v>
+      </c>
+      <c r="H22" s="5">
+        <v>16709</v>
+      </c>
+      <c r="I22" s="5">
+        <v>16349</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>14522</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="7">
+        <v>12773</v>
+      </c>
+      <c r="M22" s="7">
+        <v>13081</v>
+      </c>
+      <c r="N22" s="7">
+        <v>13049</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="2"/>
+        <v>12773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5">
+        <v>59983</v>
+      </c>
+      <c r="C23" s="5">
+        <v>73440</v>
+      </c>
+      <c r="D23" s="5">
+        <v>70578</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>59983</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="5">
+        <v>52208</v>
+      </c>
+      <c r="H23" s="5">
+        <v>58246</v>
+      </c>
+      <c r="I23" s="5">
+        <v>58920</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
+        <v>52208</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="7">
+        <v>45415</v>
+      </c>
+      <c r="M23" s="7">
+        <v>47287</v>
+      </c>
+      <c r="N23" s="7">
+        <v>47330</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="2"/>
+        <v>45415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5">
+        <v>29545</v>
+      </c>
+      <c r="C24" s="5">
+        <v>59662</v>
+      </c>
+      <c r="D24" s="5">
+        <v>29515</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>29515</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="5">
+        <v>24649</v>
+      </c>
+      <c r="H24" s="5">
+        <v>47038</v>
+      </c>
+      <c r="I24" s="5">
+        <v>23914</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>23914</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="7">
+        <v>17657</v>
+      </c>
+      <c r="M24" s="7">
+        <v>27832</v>
+      </c>
+      <c r="N24" s="7">
+        <v>17940</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="2"/>
+        <v>17657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45049</v>
+      </c>
+      <c r="C25" s="5">
+        <v>91891</v>
+      </c>
+      <c r="D25" s="5">
+        <v>58006</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>45049</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="5">
+        <v>39881</v>
+      </c>
+      <c r="H25" s="5">
+        <v>76606</v>
+      </c>
+      <c r="I25" s="5">
+        <v>48875</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="1"/>
+        <v>39881</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="5">
+        <v>30791</v>
+      </c>
+      <c r="M25" s="5">
+        <v>44065</v>
+      </c>
+      <c r="N25" s="5">
+        <v>32074</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="2"/>
+        <v>30791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5">
+        <v>174386</v>
+      </c>
+      <c r="C26" s="5">
+        <v>257572</v>
+      </c>
+      <c r="D26" s="5">
+        <v>193377</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>174386</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="5">
+        <v>157064</v>
+      </c>
+      <c r="H26" s="5">
+        <v>218569</v>
+      </c>
+      <c r="I26" s="5">
+        <v>166807</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="1"/>
+        <v>157064</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="5">
+        <v>108506</v>
+      </c>
+      <c r="M26" s="5">
+        <v>147139</v>
+      </c>
+      <c r="N26" s="5">
+        <v>114236</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="2"/>
+        <v>108506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5">
+        <v>186943</v>
+      </c>
+      <c r="C27" s="5">
+        <v>270147</v>
+      </c>
+      <c r="D27" s="5">
+        <v>207949</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>186943</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="5">
+        <v>168154</v>
+      </c>
+      <c r="H27" s="5">
+        <v>228959</v>
+      </c>
+      <c r="I27" s="5">
+        <v>177493</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
+        <v>168154</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="5">
+        <v>115895</v>
+      </c>
+      <c r="M27" s="5">
+        <v>157602</v>
+      </c>
+      <c r="N27" s="5">
+        <v>122353</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="2"/>
+        <v>115895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="5">
+        <v>189958</v>
+      </c>
+      <c r="C28" s="5">
+        <v>272450</v>
+      </c>
+      <c r="D28" s="5">
+        <v>207790</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>189958</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="5">
+        <v>168794</v>
+      </c>
+      <c r="H28" s="5">
+        <v>232117</v>
+      </c>
+      <c r="I28" s="5">
+        <v>177801</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
+        <v>168794</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="5">
+        <v>116063</v>
+      </c>
+      <c r="M28" s="5">
+        <v>161453</v>
+      </c>
+      <c r="N28" s="5">
+        <v>122410</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="2"/>
+        <v>116063</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="9" style="5"/>
+    <col min="13" max="13" width="24.5" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4.5119999999999996</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.923</v>
+      </c>
+      <c r="D2" s="4">
+        <v>506</v>
+      </c>
+      <c r="E2" s="4">
+        <v>552</v>
+      </c>
+      <c r="F2" s="4">
+        <v>533</v>
+      </c>
+      <c r="G2" s="4">
+        <v>512</v>
+      </c>
+      <c r="H2" s="4">
+        <v>534</v>
+      </c>
+      <c r="I2" s="4">
+        <v>518</v>
+      </c>
+      <c r="J2" s="4">
+        <v>520</v>
+      </c>
+      <c r="K2" s="4">
+        <v>518</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4">
+        <v>10147</v>
+      </c>
+      <c r="O2" s="4">
+        <v>11747</v>
+      </c>
+      <c r="P2" s="4">
+        <v>535</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>2743</v>
+      </c>
+      <c r="R2" s="4">
+        <v>3007</v>
+      </c>
+      <c r="S2" s="4">
+        <v>8858</v>
+      </c>
+      <c r="T2" s="4">
+        <v>8894</v>
+      </c>
+      <c r="U2" s="4">
+        <v>8860</v>
+      </c>
+      <c r="V2" s="4">
+        <v>3105</v>
+      </c>
+      <c r="W2" s="4">
+        <v>907</v>
+      </c>
+      <c r="X2" s="8">
+        <v>1610</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4.4180000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.5979999999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>518</v>
+      </c>
+      <c r="E3" s="4">
+        <v>502</v>
+      </c>
+      <c r="F3" s="4">
+        <v>453</v>
+      </c>
+      <c r="G3" s="4">
+        <v>439</v>
+      </c>
+      <c r="H3" s="4">
+        <v>439</v>
+      </c>
+      <c r="I3" s="4">
+        <v>440</v>
+      </c>
+      <c r="J3" s="4">
+        <v>435</v>
+      </c>
+      <c r="K3" s="4">
+        <v>435</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="4">
+        <v>9032</v>
+      </c>
+      <c r="O3" s="4">
+        <v>10688</v>
+      </c>
+      <c r="P3" s="4">
+        <v>576</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2566</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2642</v>
+      </c>
+      <c r="S3" s="4">
+        <v>8000</v>
+      </c>
+      <c r="T3" s="4">
+        <v>8038</v>
+      </c>
+      <c r="U3" s="4">
+        <v>8038</v>
+      </c>
+      <c r="V3" s="4">
+        <v>2238</v>
+      </c>
+      <c r="W3" s="4">
+        <v>648</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1401</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8.82</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.7390000000000008</v>
+      </c>
+      <c r="D4" s="4">
+        <v>125</v>
+      </c>
+      <c r="E4" s="4">
+        <v>125</v>
+      </c>
+      <c r="F4" s="4">
+        <v>125</v>
+      </c>
+      <c r="G4" s="4">
+        <v>139</v>
+      </c>
+      <c r="H4" s="4">
+        <v>137</v>
+      </c>
+      <c r="I4" s="4">
+        <v>138</v>
+      </c>
+      <c r="J4" s="4">
+        <v>125</v>
+      </c>
+      <c r="K4" s="4">
+        <v>123</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="4">
+        <v>15438</v>
+      </c>
+      <c r="O4" s="4">
+        <v>15316</v>
+      </c>
+      <c r="P4" s="4">
+        <v>673</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>8695</v>
+      </c>
+      <c r="R4" s="4">
+        <v>8939</v>
+      </c>
+      <c r="S4" s="4">
+        <v>5197</v>
+      </c>
+      <c r="T4" s="4">
+        <v>8961</v>
+      </c>
+      <c r="U4" s="4">
+        <v>9019</v>
+      </c>
+      <c r="V4" s="4">
+        <v>9464</v>
+      </c>
+      <c r="W4" s="4">
+        <v>8749</v>
+      </c>
+      <c r="X4" s="8">
+        <v>6328</v>
+      </c>
+      <c r="Y4" s="8"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>209</v>
+      </c>
+      <c r="E5" s="4">
+        <v>207</v>
+      </c>
+      <c r="F5" s="4">
+        <v>204</v>
+      </c>
+      <c r="G5" s="4">
+        <v>582</v>
+      </c>
+      <c r="H5" s="4">
+        <v>603</v>
+      </c>
+      <c r="I5" s="4">
+        <v>600</v>
+      </c>
+      <c r="J5" s="4">
+        <v>222</v>
+      </c>
+      <c r="K5" s="4">
+        <v>227</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="4">
+        <v>63810</v>
+      </c>
+      <c r="O5" s="4">
+        <v>64062</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1903</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>11124</v>
+      </c>
+      <c r="R5" s="4">
+        <v>22528</v>
+      </c>
+      <c r="S5" s="4">
+        <v>4255</v>
+      </c>
+      <c r="T5" s="4">
+        <v>12502</v>
+      </c>
+      <c r="U5" s="4">
+        <v>15720</v>
+      </c>
+      <c r="V5" s="4">
+        <v>25855</v>
+      </c>
+      <c r="W5" s="4">
+        <v>5983</v>
+      </c>
+      <c r="X5" s="8">
+        <v>3950</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>5727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2324</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2290</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2550</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2252</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2438</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2370</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2272</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2361</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="4">
+        <v>21952</v>
+      </c>
+      <c r="O6" s="4">
+        <v>25146</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1397</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>6166</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6822</v>
+      </c>
+      <c r="S6" s="4">
+        <v>19255</v>
+      </c>
+      <c r="T6" s="4">
+        <v>19348</v>
+      </c>
+      <c r="U6" s="4">
+        <v>19348</v>
+      </c>
+      <c r="V6" s="4">
+        <v>6230</v>
+      </c>
+      <c r="W6" s="4">
+        <v>1687</v>
+      </c>
+      <c r="X6" s="8">
+        <v>3030</v>
+      </c>
+      <c r="Y6" s="8"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>62</v>
+      </c>
+      <c r="C7" s="4">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4">
+        <v>544</v>
+      </c>
+      <c r="E7" s="4">
+        <v>542</v>
+      </c>
+      <c r="F7" s="4">
+        <v>542</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1543</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1310</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1290</v>
+      </c>
+      <c r="J7" s="4">
+        <v>501</v>
+      </c>
+      <c r="K7" s="4">
+        <v>491</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="4">
+        <v>88727</v>
+      </c>
+      <c r="O7" s="4">
+        <v>90302</v>
+      </c>
+      <c r="P7" s="4">
+        <v>281</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>19897</v>
+      </c>
+      <c r="R7" s="4">
+        <v>19911</v>
+      </c>
+      <c r="S7" s="4">
+        <v>12573</v>
+      </c>
+      <c r="T7" s="4">
+        <v>22223</v>
+      </c>
+      <c r="U7" s="4">
+        <v>23788</v>
+      </c>
+      <c r="V7" s="4">
+        <v>47158</v>
+      </c>
+      <c r="W7" s="4">
+        <v>14689</v>
+      </c>
+      <c r="X7" s="8">
+        <v>12773</v>
+      </c>
+      <c r="Y7" s="8"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4">
+        <v>70</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1143</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1168</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1209</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1558</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1472</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1528</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1140</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1145</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="4">
+        <v>191809</v>
+      </c>
+      <c r="O8" s="4">
+        <v>192929</v>
+      </c>
+      <c r="P8" s="4">
+        <v>518</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>69746</v>
+      </c>
+      <c r="R8" s="4">
+        <v>73768</v>
+      </c>
+      <c r="S8" s="4">
+        <v>12694</v>
+      </c>
+      <c r="T8" s="4">
+        <v>68020</v>
+      </c>
+      <c r="U8" s="4">
+        <v>68152</v>
+      </c>
+      <c r="V8" s="4">
+        <v>82061</v>
+      </c>
+      <c r="W8" s="4">
+        <v>42994</v>
+      </c>
+      <c r="X8" s="8">
+        <v>45415</v>
+      </c>
+      <c r="Y8" s="8"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>233</v>
+      </c>
+      <c r="C9" s="4">
+        <v>232</v>
+      </c>
+      <c r="D9" s="4">
+        <v>16507</v>
+      </c>
+      <c r="E9" s="4">
+        <v>16715</v>
+      </c>
+      <c r="F9" s="4">
+        <v>16716</v>
+      </c>
+      <c r="G9" s="4">
+        <v>16704</v>
+      </c>
+      <c r="H9" s="4">
+        <v>16811</v>
+      </c>
+      <c r="I9" s="4">
+        <v>16343</v>
+      </c>
+      <c r="J9" s="4">
+        <v>16541</v>
+      </c>
+      <c r="K9" s="4">
+        <v>16581</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="4">
+        <v>91721</v>
+      </c>
+      <c r="O9" s="4">
+        <v>96022</v>
+      </c>
+      <c r="P9" s="4">
+        <v>12470</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>30737</v>
+      </c>
+      <c r="R9" s="4">
+        <v>36734</v>
+      </c>
+      <c r="S9" s="4">
+        <v>81632</v>
+      </c>
+      <c r="T9" s="4">
+        <v>81316</v>
+      </c>
+      <c r="U9" s="4">
+        <v>81316</v>
+      </c>
+      <c r="V9" s="4">
+        <v>35107</v>
+      </c>
+      <c r="W9" s="4">
+        <v>14245</v>
+      </c>
+      <c r="X9" s="8">
+        <v>17657</v>
+      </c>
+      <c r="Y9" s="8"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>421</v>
+      </c>
+      <c r="C10" s="4">
+        <v>417</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3179</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3104</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3110</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3934</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3884</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3988</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3031</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3067</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="4">
+        <v>135978</v>
+      </c>
+      <c r="O10" s="4">
+        <v>139147</v>
+      </c>
+      <c r="P10" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>48529</v>
+      </c>
+      <c r="R10" s="4">
+        <v>48720</v>
+      </c>
+      <c r="S10" s="4">
+        <v>15067</v>
+      </c>
+      <c r="T10" s="4">
+        <v>46778</v>
+      </c>
+      <c r="U10" s="4">
+        <v>47051</v>
+      </c>
+      <c r="V10" s="4">
+        <v>84951</v>
+      </c>
+      <c r="W10" s="4">
+        <v>32088</v>
+      </c>
+      <c r="X10" s="8">
+        <v>30791</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>40289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1420</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1426</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9023</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10348</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10395</v>
+      </c>
+      <c r="G11" s="4">
+        <v>13252</v>
+      </c>
+      <c r="H11" s="4">
+        <v>13377</v>
+      </c>
+      <c r="I11" s="4">
+        <v>13255</v>
+      </c>
+      <c r="J11" s="4">
+        <v>10841</v>
+      </c>
+      <c r="K11" s="4">
+        <v>10520</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="4">
+        <v>345768</v>
+      </c>
+      <c r="O11" s="4">
+        <v>347210</v>
+      </c>
+      <c r="P11" s="4">
+        <v>3272</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>165486</v>
+      </c>
+      <c r="R11" s="4">
+        <v>160183</v>
+      </c>
+      <c r="S11" s="4">
+        <v>119762</v>
+      </c>
+      <c r="T11" s="4">
+        <v>159791</v>
+      </c>
+      <c r="U11" s="4">
+        <v>151897</v>
+      </c>
+      <c r="V11" s="4">
+        <v>253848</v>
+      </c>
+      <c r="W11" s="4">
+        <v>114190</v>
+      </c>
+      <c r="X11" s="8">
+        <v>108506</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>121783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1522</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1616</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12053</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12364</v>
+      </c>
+      <c r="F12" s="4">
+        <v>13016</v>
+      </c>
+      <c r="G12" s="4">
+        <v>13471</v>
+      </c>
+      <c r="H12" s="4">
+        <v>13811</v>
+      </c>
+      <c r="I12" s="4">
+        <v>13719</v>
+      </c>
+      <c r="J12" s="4">
+        <v>12319</v>
+      </c>
+      <c r="K12" s="4">
+        <v>12636</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="4">
+        <v>367881</v>
+      </c>
+      <c r="O12" s="4">
+        <v>369288</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2997</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>198519</v>
+      </c>
+      <c r="R12" s="4">
+        <v>167265</v>
+      </c>
+      <c r="S12" s="4">
+        <v>326727</v>
+      </c>
+      <c r="T12" s="4">
+        <v>325565</v>
+      </c>
+      <c r="U12" s="4">
+        <v>325688</v>
+      </c>
+      <c r="V12" s="4">
+        <v>271549</v>
+      </c>
+      <c r="W12" s="4">
+        <v>132594</v>
+      </c>
+      <c r="X12" s="8">
+        <v>115895</v>
+      </c>
+      <c r="Y12" s="8"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1347</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1308</v>
+      </c>
+      <c r="D13" s="4">
+        <v>11069</v>
+      </c>
+      <c r="E13" s="4">
+        <v>11187</v>
+      </c>
+      <c r="F13" s="4">
+        <v>11093</v>
+      </c>
+      <c r="G13" s="4">
+        <v>12379</v>
+      </c>
+      <c r="H13" s="4">
+        <v>12573</v>
+      </c>
+      <c r="I13" s="4">
+        <v>11977</v>
+      </c>
+      <c r="J13" s="4">
+        <v>10923</v>
+      </c>
+      <c r="K13" s="4">
+        <v>10912</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="4">
+        <v>369847</v>
+      </c>
+      <c r="O13" s="4">
+        <v>370884</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2798</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>199870</v>
+      </c>
+      <c r="R13" s="4">
+        <v>169334</v>
+      </c>
+      <c r="S13" s="4">
+        <v>328050</v>
+      </c>
+      <c r="T13" s="4">
+        <v>326826</v>
+      </c>
+      <c r="U13" s="4">
+        <v>326850</v>
+      </c>
+      <c r="V13" s="4">
+        <v>273968</v>
+      </c>
+      <c r="W13" s="4">
+        <v>133397</v>
+      </c>
+      <c r="X13" s="8">
+        <v>116063</v>
+      </c>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="D15" s="5">
+        <v>185</v>
+      </c>
+      <c r="E15" s="5">
+        <v>180</v>
+      </c>
+      <c r="F15" s="5">
+        <v>184</v>
+      </c>
+      <c r="G15" s="5">
+        <v>185</v>
+      </c>
+      <c r="H15" s="5">
+        <v>184</v>
+      </c>
+      <c r="I15" s="5">
+        <v>187</v>
+      </c>
+      <c r="J15" s="5">
+        <v>180</v>
+      </c>
+      <c r="K15" s="5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="D16" s="5">
+        <v>165</v>
+      </c>
+      <c r="E16" s="5">
+        <v>166</v>
+      </c>
+      <c r="F16" s="5">
+        <v>164</v>
+      </c>
+      <c r="G16" s="5">
+        <v>171</v>
+      </c>
+      <c r="H16" s="5">
+        <v>173</v>
+      </c>
+      <c r="I16" s="5">
+        <v>170</v>
+      </c>
+      <c r="J16" s="5">
+        <v>163</v>
+      </c>
+      <c r="K16" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="D17" s="5">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5">
+        <v>47</v>
+      </c>
+      <c r="F17" s="5">
+        <v>47</v>
+      </c>
+      <c r="G17" s="5">
+        <v>53</v>
+      </c>
+      <c r="H17" s="5">
+        <v>52</v>
+      </c>
+      <c r="I17" s="5">
+        <v>51</v>
+      </c>
+      <c r="J17" s="5">
+        <v>46</v>
+      </c>
+      <c r="K17" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5">
+        <v>8.1479999999999997</v>
+      </c>
+      <c r="C18" s="5">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="D18" s="5">
+        <v>103</v>
+      </c>
+      <c r="E18" s="5">
+        <v>106</v>
+      </c>
+      <c r="F18" s="5">
+        <v>102</v>
+      </c>
+      <c r="G18" s="5">
+        <v>257</v>
+      </c>
+      <c r="H18" s="5">
+        <v>243</v>
+      </c>
+      <c r="I18" s="5">
+        <v>243</v>
+      </c>
+      <c r="J18" s="5">
+        <v>103</v>
+      </c>
+      <c r="K18" s="5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5">
+        <v>9.01</v>
+      </c>
+      <c r="C19" s="5">
+        <v>8.4629999999999992</v>
+      </c>
+      <c r="D19" s="5">
+        <v>878</v>
+      </c>
+      <c r="E19" s="5">
+        <v>877</v>
+      </c>
+      <c r="F19" s="5">
+        <v>925</v>
+      </c>
+      <c r="G19" s="5">
+        <v>933</v>
+      </c>
+      <c r="H19" s="5">
+        <v>933</v>
+      </c>
+      <c r="I19" s="5">
+        <v>903</v>
+      </c>
+      <c r="J19" s="5">
+        <v>881</v>
+      </c>
+      <c r="K19" s="5">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5">
+        <v>141</v>
+      </c>
+      <c r="E20" s="5">
+        <v>141</v>
+      </c>
+      <c r="F20" s="5">
+        <v>140</v>
+      </c>
+      <c r="G20" s="5">
+        <v>502</v>
+      </c>
+      <c r="H20" s="5">
+        <v>482</v>
+      </c>
+      <c r="I20" s="5">
+        <v>472</v>
+      </c>
+      <c r="J20" s="5">
+        <v>140</v>
+      </c>
+      <c r="K20" s="5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5">
+        <v>75</v>
+      </c>
+      <c r="C21" s="5">
+        <v>74</v>
+      </c>
+      <c r="D21" s="5">
+        <v>318</v>
+      </c>
+      <c r="E21" s="5">
+        <v>327</v>
+      </c>
+      <c r="F21" s="5">
+        <v>326</v>
+      </c>
+      <c r="G21" s="5">
+        <v>478</v>
+      </c>
+      <c r="H21" s="5">
+        <v>453</v>
+      </c>
+      <c r="I21" s="5">
+        <v>473</v>
+      </c>
+      <c r="J21" s="5">
+        <v>333</v>
+      </c>
+      <c r="K21" s="5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5">
+        <v>78</v>
+      </c>
+      <c r="C22" s="5">
+        <v>78</v>
+      </c>
+      <c r="D22" s="5">
+        <v>7232</v>
+      </c>
+      <c r="E22" s="5">
+        <v>7257</v>
+      </c>
+      <c r="F22" s="5">
+        <v>7244</v>
+      </c>
+      <c r="G22" s="5">
+        <v>7280</v>
+      </c>
+      <c r="H22" s="5">
+        <v>7421</v>
+      </c>
+      <c r="I22" s="5">
+        <v>7488</v>
+      </c>
+      <c r="J22" s="5">
+        <v>7267</v>
+      </c>
+      <c r="K22" s="5">
+        <v>7447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5">
+        <v>112</v>
+      </c>
+      <c r="C23" s="5">
+        <v>115</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1183</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1180</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1173</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1408</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1406</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1402</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1127</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5">
+        <v>393</v>
+      </c>
+      <c r="C24" s="5">
+        <v>390</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3920</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4166</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4180</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5142</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5085</v>
+      </c>
+      <c r="I24" s="5">
+        <v>5107</v>
+      </c>
+      <c r="J24" s="5">
+        <v>4116</v>
+      </c>
+      <c r="K24" s="5">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5">
+        <v>443</v>
+      </c>
+      <c r="C25" s="5">
+        <v>449</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4930</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4318</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4315</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4760</v>
+      </c>
+      <c r="H25" s="5">
+        <v>4684</v>
+      </c>
+      <c r="I25" s="5">
+        <v>4680</v>
+      </c>
+      <c r="J25" s="5">
+        <v>4428</v>
+      </c>
+      <c r="K25" s="5">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5">
+        <v>404</v>
+      </c>
+      <c r="C26" s="5">
+        <v>406</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4491</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4662</v>
+      </c>
+      <c r="F26" s="5">
+        <v>4572</v>
+      </c>
+      <c r="G26" s="5">
+        <v>4796</v>
+      </c>
+      <c r="H26" s="5">
+        <v>4773</v>
+      </c>
+      <c r="I26" s="5">
+        <v>4746</v>
+      </c>
+      <c r="J26" s="5">
+        <v>4592</v>
+      </c>
+      <c r="K26" s="5">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.698</v>
+      </c>
+      <c r="D28" s="4">
+        <v>103</v>
+      </c>
+      <c r="E28" s="4">
+        <v>104</v>
+      </c>
+      <c r="F28" s="4">
+        <v>104</v>
+      </c>
+      <c r="G28" s="4">
+        <v>109</v>
+      </c>
+      <c r="H28" s="4">
+        <v>108</v>
+      </c>
+      <c r="I28" s="4">
+        <v>106</v>
+      </c>
+      <c r="J28" s="4">
+        <v>100</v>
+      </c>
+      <c r="K28" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="D29" s="4">
+        <v>99</v>
+      </c>
+      <c r="E29" s="4">
+        <v>99</v>
+      </c>
+      <c r="F29" s="4">
+        <v>98</v>
+      </c>
+      <c r="G29" s="4">
+        <v>100</v>
+      </c>
+      <c r="H29" s="4">
+        <v>99</v>
+      </c>
+      <c r="I29" s="4">
+        <v>99</v>
+      </c>
+      <c r="J29" s="4">
+        <v>95</v>
+      </c>
+      <c r="K29" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="D30" s="4">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4">
+        <v>20</v>
+      </c>
+      <c r="F30" s="4">
+        <v>19</v>
+      </c>
+      <c r="G30" s="4">
+        <v>26</v>
+      </c>
+      <c r="H30" s="4">
+        <v>25</v>
+      </c>
+      <c r="I30" s="4">
+        <v>24</v>
+      </c>
+      <c r="J30" s="4">
+        <v>19</v>
+      </c>
+      <c r="K30" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="4">
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="C31" s="4">
+        <v>8.5419999999999998</v>
+      </c>
+      <c r="D31" s="4">
+        <v>55</v>
+      </c>
+      <c r="E31" s="4">
+        <v>58</v>
+      </c>
+      <c r="F31" s="4">
+        <v>55</v>
+      </c>
+      <c r="G31" s="4">
+        <v>215</v>
+      </c>
+      <c r="H31" s="4">
+        <v>201</v>
+      </c>
+      <c r="I31" s="4">
+        <v>198</v>
+      </c>
+      <c r="J31" s="4">
+        <v>53</v>
+      </c>
+      <c r="K31" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="4">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="C32" s="4">
+        <v>8.3409999999999993</v>
+      </c>
+      <c r="D32" s="4">
+        <v>480</v>
+      </c>
+      <c r="E32" s="4">
+        <v>478</v>
+      </c>
+      <c r="F32" s="4">
+        <v>476</v>
+      </c>
+      <c r="G32" s="4">
+        <v>486</v>
+      </c>
+      <c r="H32" s="4">
+        <v>488</v>
+      </c>
+      <c r="I32" s="4">
+        <v>482</v>
+      </c>
+      <c r="J32" s="4">
+        <v>476</v>
+      </c>
+      <c r="K32" s="4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="4">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4">
+        <v>56</v>
+      </c>
+      <c r="E33" s="4">
+        <v>57</v>
+      </c>
+      <c r="F33" s="4">
+        <v>57</v>
+      </c>
+      <c r="G33" s="4">
+        <v>393</v>
+      </c>
+      <c r="H33" s="4">
+        <v>405</v>
+      </c>
+      <c r="I33" s="4">
+        <v>401</v>
+      </c>
+      <c r="J33" s="4">
+        <v>58</v>
+      </c>
+      <c r="K33" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4">
+        <v>70</v>
+      </c>
+      <c r="C34" s="4">
+        <v>71</v>
+      </c>
+      <c r="D34" s="4">
+        <v>121</v>
+      </c>
+      <c r="E34" s="4">
+        <v>122</v>
+      </c>
+      <c r="F34" s="4">
+        <v>122</v>
+      </c>
+      <c r="G34" s="4">
+        <v>259</v>
+      </c>
+      <c r="H34" s="4">
+        <v>242</v>
+      </c>
+      <c r="I34" s="4">
+        <v>245</v>
+      </c>
+      <c r="J34" s="4">
+        <v>124</v>
+      </c>
+      <c r="K34" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="4">
+        <v>77</v>
+      </c>
+      <c r="C35" s="4">
+        <v>77</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3240</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3240</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3221</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3248</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3249</v>
+      </c>
+      <c r="I35" s="4">
+        <v>3251</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3281</v>
+      </c>
+      <c r="K35" s="4">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="4">
+        <v>112</v>
+      </c>
+      <c r="C36" s="4">
+        <v>112</v>
+      </c>
+      <c r="D36" s="4">
+        <v>62</v>
+      </c>
+      <c r="E36" s="4">
+        <v>55</v>
+      </c>
+      <c r="F36" s="4">
+        <v>55</v>
+      </c>
+      <c r="G36" s="4">
+        <v>311</v>
+      </c>
+      <c r="H36" s="4">
+        <v>307</v>
+      </c>
+      <c r="I36" s="4">
+        <v>307</v>
+      </c>
+      <c r="J36" s="4">
+        <v>56</v>
+      </c>
+      <c r="K36" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="4">
+        <v>384</v>
+      </c>
+      <c r="C37" s="4">
+        <v>370</v>
+      </c>
+      <c r="D37" s="4">
+        <v>819</v>
+      </c>
+      <c r="E37" s="4">
+        <v>812</v>
+      </c>
+      <c r="F37" s="4">
+        <v>823</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1730</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1683</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1744</v>
+      </c>
+      <c r="J37" s="4">
+        <v>835</v>
+      </c>
+      <c r="K37" s="4">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4">
+        <v>407</v>
+      </c>
+      <c r="C38" s="4">
+        <v>409</v>
+      </c>
+      <c r="D38" s="4">
+        <v>985</v>
+      </c>
+      <c r="E38" s="4">
+        <v>985</v>
+      </c>
+      <c r="F38" s="4">
+        <v>986</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1425</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1422</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1425</v>
+      </c>
+      <c r="J38" s="4">
+        <v>981</v>
+      </c>
+      <c r="K38" s="4">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="4">
+        <v>410</v>
+      </c>
+      <c r="C39" s="4">
+        <v>411</v>
+      </c>
+      <c r="D39" s="4">
+        <v>974</v>
+      </c>
+      <c r="E39" s="4">
+        <v>972</v>
+      </c>
+      <c r="F39" s="4">
+        <v>988</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1415</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1413</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1427</v>
+      </c>
+      <c r="J39" s="4">
+        <v>958</v>
+      </c>
+      <c r="K39" s="4">
+        <v>974</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1537,12 +5043,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2467,7 +5973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N36"/>
   <sheetViews>
@@ -3490,7 +6996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3692,1255 +7198,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="30.375" customWidth="1"/>
-    <col min="6" max="6" width="31.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>525</v>
-      </c>
-      <c r="C2">
-        <v>526</v>
-      </c>
-      <c r="D2">
-        <v>357</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>4358</v>
-      </c>
-      <c r="H2">
-        <v>2915</v>
-      </c>
-      <c r="I2">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>441</v>
-      </c>
-      <c r="C3">
-        <v>368</v>
-      </c>
-      <c r="D3">
-        <v>270</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>3617</v>
-      </c>
-      <c r="H3">
-        <v>2102</v>
-      </c>
-      <c r="I3">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>915</v>
-      </c>
-      <c r="C5">
-        <v>1380</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>12650</v>
-      </c>
-      <c r="H5" s="1">
-        <v>9133</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5727</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>3878</v>
-      </c>
-      <c r="C10">
-        <v>8539</v>
-      </c>
-      <c r="D10">
-        <v>7550</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>75233</v>
-      </c>
-      <c r="H10">
-        <v>55273</v>
-      </c>
-      <c r="I10">
-        <v>40289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>25477</v>
-      </c>
-      <c r="C11">
-        <v>36988</v>
-      </c>
-      <c r="D11">
-        <v>32785</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11">
-        <v>219918</v>
-      </c>
-      <c r="H11">
-        <v>179816</v>
-      </c>
-      <c r="I11">
-        <v>121783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A5:C6">
-    <sortCondition ref="A5"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>571</v>
-      </c>
-      <c r="C3">
-        <v>492</v>
-      </c>
-      <c r="D3">
-        <v>768</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>423</v>
-      </c>
-      <c r="H3">
-        <v>226</v>
-      </c>
-      <c r="I3">
-        <v>314</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3">
-        <v>279</v>
-      </c>
-      <c r="M3">
-        <v>214</v>
-      </c>
-      <c r="N3">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>634</v>
-      </c>
-      <c r="C4">
-        <v>569</v>
-      </c>
-      <c r="D4">
-        <v>770</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>443</v>
-      </c>
-      <c r="H4">
-        <v>498</v>
-      </c>
-      <c r="I4">
-        <v>767</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4">
-        <v>269</v>
-      </c>
-      <c r="M4">
-        <v>226</v>
-      </c>
-      <c r="N4">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>237</v>
-      </c>
-      <c r="C5">
-        <v>172</v>
-      </c>
-      <c r="D5">
-        <v>209</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>103</v>
-      </c>
-      <c r="H5">
-        <v>120</v>
-      </c>
-      <c r="I5">
-        <v>388</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5">
-        <v>94</v>
-      </c>
-      <c r="M5">
-        <v>95</v>
-      </c>
-      <c r="N5">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>74</v>
-      </c>
-      <c r="C6">
-        <v>149</v>
-      </c>
-      <c r="D6">
-        <v>164</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1">
-        <v>77</v>
-      </c>
-      <c r="H6" s="1">
-        <v>155</v>
-      </c>
-      <c r="I6" s="1">
-        <v>209</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="1">
-        <v>110</v>
-      </c>
-      <c r="M6" s="1">
-        <v>125</v>
-      </c>
-      <c r="N6" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>1361</v>
-      </c>
-      <c r="C7">
-        <v>1140</v>
-      </c>
-      <c r="D7">
-        <v>1291</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>1159</v>
-      </c>
-      <c r="H7">
-        <v>956</v>
-      </c>
-      <c r="I7">
-        <v>1142</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="1">
-        <v>968</v>
-      </c>
-      <c r="M7" s="1">
-        <v>915</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>251</v>
-      </c>
-      <c r="C8">
-        <v>260</v>
-      </c>
-      <c r="D8">
-        <v>276</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>305</v>
-      </c>
-      <c r="H8">
-        <v>281</v>
-      </c>
-      <c r="I8">
-        <v>269</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="1">
-        <v>325</v>
-      </c>
-      <c r="M8" s="1">
-        <v>362</v>
-      </c>
-      <c r="N8" s="1">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>789</v>
-      </c>
-      <c r="C9">
-        <v>619</v>
-      </c>
-      <c r="D9">
-        <v>558</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>1106</v>
-      </c>
-      <c r="H9">
-        <v>869</v>
-      </c>
-      <c r="I9">
-        <v>852</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1822</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1418</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>4916</v>
-      </c>
-      <c r="C10">
-        <v>4520</v>
-      </c>
-      <c r="D10">
-        <v>5244</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>5800</v>
-      </c>
-      <c r="H10">
-        <v>5307</v>
-      </c>
-      <c r="I10">
-        <v>5965</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="1">
-        <v>8730</v>
-      </c>
-      <c r="M10" s="1">
-        <v>8193</v>
-      </c>
-      <c r="N10" s="1">
-        <v>8761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>832</v>
-      </c>
-      <c r="C11">
-        <v>836</v>
-      </c>
-      <c r="D11">
-        <v>903</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11">
-        <v>1018</v>
-      </c>
-      <c r="H11">
-        <v>1230</v>
-      </c>
-      <c r="I11">
-        <v>1067</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11">
-        <v>1851</v>
-      </c>
-      <c r="M11">
-        <v>1755</v>
-      </c>
-      <c r="N11">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>2549</v>
-      </c>
-      <c r="C12">
-        <v>3460</v>
-      </c>
-      <c r="D12">
-        <v>2465</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12">
-        <v>2928</v>
-      </c>
-      <c r="H12">
-        <v>4398</v>
-      </c>
-      <c r="I12">
-        <v>2676</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12">
-        <v>4904</v>
-      </c>
-      <c r="M12">
-        <v>5132</v>
-      </c>
-      <c r="N12">
-        <v>4870</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>2431</v>
-      </c>
-      <c r="C13">
-        <v>3897</v>
-      </c>
-      <c r="D13">
-        <v>2420</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>2950</v>
-      </c>
-      <c r="H13">
-        <v>4903</v>
-      </c>
-      <c r="I13">
-        <v>2678</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>5560</v>
-      </c>
-      <c r="M13">
-        <v>5347</v>
-      </c>
-      <c r="N13">
-        <v>5650</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>2615</v>
-      </c>
-      <c r="C14">
-        <v>5002</v>
-      </c>
-      <c r="D14">
-        <v>2484</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14">
-        <v>3240</v>
-      </c>
-      <c r="H14">
-        <v>5300</v>
-      </c>
-      <c r="I14">
-        <v>2999</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14">
-        <v>5453</v>
-      </c>
-      <c r="M14">
-        <v>5823</v>
-      </c>
-      <c r="N14">
-        <v>5899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>4458</v>
-      </c>
-      <c r="C17">
-        <v>6047</v>
-      </c>
-      <c r="D17">
-        <v>4985</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17">
-        <v>3114</v>
-      </c>
-      <c r="H17">
-        <v>1782</v>
-      </c>
-      <c r="I17">
-        <v>4225</v>
-      </c>
-      <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17">
-        <v>1610</v>
-      </c>
-      <c r="M17">
-        <v>2038</v>
-      </c>
-      <c r="N17">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>4149</v>
-      </c>
-      <c r="C18">
-        <v>5402</v>
-      </c>
-      <c r="D18">
-        <v>4426</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>2622</v>
-      </c>
-      <c r="H18">
-        <v>3907</v>
-      </c>
-      <c r="I18">
-        <v>2840</v>
-      </c>
-      <c r="K18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18">
-        <v>1407</v>
-      </c>
-      <c r="M18">
-        <v>3744</v>
-      </c>
-      <c r="N18">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>8308</v>
-      </c>
-      <c r="C19">
-        <v>11021</v>
-      </c>
-      <c r="D19">
-        <v>7194</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>7350</v>
-      </c>
-      <c r="H19">
-        <v>9696</v>
-      </c>
-      <c r="I19">
-        <v>6567</v>
-      </c>
-      <c r="K19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19">
-        <v>6657</v>
-      </c>
-      <c r="M19">
-        <v>8051</v>
-      </c>
-      <c r="N19">
-        <v>6328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>3948</v>
-      </c>
-      <c r="C20">
-        <v>35182</v>
-      </c>
-      <c r="D20">
-        <v>39167</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4529</v>
-      </c>
-      <c r="H20">
-        <v>29193</v>
-      </c>
-      <c r="I20">
-        <v>29519</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="1">
-        <v>3950</v>
-      </c>
-      <c r="M20" s="1">
-        <v>11452</v>
-      </c>
-      <c r="N20" s="1">
-        <v>11429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <v>8296</v>
-      </c>
-      <c r="C21">
-        <v>13457</v>
-      </c>
-      <c r="D21">
-        <v>8273</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>5821</v>
-      </c>
-      <c r="H21">
-        <v>9629</v>
-      </c>
-      <c r="I21">
-        <v>5671</v>
-      </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="1">
-        <v>3129</v>
-      </c>
-      <c r="M21" s="1">
-        <v>4699</v>
-      </c>
-      <c r="N21" s="1">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>16718</v>
-      </c>
-      <c r="C22">
-        <v>25123</v>
-      </c>
-      <c r="D22">
-        <v>18742</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22">
-        <v>14522</v>
-      </c>
-      <c r="H22">
-        <v>16709</v>
-      </c>
-      <c r="I22">
-        <v>16349</v>
-      </c>
-      <c r="K22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="1">
-        <v>12773</v>
-      </c>
-      <c r="M22" s="1">
-        <v>13081</v>
-      </c>
-      <c r="N22" s="1">
-        <v>13049</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>59983</v>
-      </c>
-      <c r="C23">
-        <v>73440</v>
-      </c>
-      <c r="D23">
-        <v>70578</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23">
-        <v>52208</v>
-      </c>
-      <c r="H23">
-        <v>58246</v>
-      </c>
-      <c r="I23">
-        <v>58920</v>
-      </c>
-      <c r="K23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="1">
-        <v>45415</v>
-      </c>
-      <c r="M23" s="1">
-        <v>47287</v>
-      </c>
-      <c r="N23" s="1">
-        <v>47330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>29545</v>
-      </c>
-      <c r="C24">
-        <v>59662</v>
-      </c>
-      <c r="D24">
-        <v>29515</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24">
-        <v>24649</v>
-      </c>
-      <c r="H24">
-        <v>47038</v>
-      </c>
-      <c r="I24">
-        <v>23914</v>
-      </c>
-      <c r="K24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="1">
-        <v>17657</v>
-      </c>
-      <c r="M24" s="1">
-        <v>27832</v>
-      </c>
-      <c r="N24" s="1">
-        <v>17940</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25">
-        <v>45049</v>
-      </c>
-      <c r="C25">
-        <v>91891</v>
-      </c>
-      <c r="D25">
-        <v>58006</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25">
-        <v>39881</v>
-      </c>
-      <c r="H25">
-        <v>76606</v>
-      </c>
-      <c r="I25">
-        <v>48875</v>
-      </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25">
-        <v>30791</v>
-      </c>
-      <c r="M25">
-        <v>44065</v>
-      </c>
-      <c r="N25">
-        <v>32074</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26">
-        <v>174386</v>
-      </c>
-      <c r="C26">
-        <v>257572</v>
-      </c>
-      <c r="D26">
-        <v>193377</v>
-      </c>
-      <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26">
-        <v>157064</v>
-      </c>
-      <c r="H26">
-        <v>218569</v>
-      </c>
-      <c r="I26">
-        <v>166807</v>
-      </c>
-      <c r="K26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26">
-        <v>108506</v>
-      </c>
-      <c r="M26">
-        <v>147139</v>
-      </c>
-      <c r="N26">
-        <v>114236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>186943</v>
-      </c>
-      <c r="C27">
-        <v>270147</v>
-      </c>
-      <c r="D27">
-        <v>207949</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <v>168154</v>
-      </c>
-      <c r="H27">
-        <v>228959</v>
-      </c>
-      <c r="I27">
-        <v>177493</v>
-      </c>
-      <c r="K27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27">
-        <v>115895</v>
-      </c>
-      <c r="M27">
-        <v>157602</v>
-      </c>
-      <c r="N27">
-        <v>122353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28">
-        <v>189958</v>
-      </c>
-      <c r="C28">
-        <v>272450</v>
-      </c>
-      <c r="D28">
-        <v>207790</v>
-      </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28">
-        <v>168794</v>
-      </c>
-      <c r="H28">
-        <v>232117</v>
-      </c>
-      <c r="I28">
-        <v>177801</v>
-      </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28">
-        <v>116063</v>
-      </c>
-      <c r="M28">
-        <v>161453</v>
-      </c>
-      <c r="N28">
-        <v>122410</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" activeTab="2"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
     <sheet name="节点边度数" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -683,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2255,7 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -7197,5 +7197,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" activeTab="2"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
     <sheet name="节点边度数" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="64">
   <si>
     <t>hash</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -683,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -930,7 +930,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:O28"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2253,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2267,7 +2267,7 @@
     <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>5727</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>40289</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>121783</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -3319,8 +3319,62 @@
       <c r="K16" s="5">
         <v>163</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="4">
+        <f>ROUNDUP(N2/$Z16,3)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" ref="O16:Y16" si="0">ROUNDUP(O2/$Z16,3)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Y16" s="4">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Z16">
+        <v>1895064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3354,8 +3408,62 @@
       <c r="K17" s="5">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" ref="N17:Y27" si="1">ROUNDUP(N3/$Z17,3)</f>
+        <v>0.749</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.219</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.186</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="Z17">
+        <v>12073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -3389,8 +3497,62 @@
       <c r="K18" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Q18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.224</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.377</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="Y18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>23240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
@@ -3424,8 +3586,62 @@
       <c r="K19" s="5">
         <v>897</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.751</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.754</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.185</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7E-2</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z19">
+        <v>85003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -3459,8 +3675,62 @@
       <c r="K20" s="5">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>29612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -3494,8 +3764,62 @@
       <c r="K21" s="5">
         <v>390</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.107</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.188</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.108</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>118445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -3529,8 +3853,62 @@
       <c r="K22" s="5">
         <v>7447</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.373</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34400000000000003</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.218</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>198035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
@@ -3564,8 +3942,62 @@
       <c r="K23" s="5">
         <v>1135</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.751</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.112</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>128024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -3599,8 +4031,62 @@
       <c r="K24" s="5">
         <v>4122</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.46900000000000003</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="Y24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.223</v>
+      </c>
+      <c r="Z24">
+        <v>181385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
@@ -3634,8 +4120,62 @@
       <c r="K25" s="5">
         <v>4584</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.751</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.754</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.248</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="Y25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>461004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -3669,8 +4209,62 @@
       <c r="K26" s="5">
         <v>4537</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.751</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.754</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Y26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>490047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -3704,8 +4298,62 @@
       <c r="K27" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.752</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.754</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34400000000000003</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="W27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="X27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="Y27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>492351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -3740,7 +4388,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:26">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -3775,7 +4423,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:26">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -3810,7 +4458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:26">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -3845,7 +4493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:26">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -7001,7 +7649,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540"/>
   </bookViews>
   <sheets>
-    <sheet name="Final - SGPStreamKL（64位）" sheetId="7" r:id="rId1"/>
-    <sheet name="Final - SGPKL（64位）" sheetId="6" r:id="rId2"/>
-    <sheet name="Final - relatedwork" sheetId="8" r:id="rId3"/>
+    <sheet name="Final results" sheetId="8" r:id="rId1"/>
+    <sheet name="Final - SGPStreamKL（64位）" sheetId="7" r:id="rId2"/>
+    <sheet name="Final - SGPKL（64位）" sheetId="6" r:id="rId3"/>
     <sheet name="StreamPartition30%（32位）" sheetId="1" r:id="rId4"/>
     <sheet name="StreamPartition50%80%（64位）" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
     <sheet name="节点边度数" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="83">
   <si>
     <t>hash</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -294,6 +294,80 @@
     <t>SGPSTREM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>higgs-reply_network</t>
+  </si>
+  <si>
+    <t>avg.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGLd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGLs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Total Elapse (\rho = m*x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGLs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    cut (\rho = m*x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    \varsigma (\rho = m*x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    \tau (\rho = m*x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Total Elapse - k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    cut </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    \varsigma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成数据集实验 关于\rho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于k，参数\rho = 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    \tau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于AC cache，参数\rho = 0.3， k=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Total Elapse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +421,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,6 +489,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,7 +769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,10 +777,4266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="37.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="9" style="5"/>
+    <col min="14" max="14" width="24.5" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4.5119999999999996</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3.923</v>
+      </c>
+      <c r="D2" s="8">
+        <v>506</v>
+      </c>
+      <c r="E2" s="8">
+        <v>552</v>
+      </c>
+      <c r="F2" s="8">
+        <v>533</v>
+      </c>
+      <c r="G2" s="8">
+        <v>512</v>
+      </c>
+      <c r="H2" s="8">
+        <v>534</v>
+      </c>
+      <c r="I2" s="8">
+        <v>518</v>
+      </c>
+      <c r="J2" s="8">
+        <v>520</v>
+      </c>
+      <c r="K2" s="8">
+        <v>518</v>
+      </c>
+      <c r="L2" s="8">
+        <v>397</v>
+      </c>
+      <c r="M2" s="8">
+        <v>525</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4">
+        <v>10147</v>
+      </c>
+      <c r="P2" s="4">
+        <v>11747</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>535</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2743</v>
+      </c>
+      <c r="S2" s="4">
+        <v>3007</v>
+      </c>
+      <c r="T2" s="4">
+        <v>8858</v>
+      </c>
+      <c r="U2" s="4">
+        <v>8894</v>
+      </c>
+      <c r="V2" s="4">
+        <v>8860</v>
+      </c>
+      <c r="W2" s="4">
+        <v>3105</v>
+      </c>
+      <c r="X2" s="4">
+        <v>907</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>1610</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4.4180000000000001</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4.5979999999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>518</v>
+      </c>
+      <c r="E3" s="8">
+        <v>502</v>
+      </c>
+      <c r="F3" s="8">
+        <v>453</v>
+      </c>
+      <c r="G3" s="8">
+        <v>439</v>
+      </c>
+      <c r="H3" s="8">
+        <v>439</v>
+      </c>
+      <c r="I3" s="8">
+        <v>440</v>
+      </c>
+      <c r="J3" s="8">
+        <v>435</v>
+      </c>
+      <c r="K3" s="8">
+        <v>435</v>
+      </c>
+      <c r="L3" s="8">
+        <v>409</v>
+      </c>
+      <c r="M3" s="8">
+        <v>441</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="4">
+        <v>9032</v>
+      </c>
+      <c r="P3" s="4">
+        <v>10688</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>576</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2566</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2642</v>
+      </c>
+      <c r="T3" s="4">
+        <v>8000</v>
+      </c>
+      <c r="U3" s="4">
+        <v>8038</v>
+      </c>
+      <c r="V3" s="4">
+        <v>8038</v>
+      </c>
+      <c r="W3" s="4">
+        <v>2238</v>
+      </c>
+      <c r="X3" s="4">
+        <v>648</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>1401</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>8.82</v>
+      </c>
+      <c r="C4" s="8">
+        <v>8.7390000000000008</v>
+      </c>
+      <c r="D4" s="8">
+        <v>125</v>
+      </c>
+      <c r="E4" s="8">
+        <v>125</v>
+      </c>
+      <c r="F4" s="8">
+        <v>125</v>
+      </c>
+      <c r="G4" s="8">
+        <v>139</v>
+      </c>
+      <c r="H4" s="8">
+        <v>137</v>
+      </c>
+      <c r="I4" s="8">
+        <v>138</v>
+      </c>
+      <c r="J4" s="8">
+        <v>125</v>
+      </c>
+      <c r="K4" s="8">
+        <v>123</v>
+      </c>
+      <c r="L4" s="8">
+        <v>112</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="4">
+        <v>15438</v>
+      </c>
+      <c r="P4" s="4">
+        <v>15316</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>673</v>
+      </c>
+      <c r="R4" s="4">
+        <v>8695</v>
+      </c>
+      <c r="S4" s="4">
+        <v>8939</v>
+      </c>
+      <c r="T4" s="4">
+        <v>5197</v>
+      </c>
+      <c r="U4" s="4">
+        <v>8961</v>
+      </c>
+      <c r="V4" s="4">
+        <v>9019</v>
+      </c>
+      <c r="W4" s="4">
+        <v>9464</v>
+      </c>
+      <c r="X4" s="4">
+        <v>8749</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>6328</v>
+      </c>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8">
+        <v>209</v>
+      </c>
+      <c r="E5" s="8">
+        <v>207</v>
+      </c>
+      <c r="F5" s="8">
+        <v>204</v>
+      </c>
+      <c r="G5" s="8">
+        <v>582</v>
+      </c>
+      <c r="H5" s="8">
+        <v>603</v>
+      </c>
+      <c r="I5" s="8">
+        <v>600</v>
+      </c>
+      <c r="J5" s="8">
+        <v>222</v>
+      </c>
+      <c r="K5" s="8">
+        <v>227</v>
+      </c>
+      <c r="L5" s="8">
+        <v>74</v>
+      </c>
+      <c r="M5" s="8">
+        <v>915</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="4">
+        <v>63810</v>
+      </c>
+      <c r="P5" s="4">
+        <v>64062</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1903</v>
+      </c>
+      <c r="R5" s="4">
+        <v>11124</v>
+      </c>
+      <c r="S5" s="4">
+        <v>22528</v>
+      </c>
+      <c r="T5" s="4">
+        <v>4255</v>
+      </c>
+      <c r="U5" s="4">
+        <v>12502</v>
+      </c>
+      <c r="V5" s="4">
+        <v>15720</v>
+      </c>
+      <c r="W5" s="4">
+        <v>25855</v>
+      </c>
+      <c r="X5" s="4">
+        <v>5983</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>3950</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>5727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2324</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2290</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2550</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2252</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2438</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2370</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2272</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2361</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1140</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="4">
+        <v>21952</v>
+      </c>
+      <c r="P6" s="4">
+        <v>25146</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1397</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6166</v>
+      </c>
+      <c r="S6" s="4">
+        <v>6822</v>
+      </c>
+      <c r="T6" s="4">
+        <v>19255</v>
+      </c>
+      <c r="U6" s="4">
+        <v>19348</v>
+      </c>
+      <c r="V6" s="4">
+        <v>19348</v>
+      </c>
+      <c r="W6" s="4">
+        <v>6230</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1687</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>3030</v>
+      </c>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8">
+        <v>63</v>
+      </c>
+      <c r="D7" s="8">
+        <v>544</v>
+      </c>
+      <c r="E7" s="8">
+        <v>542</v>
+      </c>
+      <c r="F7" s="8">
+        <v>542</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1543</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1310</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1290</v>
+      </c>
+      <c r="J7" s="8">
+        <v>501</v>
+      </c>
+      <c r="K7" s="8">
+        <v>491</v>
+      </c>
+      <c r="L7" s="8">
+        <v>251</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4">
+        <v>88727</v>
+      </c>
+      <c r="P7" s="4">
+        <v>90302</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>281</v>
+      </c>
+      <c r="R7" s="4">
+        <v>19897</v>
+      </c>
+      <c r="S7" s="4">
+        <v>19911</v>
+      </c>
+      <c r="T7" s="4">
+        <v>12573</v>
+      </c>
+      <c r="U7" s="4">
+        <v>22223</v>
+      </c>
+      <c r="V7" s="4">
+        <v>23788</v>
+      </c>
+      <c r="W7" s="4">
+        <v>47158</v>
+      </c>
+      <c r="X7" s="4">
+        <v>14689</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>12773</v>
+      </c>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
+        <v>70</v>
+      </c>
+      <c r="C8" s="8">
+        <v>70</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1143</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1168</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1209</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1558</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1472</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1528</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1140</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1145</v>
+      </c>
+      <c r="L8" s="8">
+        <v>558</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="4">
+        <v>191809</v>
+      </c>
+      <c r="P8" s="4">
+        <v>192929</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>518</v>
+      </c>
+      <c r="R8" s="4">
+        <v>69746</v>
+      </c>
+      <c r="S8" s="4">
+        <v>73768</v>
+      </c>
+      <c r="T8" s="4">
+        <v>12694</v>
+      </c>
+      <c r="U8" s="4">
+        <v>68020</v>
+      </c>
+      <c r="V8" s="4">
+        <v>68152</v>
+      </c>
+      <c r="W8" s="4">
+        <v>82061</v>
+      </c>
+      <c r="X8" s="4">
+        <v>42994</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>45415</v>
+      </c>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8">
+        <v>233</v>
+      </c>
+      <c r="C9" s="8">
+        <v>232</v>
+      </c>
+      <c r="D9" s="8">
+        <v>16507</v>
+      </c>
+      <c r="E9" s="8">
+        <v>16715</v>
+      </c>
+      <c r="F9" s="8">
+        <v>16716</v>
+      </c>
+      <c r="G9" s="8">
+        <v>16704</v>
+      </c>
+      <c r="H9" s="8">
+        <v>16811</v>
+      </c>
+      <c r="I9" s="8">
+        <v>16343</v>
+      </c>
+      <c r="J9" s="8">
+        <v>16541</v>
+      </c>
+      <c r="K9" s="8">
+        <v>16581</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4520</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="4">
+        <v>91721</v>
+      </c>
+      <c r="P9" s="4">
+        <v>96022</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>12470</v>
+      </c>
+      <c r="R9" s="4">
+        <v>30737</v>
+      </c>
+      <c r="S9" s="4">
+        <v>36734</v>
+      </c>
+      <c r="T9" s="4">
+        <v>81632</v>
+      </c>
+      <c r="U9" s="4">
+        <v>81316</v>
+      </c>
+      <c r="V9" s="4">
+        <v>81316</v>
+      </c>
+      <c r="W9" s="4">
+        <v>35107</v>
+      </c>
+      <c r="X9" s="4">
+        <v>14245</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>17657</v>
+      </c>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>421</v>
+      </c>
+      <c r="C10" s="8">
+        <v>417</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3179</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3104</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3110</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3934</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3884</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3988</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3031</v>
+      </c>
+      <c r="K10" s="8">
+        <v>3067</v>
+      </c>
+      <c r="L10" s="8">
+        <v>832</v>
+      </c>
+      <c r="M10" s="8">
+        <v>3878</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="4">
+        <v>135978</v>
+      </c>
+      <c r="P10" s="4">
+        <v>139147</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>10</v>
+      </c>
+      <c r="R10" s="4">
+        <v>48529</v>
+      </c>
+      <c r="S10" s="4">
+        <v>48720</v>
+      </c>
+      <c r="T10" s="4">
+        <v>15067</v>
+      </c>
+      <c r="U10" s="4">
+        <v>46778</v>
+      </c>
+      <c r="V10" s="4">
+        <v>47051</v>
+      </c>
+      <c r="W10" s="4">
+        <v>84951</v>
+      </c>
+      <c r="X10" s="4">
+        <v>32088</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>30791</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>40289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1420</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1426</v>
+      </c>
+      <c r="D11" s="8">
+        <v>9023</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10348</v>
+      </c>
+      <c r="F11" s="8">
+        <v>10395</v>
+      </c>
+      <c r="G11" s="8">
+        <v>13252</v>
+      </c>
+      <c r="H11" s="8">
+        <v>13377</v>
+      </c>
+      <c r="I11" s="8">
+        <v>13255</v>
+      </c>
+      <c r="J11" s="8">
+        <v>10841</v>
+      </c>
+      <c r="K11" s="8">
+        <v>10520</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2465</v>
+      </c>
+      <c r="M11" s="8">
+        <v>25477</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="4">
+        <v>345768</v>
+      </c>
+      <c r="P11" s="4">
+        <v>347210</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>3272</v>
+      </c>
+      <c r="R11" s="4">
+        <v>165486</v>
+      </c>
+      <c r="S11" s="4">
+        <v>160183</v>
+      </c>
+      <c r="T11" s="4">
+        <v>119762</v>
+      </c>
+      <c r="U11" s="4">
+        <v>159791</v>
+      </c>
+      <c r="V11" s="4">
+        <v>151897</v>
+      </c>
+      <c r="W11" s="4">
+        <v>253848</v>
+      </c>
+      <c r="X11" s="4">
+        <v>114190</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>108506</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>121783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1522</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1616</v>
+      </c>
+      <c r="D12" s="8">
+        <v>12053</v>
+      </c>
+      <c r="E12" s="8">
+        <v>12364</v>
+      </c>
+      <c r="F12" s="8">
+        <v>13016</v>
+      </c>
+      <c r="G12" s="8">
+        <v>13471</v>
+      </c>
+      <c r="H12" s="8">
+        <v>13811</v>
+      </c>
+      <c r="I12" s="8">
+        <v>13719</v>
+      </c>
+      <c r="J12" s="8">
+        <v>12319</v>
+      </c>
+      <c r="K12" s="8">
+        <v>12636</v>
+      </c>
+      <c r="L12" s="8">
+        <v>2420</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="4">
+        <v>367881</v>
+      </c>
+      <c r="P12" s="4">
+        <v>369288</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>2997</v>
+      </c>
+      <c r="R12" s="4">
+        <v>198519</v>
+      </c>
+      <c r="S12" s="4">
+        <v>167265</v>
+      </c>
+      <c r="T12" s="4">
+        <v>326727</v>
+      </c>
+      <c r="U12" s="4">
+        <v>325565</v>
+      </c>
+      <c r="V12" s="4">
+        <v>325688</v>
+      </c>
+      <c r="W12" s="4">
+        <v>271549</v>
+      </c>
+      <c r="X12" s="4">
+        <v>132594</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>115895</v>
+      </c>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1347</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1308</v>
+      </c>
+      <c r="D13" s="8">
+        <v>11069</v>
+      </c>
+      <c r="E13" s="8">
+        <v>11187</v>
+      </c>
+      <c r="F13" s="8">
+        <v>11093</v>
+      </c>
+      <c r="G13" s="8">
+        <v>12379</v>
+      </c>
+      <c r="H13" s="8">
+        <v>12573</v>
+      </c>
+      <c r="I13" s="8">
+        <v>11977</v>
+      </c>
+      <c r="J13" s="8">
+        <v>10923</v>
+      </c>
+      <c r="K13" s="8">
+        <v>10912</v>
+      </c>
+      <c r="L13" s="8">
+        <v>2484</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="4">
+        <v>369847</v>
+      </c>
+      <c r="P13" s="4">
+        <v>370884</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>2798</v>
+      </c>
+      <c r="R13" s="4">
+        <v>199870</v>
+      </c>
+      <c r="S13" s="4">
+        <v>169334</v>
+      </c>
+      <c r="T13" s="4">
+        <v>328050</v>
+      </c>
+      <c r="U13" s="4">
+        <v>326826</v>
+      </c>
+      <c r="V13" s="4">
+        <v>326850</v>
+      </c>
+      <c r="W13" s="4">
+        <v>273968</v>
+      </c>
+      <c r="X13" s="4">
+        <v>133397</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>116063</v>
+      </c>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="10">
+        <f>AVERAGE(B2:B13)</f>
+        <v>429.14583333333331</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:K14" si="0">AVERAGE(C2:C13)</f>
+        <v>433.93833333333333</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>4766.666666666667</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>4925.333333333333</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>4995.5</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>5563.75</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="0"/>
+        <v>5615.75</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>5513.833333333333</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>4905.833333333333</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="0"/>
+        <v>4918</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" ref="L14" si="1">AVERAGE(L2:L13)</f>
+        <v>1305.1666666666667</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" ref="M14" si="2">AVERAGE(M2:M13)</f>
+        <v>6247.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="D16" s="8">
+        <v>185</v>
+      </c>
+      <c r="E16" s="8">
+        <v>180</v>
+      </c>
+      <c r="F16" s="8">
+        <v>184</v>
+      </c>
+      <c r="G16" s="8">
+        <v>185</v>
+      </c>
+      <c r="H16" s="8">
+        <v>184</v>
+      </c>
+      <c r="I16" s="8">
+        <v>187</v>
+      </c>
+      <c r="J16" s="8">
+        <v>180</v>
+      </c>
+      <c r="K16" s="8">
+        <v>183</v>
+      </c>
+      <c r="L16" s="8">
+        <v>226</v>
+      </c>
+      <c r="M16" s="8">
+        <v>526</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="4">
+        <f>ROUNDUP(O2/$AA16,3)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" ref="P16:Z16" si="3">ROUNDUP(P2/$AA16,3)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Y16" s="4">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Z16" s="4">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>1895064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="D17" s="8">
+        <v>165</v>
+      </c>
+      <c r="E17" s="8">
+        <v>166</v>
+      </c>
+      <c r="F17" s="8">
+        <v>164</v>
+      </c>
+      <c r="G17" s="8">
+        <v>171</v>
+      </c>
+      <c r="H17" s="8">
+        <v>173</v>
+      </c>
+      <c r="I17" s="8">
+        <v>170</v>
+      </c>
+      <c r="J17" s="8">
+        <v>163</v>
+      </c>
+      <c r="K17" s="8">
+        <v>163</v>
+      </c>
+      <c r="L17" s="8">
+        <v>443</v>
+      </c>
+      <c r="M17" s="8">
+        <v>368</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" ref="O17:Z27" si="4">ROUNDUP(O3/$AA17,3)</f>
+        <v>0.749</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.219</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.186</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="4"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="4"/>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>12073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="D18" s="8">
+        <v>47</v>
+      </c>
+      <c r="E18" s="8">
+        <v>47</v>
+      </c>
+      <c r="F18" s="8">
+        <v>47</v>
+      </c>
+      <c r="G18" s="8">
+        <v>53</v>
+      </c>
+      <c r="H18" s="8">
+        <v>52</v>
+      </c>
+      <c r="I18" s="8">
+        <v>51</v>
+      </c>
+      <c r="J18" s="8">
+        <v>46</v>
+      </c>
+      <c r="K18" s="8">
+        <v>47</v>
+      </c>
+      <c r="L18" s="8">
+        <v>103</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66</v>
+      </c>
+      <c r="Q18" s="4">
+        <f t="shared" si="4"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.224</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.377</v>
+      </c>
+      <c r="Y18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="Z18" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>23240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8">
+        <v>8.1479999999999997</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="D19" s="8">
+        <v>103</v>
+      </c>
+      <c r="E19" s="8">
+        <v>106</v>
+      </c>
+      <c r="F19" s="8">
+        <v>102</v>
+      </c>
+      <c r="G19" s="8">
+        <v>257</v>
+      </c>
+      <c r="H19" s="8">
+        <v>243</v>
+      </c>
+      <c r="I19" s="8">
+        <v>243</v>
+      </c>
+      <c r="J19" s="8">
+        <v>103</v>
+      </c>
+      <c r="K19" s="8">
+        <v>102</v>
+      </c>
+      <c r="L19" s="8">
+        <v>77</v>
+      </c>
+      <c r="M19" s="8">
+        <v>1380</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="4"/>
+        <v>0.751</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="4"/>
+        <v>0.754</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="4"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="4"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="4"/>
+        <v>0.185</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="4"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="4"/>
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="4"/>
+        <v>4.7E-2</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="4"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>85003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="8">
+        <v>9.01</v>
+      </c>
+      <c r="C20" s="8">
+        <v>8.4629999999999992</v>
+      </c>
+      <c r="D20" s="8">
+        <v>878</v>
+      </c>
+      <c r="E20" s="8">
+        <v>877</v>
+      </c>
+      <c r="F20" s="8">
+        <v>925</v>
+      </c>
+      <c r="G20" s="8">
+        <v>933</v>
+      </c>
+      <c r="H20" s="8">
+        <v>933</v>
+      </c>
+      <c r="I20" s="8">
+        <v>903</v>
+      </c>
+      <c r="J20" s="8">
+        <v>881</v>
+      </c>
+      <c r="K20" s="8">
+        <v>897</v>
+      </c>
+      <c r="L20" s="8">
+        <v>956</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.85</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="4"/>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Z20" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>29612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8">
+        <v>141</v>
+      </c>
+      <c r="E21" s="8">
+        <v>141</v>
+      </c>
+      <c r="F21" s="8">
+        <v>140</v>
+      </c>
+      <c r="G21" s="8">
+        <v>502</v>
+      </c>
+      <c r="H21" s="8">
+        <v>482</v>
+      </c>
+      <c r="I21" s="8">
+        <v>472</v>
+      </c>
+      <c r="J21" s="8">
+        <v>140</v>
+      </c>
+      <c r="K21" s="8">
+        <v>141</v>
+      </c>
+      <c r="L21" s="8">
+        <v>269</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.107</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.188</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.108</v>
+      </c>
+      <c r="Z21" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>118445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="8">
+        <v>75</v>
+      </c>
+      <c r="C22" s="8">
+        <v>74</v>
+      </c>
+      <c r="D22" s="8">
+        <v>318</v>
+      </c>
+      <c r="E22" s="8">
+        <v>327</v>
+      </c>
+      <c r="F22" s="8">
+        <v>326</v>
+      </c>
+      <c r="G22" s="8">
+        <v>478</v>
+      </c>
+      <c r="H22" s="8">
+        <v>453</v>
+      </c>
+      <c r="I22" s="8">
+        <v>473</v>
+      </c>
+      <c r="J22" s="8">
+        <v>333</v>
+      </c>
+      <c r="K22" s="8">
+        <v>390</v>
+      </c>
+      <c r="L22" s="8">
+        <v>852</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.373</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="4"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34400000000000003</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.218</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.23</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>198035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="8">
+        <v>78</v>
+      </c>
+      <c r="C23" s="8">
+        <v>78</v>
+      </c>
+      <c r="D23" s="8">
+        <v>7232</v>
+      </c>
+      <c r="E23" s="8">
+        <v>7257</v>
+      </c>
+      <c r="F23" s="8">
+        <v>7244</v>
+      </c>
+      <c r="G23" s="8">
+        <v>7280</v>
+      </c>
+      <c r="H23" s="8">
+        <v>7421</v>
+      </c>
+      <c r="I23" s="8">
+        <v>7488</v>
+      </c>
+      <c r="J23" s="8">
+        <v>7267</v>
+      </c>
+      <c r="K23" s="8">
+        <v>7447</v>
+      </c>
+      <c r="L23" s="8">
+        <v>5307</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.751</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="4"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.112</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="Z23" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>128024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="8">
+        <v>112</v>
+      </c>
+      <c r="C24" s="8">
+        <v>115</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1183</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1180</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1173</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1408</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1406</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1402</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1127</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1135</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1018</v>
+      </c>
+      <c r="M24" s="8">
+        <v>8539</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="4"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.46900000000000003</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="Y24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.17</v>
+      </c>
+      <c r="Z24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.223</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>181385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8">
+        <v>393</v>
+      </c>
+      <c r="C25" s="8">
+        <v>390</v>
+      </c>
+      <c r="D25" s="8">
+        <v>3920</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4166</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4180</v>
+      </c>
+      <c r="G25" s="8">
+        <v>5142</v>
+      </c>
+      <c r="H25" s="8">
+        <v>5085</v>
+      </c>
+      <c r="I25" s="8">
+        <v>5107</v>
+      </c>
+      <c r="J25" s="8">
+        <v>4116</v>
+      </c>
+      <c r="K25" s="8">
+        <v>4122</v>
+      </c>
+      <c r="L25" s="8">
+        <v>2676</v>
+      </c>
+      <c r="M25" s="8">
+        <v>36988</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.751</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.754</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.33</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.248</v>
+      </c>
+      <c r="Y25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="Z25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>461004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8">
+        <v>443</v>
+      </c>
+      <c r="C26" s="8">
+        <v>449</v>
+      </c>
+      <c r="D26" s="8">
+        <v>4930</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4318</v>
+      </c>
+      <c r="F26" s="8">
+        <v>4315</v>
+      </c>
+      <c r="G26" s="8">
+        <v>4760</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4684</v>
+      </c>
+      <c r="I26" s="8">
+        <v>4680</v>
+      </c>
+      <c r="J26" s="8">
+        <v>4428</v>
+      </c>
+      <c r="K26" s="8">
+        <v>4584</v>
+      </c>
+      <c r="L26" s="8">
+        <v>2678</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.751</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.754</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="Y26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Z26" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>490047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8">
+        <v>404</v>
+      </c>
+      <c r="C27" s="8">
+        <v>406</v>
+      </c>
+      <c r="D27" s="8">
+        <v>4491</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4662</v>
+      </c>
+      <c r="F27" s="8">
+        <v>4572</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4796</v>
+      </c>
+      <c r="H27" s="8">
+        <v>4773</v>
+      </c>
+      <c r="I27" s="8">
+        <v>4746</v>
+      </c>
+      <c r="J27" s="8">
+        <v>4592</v>
+      </c>
+      <c r="K27" s="8">
+        <v>4537</v>
+      </c>
+      <c r="L27" s="8">
+        <v>2999</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.752</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.754</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34400000000000003</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="W27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="X27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="Y27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="Z27" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>492351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="10">
+        <f>AVERAGE(B16:B27)</f>
+        <v>128.84566666666669</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" ref="C28:M28" si="5">AVERAGE(C16:C27)</f>
+        <v>129.31991666666667</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="5"/>
+        <v>1966.0833333333333</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="5"/>
+        <v>1952.25</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="5"/>
+        <v>1947.6666666666667</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="5"/>
+        <v>2163.75</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="5"/>
+        <v>2157.4166666666665</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="5"/>
+        <v>2160.1666666666665</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="5"/>
+        <v>1948</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="5"/>
+        <v>1979</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="5"/>
+        <v>1467</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="5"/>
+        <v>9560.2000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.698</v>
+      </c>
+      <c r="D30" s="8">
+        <v>103</v>
+      </c>
+      <c r="E30" s="8">
+        <v>104</v>
+      </c>
+      <c r="F30" s="8">
+        <v>104</v>
+      </c>
+      <c r="G30" s="8">
+        <v>109</v>
+      </c>
+      <c r="H30" s="8">
+        <v>108</v>
+      </c>
+      <c r="I30" s="8">
+        <v>106</v>
+      </c>
+      <c r="J30" s="8">
+        <v>100</v>
+      </c>
+      <c r="K30" s="8">
+        <v>112</v>
+      </c>
+      <c r="L30" s="8">
+        <v>214</v>
+      </c>
+      <c r="M30" s="8">
+        <v>357</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P30" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="R30" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="S30" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="T30" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U30" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V30" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W30" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="X30" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="D31" s="8">
+        <v>99</v>
+      </c>
+      <c r="E31" s="8">
+        <v>99</v>
+      </c>
+      <c r="F31" s="8">
+        <v>98</v>
+      </c>
+      <c r="G31" s="8">
+        <v>100</v>
+      </c>
+      <c r="H31" s="8">
+        <v>99</v>
+      </c>
+      <c r="I31" s="8">
+        <v>99</v>
+      </c>
+      <c r="J31" s="8">
+        <v>95</v>
+      </c>
+      <c r="K31" s="8">
+        <v>94</v>
+      </c>
+      <c r="L31" s="8">
+        <v>226</v>
+      </c>
+      <c r="M31" s="8">
+        <v>270</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0.749</v>
+      </c>
+      <c r="P31" s="8">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0.219</v>
+      </c>
+      <c r="T31" s="8">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="U31" s="8">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="W31" s="8">
+        <v>0.186</v>
+      </c>
+      <c r="X31" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="D32" s="8">
+        <v>19</v>
+      </c>
+      <c r="E32" s="8">
+        <v>20</v>
+      </c>
+      <c r="F32" s="8">
+        <v>19</v>
+      </c>
+      <c r="G32" s="8">
+        <v>26</v>
+      </c>
+      <c r="H32" s="8">
+        <v>25</v>
+      </c>
+      <c r="I32" s="8">
+        <v>24</v>
+      </c>
+      <c r="J32" s="8">
+        <v>19</v>
+      </c>
+      <c r="K32" s="8">
+        <v>20</v>
+      </c>
+      <c r="L32" s="8">
+        <v>94</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0.224</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="V32" s="8">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="W32" s="8">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0.377</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="8">
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="C33" s="8">
+        <v>8.5419999999999998</v>
+      </c>
+      <c r="D33" s="8">
+        <v>55</v>
+      </c>
+      <c r="E33" s="8">
+        <v>58</v>
+      </c>
+      <c r="F33" s="8">
+        <v>55</v>
+      </c>
+      <c r="G33" s="8">
+        <v>215</v>
+      </c>
+      <c r="H33" s="8">
+        <v>201</v>
+      </c>
+      <c r="I33" s="8">
+        <v>198</v>
+      </c>
+      <c r="J33" s="8">
+        <v>53</v>
+      </c>
+      <c r="K33" s="8">
+        <v>53</v>
+      </c>
+      <c r="L33" s="8">
+        <v>110</v>
+      </c>
+      <c r="M33" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0.751</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0.754</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="T33" s="8">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0.185</v>
+      </c>
+      <c r="W33" s="8">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="X33" s="8">
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="8">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="C34" s="8">
+        <v>8.3409999999999993</v>
+      </c>
+      <c r="D34" s="8">
+        <v>480</v>
+      </c>
+      <c r="E34" s="8">
+        <v>478</v>
+      </c>
+      <c r="F34" s="8">
+        <v>476</v>
+      </c>
+      <c r="G34" s="8">
+        <v>486</v>
+      </c>
+      <c r="H34" s="8">
+        <v>488</v>
+      </c>
+      <c r="I34" s="8">
+        <v>482</v>
+      </c>
+      <c r="J34" s="8">
+        <v>476</v>
+      </c>
+      <c r="K34" s="8">
+        <v>475</v>
+      </c>
+      <c r="L34" s="8">
+        <v>915</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="W34" s="8">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="X34" s="8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8">
+        <v>17</v>
+      </c>
+      <c r="C35" s="8">
+        <v>17</v>
+      </c>
+      <c r="D35" s="8">
+        <v>56</v>
+      </c>
+      <c r="E35" s="8">
+        <v>57</v>
+      </c>
+      <c r="F35" s="8">
+        <v>57</v>
+      </c>
+      <c r="G35" s="8">
+        <v>393</v>
+      </c>
+      <c r="H35" s="8">
+        <v>405</v>
+      </c>
+      <c r="I35" s="8">
+        <v>401</v>
+      </c>
+      <c r="J35" s="8">
+        <v>58</v>
+      </c>
+      <c r="K35" s="8">
+        <v>61</v>
+      </c>
+      <c r="L35" s="8">
+        <v>325</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0.188</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="W35" s="8">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>0.108</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8">
+        <v>70</v>
+      </c>
+      <c r="C36" s="8">
+        <v>71</v>
+      </c>
+      <c r="D36" s="8">
+        <v>121</v>
+      </c>
+      <c r="E36" s="8">
+        <v>122</v>
+      </c>
+      <c r="F36" s="8">
+        <v>122</v>
+      </c>
+      <c r="G36" s="8">
+        <v>259</v>
+      </c>
+      <c r="H36" s="8">
+        <v>242</v>
+      </c>
+      <c r="I36" s="8">
+        <v>245</v>
+      </c>
+      <c r="J36" s="8">
+        <v>124</v>
+      </c>
+      <c r="K36" s="8">
+        <v>123</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1418</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0.373</v>
+      </c>
+      <c r="T36" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0.34400000000000003</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0.218</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>0.154</v>
+      </c>
+      <c r="Z36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="8">
+        <v>77</v>
+      </c>
+      <c r="C37" s="8">
+        <v>77</v>
+      </c>
+      <c r="D37" s="8">
+        <v>3240</v>
+      </c>
+      <c r="E37" s="8">
+        <v>3240</v>
+      </c>
+      <c r="F37" s="8">
+        <v>3221</v>
+      </c>
+      <c r="G37" s="8">
+        <v>3248</v>
+      </c>
+      <c r="H37" s="8">
+        <v>3249</v>
+      </c>
+      <c r="I37" s="8">
+        <v>3251</v>
+      </c>
+      <c r="J37" s="8">
+        <v>3281</v>
+      </c>
+      <c r="K37" s="8">
+        <v>3212</v>
+      </c>
+      <c r="L37" s="8">
+        <v>8193</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0.751</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="T37" s="8">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="U37" s="8">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="V37" s="8">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="X37" s="8">
+        <v>0.112</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Z37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="8">
+        <v>112</v>
+      </c>
+      <c r="C38" s="8">
+        <v>112</v>
+      </c>
+      <c r="D38" s="8">
+        <v>62</v>
+      </c>
+      <c r="E38" s="8">
+        <v>55</v>
+      </c>
+      <c r="F38" s="8">
+        <v>55</v>
+      </c>
+      <c r="G38" s="8">
+        <v>311</v>
+      </c>
+      <c r="H38" s="8">
+        <v>307</v>
+      </c>
+      <c r="I38" s="8">
+        <v>307</v>
+      </c>
+      <c r="J38" s="8">
+        <v>56</v>
+      </c>
+      <c r="K38" s="8">
+        <v>56</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1755</v>
+      </c>
+      <c r="M38" s="8">
+        <v>7550</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="P38" s="8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="S38" s="8">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="T38" s="8">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="U38" s="8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="V38" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="W38" s="8">
+        <v>0.46900000000000003</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="Y38" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="Z38" s="8">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="8">
+        <v>384</v>
+      </c>
+      <c r="C39" s="8">
+        <v>370</v>
+      </c>
+      <c r="D39" s="8">
+        <v>819</v>
+      </c>
+      <c r="E39" s="8">
+        <v>812</v>
+      </c>
+      <c r="F39" s="8">
+        <v>823</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1730</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1683</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1744</v>
+      </c>
+      <c r="J39" s="8">
+        <v>835</v>
+      </c>
+      <c r="K39" s="8">
+        <v>818</v>
+      </c>
+      <c r="L39" s="8">
+        <v>4870</v>
+      </c>
+      <c r="M39" s="8">
+        <v>32785</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0.751</v>
+      </c>
+      <c r="P39" s="8">
+        <v>0.754</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="S39" s="8">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="T39" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="U39" s="8">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="V39" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="W39" s="8">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="X39" s="8">
+        <v>0.248</v>
+      </c>
+      <c r="Y39" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="Z39" s="8">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="8">
+        <v>407</v>
+      </c>
+      <c r="C40" s="8">
+        <v>409</v>
+      </c>
+      <c r="D40" s="8">
+        <v>985</v>
+      </c>
+      <c r="E40" s="8">
+        <v>985</v>
+      </c>
+      <c r="F40" s="8">
+        <v>986</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1425</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1422</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1425</v>
+      </c>
+      <c r="J40" s="8">
+        <v>981</v>
+      </c>
+      <c r="K40" s="8">
+        <v>983</v>
+      </c>
+      <c r="L40" s="8">
+        <v>5347</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0.751</v>
+      </c>
+      <c r="P40" s="8">
+        <v>0.754</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="S40" s="8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="T40" s="8">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="U40" s="8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="V40" s="8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="W40" s="8">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="X40" s="8">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="Y40" s="8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="Z40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="8">
+        <v>410</v>
+      </c>
+      <c r="C41" s="8">
+        <v>411</v>
+      </c>
+      <c r="D41" s="8">
+        <v>974</v>
+      </c>
+      <c r="E41" s="8">
+        <v>972</v>
+      </c>
+      <c r="F41" s="8">
+        <v>988</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1415</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1413</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1427</v>
+      </c>
+      <c r="J41" s="8">
+        <v>958</v>
+      </c>
+      <c r="K41" s="8">
+        <v>974</v>
+      </c>
+      <c r="L41" s="8">
+        <v>5453</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0.752</v>
+      </c>
+      <c r="P41" s="8">
+        <v>0.754</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="S41" s="8">
+        <v>0.34400000000000003</v>
+      </c>
+      <c r="T41" s="8">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="U41" s="8">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="V41" s="8">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="W41" s="8">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="X41" s="8">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="Y41" s="8">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="Z41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="10">
+        <f>AVERAGE(B30:B41)</f>
+        <v>125.05366666666667</v>
+      </c>
+      <c r="C42" s="10">
+        <f t="shared" ref="C42:M42" si="6">AVERAGE(C30:C41)</f>
+        <v>124.17516666666666</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="6"/>
+        <v>584.41666666666663</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="6"/>
+        <v>583.5</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="6"/>
+        <v>583.66666666666663</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="6"/>
+        <v>809.75</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="6"/>
+        <v>803.5</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="6"/>
+        <v>809.08333333333337</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="6"/>
+        <v>586.33333333333337</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="6"/>
+        <v>581.75</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="6"/>
+        <v>2410</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="6"/>
+        <v>8392.4</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O42" s="10">
+        <f>AVERAGE(O30:O41)</f>
+        <v>0.69608333333333328</v>
+      </c>
+      <c r="P42" s="10">
+        <f t="shared" ref="P42:Z42" si="7">AVERAGE(P30:P41)</f>
+        <v>0.72299999999999986</v>
+      </c>
+      <c r="Q42" s="10">
+        <f t="shared" si="7"/>
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="R42" s="10">
+        <f t="shared" si="7"/>
+        <v>0.26091666666666669</v>
+      </c>
+      <c r="S42" s="10">
+        <f t="shared" si="7"/>
+        <v>0.26958333333333334</v>
+      </c>
+      <c r="T42" s="10">
+        <f t="shared" si="7"/>
+        <v>0.34016666666666667</v>
+      </c>
+      <c r="U42" s="10">
+        <f t="shared" si="7"/>
+        <v>0.41341666666666671</v>
+      </c>
+      <c r="V42" s="10">
+        <f t="shared" si="7"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W42" s="10">
+        <f t="shared" si="7"/>
+        <v>0.36108333333333337</v>
+      </c>
+      <c r="X42" s="10">
+        <f t="shared" si="7"/>
+        <v>0.16516666666666668</v>
+      </c>
+      <c r="Y42" s="10">
+        <f t="shared" si="7"/>
+        <v>0.12975</v>
+      </c>
+      <c r="Z42" s="10">
+        <f t="shared" si="7"/>
+        <v>5.3166666666666668E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" s="4" customFormat="1">
+      <c r="A44" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" s="11" customFormat="1"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" s="11" customFormat="1"/>
+    <row r="59" spans="1:6">
+      <c r="A59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" s="11" customFormat="1"/>
+    <row r="66" spans="1:6">
+      <c r="A66" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" s="4" customFormat="1">
+      <c r="A72" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="8">
+        <v>2</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="8">
+        <v>4</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="8">
+        <v>8</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="8">
+        <v>16</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="8">
+        <v>2</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="8">
+        <v>4</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="8">
+        <v>8</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="8">
+        <v>16</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="8">
+        <v>2</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="8">
+        <v>4</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="8">
+        <v>8</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="8">
+        <v>16</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="8">
+        <v>2</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="8">
+        <v>4</v>
+      </c>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="8">
+        <v>8</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="8">
+        <v>16</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="101" spans="1:6" s="4" customFormat="1">
+      <c r="A101" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I13"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -925,12 +5267,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2248,2534 +6590,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:Y27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="32.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="9" style="5"/>
-    <col min="13" max="13" width="24.5" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4">
-        <v>4.5119999999999996</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3.923</v>
-      </c>
-      <c r="D2" s="4">
-        <v>506</v>
-      </c>
-      <c r="E2" s="4">
-        <v>552</v>
-      </c>
-      <c r="F2" s="4">
-        <v>533</v>
-      </c>
-      <c r="G2" s="4">
-        <v>512</v>
-      </c>
-      <c r="H2" s="4">
-        <v>534</v>
-      </c>
-      <c r="I2" s="4">
-        <v>518</v>
-      </c>
-      <c r="J2" s="4">
-        <v>520</v>
-      </c>
-      <c r="K2" s="4">
-        <v>518</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="4">
-        <v>10147</v>
-      </c>
-      <c r="O2" s="4">
-        <v>11747</v>
-      </c>
-      <c r="P2" s="4">
-        <v>535</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>2743</v>
-      </c>
-      <c r="R2" s="4">
-        <v>3007</v>
-      </c>
-      <c r="S2" s="4">
-        <v>8858</v>
-      </c>
-      <c r="T2" s="4">
-        <v>8894</v>
-      </c>
-      <c r="U2" s="4">
-        <v>8860</v>
-      </c>
-      <c r="V2" s="4">
-        <v>3105</v>
-      </c>
-      <c r="W2" s="4">
-        <v>907</v>
-      </c>
-      <c r="X2" s="8">
-        <v>1610</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4.4180000000000001</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4.5979999999999999</v>
-      </c>
-      <c r="D3" s="4">
-        <v>518</v>
-      </c>
-      <c r="E3" s="4">
-        <v>502</v>
-      </c>
-      <c r="F3" s="4">
-        <v>453</v>
-      </c>
-      <c r="G3" s="4">
-        <v>439</v>
-      </c>
-      <c r="H3" s="4">
-        <v>439</v>
-      </c>
-      <c r="I3" s="4">
-        <v>440</v>
-      </c>
-      <c r="J3" s="4">
-        <v>435</v>
-      </c>
-      <c r="K3" s="4">
-        <v>435</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="4">
-        <v>9032</v>
-      </c>
-      <c r="O3" s="4">
-        <v>10688</v>
-      </c>
-      <c r="P3" s="4">
-        <v>576</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>2566</v>
-      </c>
-      <c r="R3" s="4">
-        <v>2642</v>
-      </c>
-      <c r="S3" s="4">
-        <v>8000</v>
-      </c>
-      <c r="T3" s="4">
-        <v>8038</v>
-      </c>
-      <c r="U3" s="4">
-        <v>8038</v>
-      </c>
-      <c r="V3" s="4">
-        <v>2238</v>
-      </c>
-      <c r="W3" s="4">
-        <v>648</v>
-      </c>
-      <c r="X3" s="8">
-        <v>1401</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4">
-        <v>8.82</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8.7390000000000008</v>
-      </c>
-      <c r="D4" s="4">
-        <v>125</v>
-      </c>
-      <c r="E4" s="4">
-        <v>125</v>
-      </c>
-      <c r="F4" s="4">
-        <v>125</v>
-      </c>
-      <c r="G4" s="4">
-        <v>139</v>
-      </c>
-      <c r="H4" s="4">
-        <v>137</v>
-      </c>
-      <c r="I4" s="4">
-        <v>138</v>
-      </c>
-      <c r="J4" s="4">
-        <v>125</v>
-      </c>
-      <c r="K4" s="4">
-        <v>123</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="4">
-        <v>15438</v>
-      </c>
-      <c r="O4" s="4">
-        <v>15316</v>
-      </c>
-      <c r="P4" s="4">
-        <v>673</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>8695</v>
-      </c>
-      <c r="R4" s="4">
-        <v>8939</v>
-      </c>
-      <c r="S4" s="4">
-        <v>5197</v>
-      </c>
-      <c r="T4" s="4">
-        <v>8961</v>
-      </c>
-      <c r="U4" s="4">
-        <v>9019</v>
-      </c>
-      <c r="V4" s="4">
-        <v>9464</v>
-      </c>
-      <c r="W4" s="4">
-        <v>8749</v>
-      </c>
-      <c r="X4" s="8">
-        <v>6328</v>
-      </c>
-      <c r="Y4" s="8"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4">
-        <v>209</v>
-      </c>
-      <c r="E5" s="4">
-        <v>207</v>
-      </c>
-      <c r="F5" s="4">
-        <v>204</v>
-      </c>
-      <c r="G5" s="4">
-        <v>582</v>
-      </c>
-      <c r="H5" s="4">
-        <v>603</v>
-      </c>
-      <c r="I5" s="4">
-        <v>600</v>
-      </c>
-      <c r="J5" s="4">
-        <v>222</v>
-      </c>
-      <c r="K5" s="4">
-        <v>227</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="4">
-        <v>63810</v>
-      </c>
-      <c r="O5" s="4">
-        <v>64062</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1903</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>11124</v>
-      </c>
-      <c r="R5" s="4">
-        <v>22528</v>
-      </c>
-      <c r="S5" s="4">
-        <v>4255</v>
-      </c>
-      <c r="T5" s="4">
-        <v>12502</v>
-      </c>
-      <c r="U5" s="4">
-        <v>15720</v>
-      </c>
-      <c r="V5" s="4">
-        <v>25855</v>
-      </c>
-      <c r="W5" s="4">
-        <v>5983</v>
-      </c>
-      <c r="X5" s="8">
-        <v>3950</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>5727</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2324</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2290</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2550</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2252</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2438</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2370</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2272</v>
-      </c>
-      <c r="K6" s="4">
-        <v>2361</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="4">
-        <v>21952</v>
-      </c>
-      <c r="O6" s="4">
-        <v>25146</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1397</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>6166</v>
-      </c>
-      <c r="R6" s="4">
-        <v>6822</v>
-      </c>
-      <c r="S6" s="4">
-        <v>19255</v>
-      </c>
-      <c r="T6" s="4">
-        <v>19348</v>
-      </c>
-      <c r="U6" s="4">
-        <v>19348</v>
-      </c>
-      <c r="V6" s="4">
-        <v>6230</v>
-      </c>
-      <c r="W6" s="4">
-        <v>1687</v>
-      </c>
-      <c r="X6" s="8">
-        <v>3030</v>
-      </c>
-      <c r="Y6" s="8"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4">
-        <v>62</v>
-      </c>
-      <c r="C7" s="4">
-        <v>63</v>
-      </c>
-      <c r="D7" s="4">
-        <v>544</v>
-      </c>
-      <c r="E7" s="4">
-        <v>542</v>
-      </c>
-      <c r="F7" s="4">
-        <v>542</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1543</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1310</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1290</v>
-      </c>
-      <c r="J7" s="4">
-        <v>501</v>
-      </c>
-      <c r="K7" s="4">
-        <v>491</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="4">
-        <v>88727</v>
-      </c>
-      <c r="O7" s="4">
-        <v>90302</v>
-      </c>
-      <c r="P7" s="4">
-        <v>281</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>19897</v>
-      </c>
-      <c r="R7" s="4">
-        <v>19911</v>
-      </c>
-      <c r="S7" s="4">
-        <v>12573</v>
-      </c>
-      <c r="T7" s="4">
-        <v>22223</v>
-      </c>
-      <c r="U7" s="4">
-        <v>23788</v>
-      </c>
-      <c r="V7" s="4">
-        <v>47158</v>
-      </c>
-      <c r="W7" s="4">
-        <v>14689</v>
-      </c>
-      <c r="X7" s="8">
-        <v>12773</v>
-      </c>
-      <c r="Y7" s="8"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4">
-        <v>70</v>
-      </c>
-      <c r="C8" s="4">
-        <v>70</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1143</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1168</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1209</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1558</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1472</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1528</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1140</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1145</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="4">
-        <v>191809</v>
-      </c>
-      <c r="O8" s="4">
-        <v>192929</v>
-      </c>
-      <c r="P8" s="4">
-        <v>518</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>69746</v>
-      </c>
-      <c r="R8" s="4">
-        <v>73768</v>
-      </c>
-      <c r="S8" s="4">
-        <v>12694</v>
-      </c>
-      <c r="T8" s="4">
-        <v>68020</v>
-      </c>
-      <c r="U8" s="4">
-        <v>68152</v>
-      </c>
-      <c r="V8" s="4">
-        <v>82061</v>
-      </c>
-      <c r="W8" s="4">
-        <v>42994</v>
-      </c>
-      <c r="X8" s="8">
-        <v>45415</v>
-      </c>
-      <c r="Y8" s="8"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4">
-        <v>233</v>
-      </c>
-      <c r="C9" s="4">
-        <v>232</v>
-      </c>
-      <c r="D9" s="4">
-        <v>16507</v>
-      </c>
-      <c r="E9" s="4">
-        <v>16715</v>
-      </c>
-      <c r="F9" s="4">
-        <v>16716</v>
-      </c>
-      <c r="G9" s="4">
-        <v>16704</v>
-      </c>
-      <c r="H9" s="4">
-        <v>16811</v>
-      </c>
-      <c r="I9" s="4">
-        <v>16343</v>
-      </c>
-      <c r="J9" s="4">
-        <v>16541</v>
-      </c>
-      <c r="K9" s="4">
-        <v>16581</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="4">
-        <v>91721</v>
-      </c>
-      <c r="O9" s="4">
-        <v>96022</v>
-      </c>
-      <c r="P9" s="4">
-        <v>12470</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>30737</v>
-      </c>
-      <c r="R9" s="4">
-        <v>36734</v>
-      </c>
-      <c r="S9" s="4">
-        <v>81632</v>
-      </c>
-      <c r="T9" s="4">
-        <v>81316</v>
-      </c>
-      <c r="U9" s="4">
-        <v>81316</v>
-      </c>
-      <c r="V9" s="4">
-        <v>35107</v>
-      </c>
-      <c r="W9" s="4">
-        <v>14245</v>
-      </c>
-      <c r="X9" s="8">
-        <v>17657</v>
-      </c>
-      <c r="Y9" s="8"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4">
-        <v>421</v>
-      </c>
-      <c r="C10" s="4">
-        <v>417</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3179</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3104</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3110</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3934</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3884</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3988</v>
-      </c>
-      <c r="J10" s="4">
-        <v>3031</v>
-      </c>
-      <c r="K10" s="4">
-        <v>3067</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="4">
-        <v>135978</v>
-      </c>
-      <c r="O10" s="4">
-        <v>139147</v>
-      </c>
-      <c r="P10" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>48529</v>
-      </c>
-      <c r="R10" s="4">
-        <v>48720</v>
-      </c>
-      <c r="S10" s="4">
-        <v>15067</v>
-      </c>
-      <c r="T10" s="4">
-        <v>46778</v>
-      </c>
-      <c r="U10" s="4">
-        <v>47051</v>
-      </c>
-      <c r="V10" s="4">
-        <v>84951</v>
-      </c>
-      <c r="W10" s="4">
-        <v>32088</v>
-      </c>
-      <c r="X10" s="8">
-        <v>30791</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>40289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1420</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1426</v>
-      </c>
-      <c r="D11" s="4">
-        <v>9023</v>
-      </c>
-      <c r="E11" s="4">
-        <v>10348</v>
-      </c>
-      <c r="F11" s="4">
-        <v>10395</v>
-      </c>
-      <c r="G11" s="4">
-        <v>13252</v>
-      </c>
-      <c r="H11" s="4">
-        <v>13377</v>
-      </c>
-      <c r="I11" s="4">
-        <v>13255</v>
-      </c>
-      <c r="J11" s="4">
-        <v>10841</v>
-      </c>
-      <c r="K11" s="4">
-        <v>10520</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="4">
-        <v>345768</v>
-      </c>
-      <c r="O11" s="4">
-        <v>347210</v>
-      </c>
-      <c r="P11" s="4">
-        <v>3272</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>165486</v>
-      </c>
-      <c r="R11" s="4">
-        <v>160183</v>
-      </c>
-      <c r="S11" s="4">
-        <v>119762</v>
-      </c>
-      <c r="T11" s="4">
-        <v>159791</v>
-      </c>
-      <c r="U11" s="4">
-        <v>151897</v>
-      </c>
-      <c r="V11" s="4">
-        <v>253848</v>
-      </c>
-      <c r="W11" s="4">
-        <v>114190</v>
-      </c>
-      <c r="X11" s="8">
-        <v>108506</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>121783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1522</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1616</v>
-      </c>
-      <c r="D12" s="4">
-        <v>12053</v>
-      </c>
-      <c r="E12" s="4">
-        <v>12364</v>
-      </c>
-      <c r="F12" s="4">
-        <v>13016</v>
-      </c>
-      <c r="G12" s="4">
-        <v>13471</v>
-      </c>
-      <c r="H12" s="4">
-        <v>13811</v>
-      </c>
-      <c r="I12" s="4">
-        <v>13719</v>
-      </c>
-      <c r="J12" s="4">
-        <v>12319</v>
-      </c>
-      <c r="K12" s="4">
-        <v>12636</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="4">
-        <v>367881</v>
-      </c>
-      <c r="O12" s="4">
-        <v>369288</v>
-      </c>
-      <c r="P12" s="4">
-        <v>2997</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>198519</v>
-      </c>
-      <c r="R12" s="4">
-        <v>167265</v>
-      </c>
-      <c r="S12" s="4">
-        <v>326727</v>
-      </c>
-      <c r="T12" s="4">
-        <v>325565</v>
-      </c>
-      <c r="U12" s="4">
-        <v>325688</v>
-      </c>
-      <c r="V12" s="4">
-        <v>271549</v>
-      </c>
-      <c r="W12" s="4">
-        <v>132594</v>
-      </c>
-      <c r="X12" s="8">
-        <v>115895</v>
-      </c>
-      <c r="Y12" s="8"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1347</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1308</v>
-      </c>
-      <c r="D13" s="4">
-        <v>11069</v>
-      </c>
-      <c r="E13" s="4">
-        <v>11187</v>
-      </c>
-      <c r="F13" s="4">
-        <v>11093</v>
-      </c>
-      <c r="G13" s="4">
-        <v>12379</v>
-      </c>
-      <c r="H13" s="4">
-        <v>12573</v>
-      </c>
-      <c r="I13" s="4">
-        <v>11977</v>
-      </c>
-      <c r="J13" s="4">
-        <v>10923</v>
-      </c>
-      <c r="K13" s="4">
-        <v>10912</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="4">
-        <v>369847</v>
-      </c>
-      <c r="O13" s="4">
-        <v>370884</v>
-      </c>
-      <c r="P13" s="4">
-        <v>2798</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>199870</v>
-      </c>
-      <c r="R13" s="4">
-        <v>169334</v>
-      </c>
-      <c r="S13" s="4">
-        <v>328050</v>
-      </c>
-      <c r="T13" s="4">
-        <v>326826</v>
-      </c>
-      <c r="U13" s="4">
-        <v>326850</v>
-      </c>
-      <c r="V13" s="4">
-        <v>273968</v>
-      </c>
-      <c r="W13" s="4">
-        <v>133397</v>
-      </c>
-      <c r="X13" s="8">
-        <v>116063</v>
-      </c>
-      <c r="Y13" s="8"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="D15" s="5">
-        <v>185</v>
-      </c>
-      <c r="E15" s="5">
-        <v>180</v>
-      </c>
-      <c r="F15" s="5">
-        <v>184</v>
-      </c>
-      <c r="G15" s="5">
-        <v>185</v>
-      </c>
-      <c r="H15" s="5">
-        <v>184</v>
-      </c>
-      <c r="I15" s="5">
-        <v>187</v>
-      </c>
-      <c r="J15" s="5">
-        <v>180</v>
-      </c>
-      <c r="K15" s="5">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2.0960000000000001</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="D16" s="5">
-        <v>165</v>
-      </c>
-      <c r="E16" s="5">
-        <v>166</v>
-      </c>
-      <c r="F16" s="5">
-        <v>164</v>
-      </c>
-      <c r="G16" s="5">
-        <v>171</v>
-      </c>
-      <c r="H16" s="5">
-        <v>173</v>
-      </c>
-      <c r="I16" s="5">
-        <v>170</v>
-      </c>
-      <c r="J16" s="5">
-        <v>163</v>
-      </c>
-      <c r="K16" s="5">
-        <v>163</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="4">
-        <f>ROUNDUP(N2/$Z16,3)</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" ref="O16:Y16" si="0">ROUNDUP(O2/$Z16,3)</f>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="R16" s="4">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="U16" s="4">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="V16" s="4">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="W16" s="4">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="X16" s="4">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="Y16" s="4">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="Z16">
-        <v>1895064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2.9940000000000002</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2.6859999999999999</v>
-      </c>
-      <c r="D17" s="5">
-        <v>47</v>
-      </c>
-      <c r="E17" s="5">
-        <v>47</v>
-      </c>
-      <c r="F17" s="5">
-        <v>47</v>
-      </c>
-      <c r="G17" s="5">
-        <v>53</v>
-      </c>
-      <c r="H17" s="5">
-        <v>52</v>
-      </c>
-      <c r="I17" s="5">
-        <v>51</v>
-      </c>
-      <c r="J17" s="5">
-        <v>46</v>
-      </c>
-      <c r="K17" s="5">
-        <v>47</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" ref="N17:Y27" si="1">ROUNDUP(N3/$Z17,3)</f>
-        <v>0.749</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="1"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="R17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.219</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="T17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="U17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="V17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.186</v>
-      </c>
-      <c r="W17" s="4">
-        <f t="shared" si="1"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="X17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="Y17" s="4">
-        <f t="shared" si="1"/>
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="Z17">
-        <v>12073</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5">
-        <v>8.1479999999999997</v>
-      </c>
-      <c r="C18" s="5">
-        <v>8.2070000000000007</v>
-      </c>
-      <c r="D18" s="5">
-        <v>103</v>
-      </c>
-      <c r="E18" s="5">
-        <v>106</v>
-      </c>
-      <c r="F18" s="5">
-        <v>102</v>
-      </c>
-      <c r="G18" s="5">
-        <v>257</v>
-      </c>
-      <c r="H18" s="5">
-        <v>243</v>
-      </c>
-      <c r="I18" s="5">
-        <v>243</v>
-      </c>
-      <c r="J18" s="5">
-        <v>103</v>
-      </c>
-      <c r="K18" s="5">
-        <v>102</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="O18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="1"/>
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-      <c r="R18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.224</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="U18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="V18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="W18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.377</v>
-      </c>
-      <c r="X18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="Y18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>23240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5">
-        <v>9.01</v>
-      </c>
-      <c r="C19" s="5">
-        <v>8.4629999999999992</v>
-      </c>
-      <c r="D19" s="5">
-        <v>878</v>
-      </c>
-      <c r="E19" s="5">
-        <v>877</v>
-      </c>
-      <c r="F19" s="5">
-        <v>925</v>
-      </c>
-      <c r="G19" s="5">
-        <v>933</v>
-      </c>
-      <c r="H19" s="5">
-        <v>933</v>
-      </c>
-      <c r="I19" s="5">
-        <v>903</v>
-      </c>
-      <c r="J19" s="5">
-        <v>881</v>
-      </c>
-      <c r="K19" s="5">
-        <v>897</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.751</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.754</v>
-      </c>
-      <c r="P19" s="4">
-        <f t="shared" si="1"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="R19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="1"/>
-        <v>5.1000000000000004E-2</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="U19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.185</v>
-      </c>
-      <c r="V19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="W19" s="4">
-        <f t="shared" si="1"/>
-        <v>7.1000000000000008E-2</v>
-      </c>
-      <c r="X19" s="4">
-        <f t="shared" si="1"/>
-        <v>4.7E-2</v>
-      </c>
-      <c r="Y19" s="4">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Z19">
-        <v>85003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5">
-        <v>17</v>
-      </c>
-      <c r="D20" s="5">
-        <v>141</v>
-      </c>
-      <c r="E20" s="5">
-        <v>141</v>
-      </c>
-      <c r="F20" s="5">
-        <v>140</v>
-      </c>
-      <c r="G20" s="5">
-        <v>502</v>
-      </c>
-      <c r="H20" s="5">
-        <v>482</v>
-      </c>
-      <c r="I20" s="5">
-        <v>472</v>
-      </c>
-      <c r="J20" s="5">
-        <v>140</v>
-      </c>
-      <c r="K20" s="5">
-        <v>141</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="1"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="R20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="U20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="V20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="W20" s="4">
-        <f t="shared" si="1"/>
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="X20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="Y20" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>29612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5">
-        <v>75</v>
-      </c>
-      <c r="C21" s="5">
-        <v>74</v>
-      </c>
-      <c r="D21" s="5">
-        <v>318</v>
-      </c>
-      <c r="E21" s="5">
-        <v>327</v>
-      </c>
-      <c r="F21" s="5">
-        <v>326</v>
-      </c>
-      <c r="G21" s="5">
-        <v>478</v>
-      </c>
-      <c r="H21" s="5">
-        <v>453</v>
-      </c>
-      <c r="I21" s="5">
-        <v>473</v>
-      </c>
-      <c r="J21" s="5">
-        <v>333</v>
-      </c>
-      <c r="K21" s="5">
-        <v>390</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="P21" s="4">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="R21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.107</v>
-      </c>
-      <c r="T21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.188</v>
-      </c>
-      <c r="U21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="V21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="W21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="X21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.108</v>
-      </c>
-      <c r="Y21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>118445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="5">
-        <v>78</v>
-      </c>
-      <c r="C22" s="5">
-        <v>78</v>
-      </c>
-      <c r="D22" s="5">
-        <v>7232</v>
-      </c>
-      <c r="E22" s="5">
-        <v>7257</v>
-      </c>
-      <c r="F22" s="5">
-        <v>7244</v>
-      </c>
-      <c r="G22" s="5">
-        <v>7280</v>
-      </c>
-      <c r="H22" s="5">
-        <v>7421</v>
-      </c>
-      <c r="I22" s="5">
-        <v>7488</v>
-      </c>
-      <c r="J22" s="5">
-        <v>7267</v>
-      </c>
-      <c r="K22" s="5">
-        <v>7447</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="O22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.373</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="1"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="T22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.34400000000000003</v>
-      </c>
-      <c r="U22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="V22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="W22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.218</v>
-      </c>
-      <c r="X22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.23</v>
-      </c>
-      <c r="Y22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>198035</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="5">
-        <v>112</v>
-      </c>
-      <c r="C23" s="5">
-        <v>115</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1183</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1180</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1173</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1408</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1406</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1402</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1127</v>
-      </c>
-      <c r="K23" s="5">
-        <v>1135</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.751</v>
-      </c>
-      <c r="P23" s="4">
-        <f t="shared" si="1"/>
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="R23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="U23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="V23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="W23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.112</v>
-      </c>
-      <c r="X23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="Y23" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>128024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="5">
-        <v>393</v>
-      </c>
-      <c r="C24" s="5">
-        <v>390</v>
-      </c>
-      <c r="D24" s="5">
-        <v>3920</v>
-      </c>
-      <c r="E24" s="5">
-        <v>4166</v>
-      </c>
-      <c r="F24" s="5">
-        <v>4180</v>
-      </c>
-      <c r="G24" s="5">
-        <v>5142</v>
-      </c>
-      <c r="H24" s="5">
-        <v>5085</v>
-      </c>
-      <c r="I24" s="5">
-        <v>5107</v>
-      </c>
-      <c r="J24" s="5">
-        <v>4116</v>
-      </c>
-      <c r="K24" s="5">
-        <v>4122</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="O24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="P24" s="4">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="R24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="U24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.26</v>
-      </c>
-      <c r="V24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.46900000000000003</v>
-      </c>
-      <c r="W24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="X24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.17</v>
-      </c>
-      <c r="Y24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.223</v>
-      </c>
-      <c r="Z24">
-        <v>181385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="5">
-        <v>443</v>
-      </c>
-      <c r="C25" s="5">
-        <v>449</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4930</v>
-      </c>
-      <c r="E25" s="5">
-        <v>4318</v>
-      </c>
-      <c r="F25" s="5">
-        <v>4315</v>
-      </c>
-      <c r="G25" s="5">
-        <v>4760</v>
-      </c>
-      <c r="H25" s="5">
-        <v>4684</v>
-      </c>
-      <c r="I25" s="5">
-        <v>4680</v>
-      </c>
-      <c r="J25" s="5">
-        <v>4428</v>
-      </c>
-      <c r="K25" s="5">
-        <v>4584</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.751</v>
-      </c>
-      <c r="O25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.754</v>
-      </c>
-      <c r="P25" s="4">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="R25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.26</v>
-      </c>
-      <c r="T25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="U25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.33</v>
-      </c>
-      <c r="V25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="W25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.248</v>
-      </c>
-      <c r="X25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="Y25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="Z25">
-        <v>461004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="5">
-        <v>404</v>
-      </c>
-      <c r="C26" s="5">
-        <v>406</v>
-      </c>
-      <c r="D26" s="5">
-        <v>4491</v>
-      </c>
-      <c r="E26" s="5">
-        <v>4662</v>
-      </c>
-      <c r="F26" s="5">
-        <v>4572</v>
-      </c>
-      <c r="G26" s="5">
-        <v>4796</v>
-      </c>
-      <c r="H26" s="5">
-        <v>4773</v>
-      </c>
-      <c r="I26" s="5">
-        <v>4746</v>
-      </c>
-      <c r="J26" s="5">
-        <v>4592</v>
-      </c>
-      <c r="K26" s="5">
-        <v>4537</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.751</v>
-      </c>
-      <c r="O26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.754</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" si="1"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="R26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="U26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="V26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="W26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="X26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="Y26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>490047</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.752</v>
-      </c>
-      <c r="O27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.754</v>
-      </c>
-      <c r="P27" s="4">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="R27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.34400000000000003</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="T27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="U27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="V27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="W27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="X27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="Y27" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>492351</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1.698</v>
-      </c>
-      <c r="D28" s="4">
-        <v>103</v>
-      </c>
-      <c r="E28" s="4">
-        <v>104</v>
-      </c>
-      <c r="F28" s="4">
-        <v>104</v>
-      </c>
-      <c r="G28" s="4">
-        <v>109</v>
-      </c>
-      <c r="H28" s="4">
-        <v>108</v>
-      </c>
-      <c r="I28" s="4">
-        <v>106</v>
-      </c>
-      <c r="J28" s="4">
-        <v>100</v>
-      </c>
-      <c r="K28" s="4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="4">
-        <v>2.1659999999999999</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1.8540000000000001</v>
-      </c>
-      <c r="D29" s="4">
-        <v>99</v>
-      </c>
-      <c r="E29" s="4">
-        <v>99</v>
-      </c>
-      <c r="F29" s="4">
-        <v>98</v>
-      </c>
-      <c r="G29" s="4">
-        <v>100</v>
-      </c>
-      <c r="H29" s="4">
-        <v>99</v>
-      </c>
-      <c r="I29" s="4">
-        <v>99</v>
-      </c>
-      <c r="J29" s="4">
-        <v>95</v>
-      </c>
-      <c r="K29" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="4">
-        <v>2.9929999999999999</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="D30" s="4">
-        <v>19</v>
-      </c>
-      <c r="E30" s="4">
-        <v>20</v>
-      </c>
-      <c r="F30" s="4">
-        <v>19</v>
-      </c>
-      <c r="G30" s="4">
-        <v>26</v>
-      </c>
-      <c r="H30" s="4">
-        <v>25</v>
-      </c>
-      <c r="I30" s="4">
-        <v>24</v>
-      </c>
-      <c r="J30" s="4">
-        <v>19</v>
-      </c>
-      <c r="K30" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="4">
-        <v>8.1869999999999994</v>
-      </c>
-      <c r="C31" s="4">
-        <v>8.5419999999999998</v>
-      </c>
-      <c r="D31" s="4">
-        <v>55</v>
-      </c>
-      <c r="E31" s="4">
-        <v>58</v>
-      </c>
-      <c r="F31" s="4">
-        <v>55</v>
-      </c>
-      <c r="G31" s="4">
-        <v>215</v>
-      </c>
-      <c r="H31" s="4">
-        <v>201</v>
-      </c>
-      <c r="I31" s="4">
-        <v>198</v>
-      </c>
-      <c r="J31" s="4">
-        <v>53</v>
-      </c>
-      <c r="K31" s="4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="4">
-        <v>8.3230000000000004</v>
-      </c>
-      <c r="C32" s="4">
-        <v>8.3409999999999993</v>
-      </c>
-      <c r="D32" s="4">
-        <v>480</v>
-      </c>
-      <c r="E32" s="4">
-        <v>478</v>
-      </c>
-      <c r="F32" s="4">
-        <v>476</v>
-      </c>
-      <c r="G32" s="4">
-        <v>486</v>
-      </c>
-      <c r="H32" s="4">
-        <v>488</v>
-      </c>
-      <c r="I32" s="4">
-        <v>482</v>
-      </c>
-      <c r="J32" s="4">
-        <v>476</v>
-      </c>
-      <c r="K32" s="4">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="4">
-        <v>17</v>
-      </c>
-      <c r="C33" s="4">
-        <v>17</v>
-      </c>
-      <c r="D33" s="4">
-        <v>56</v>
-      </c>
-      <c r="E33" s="4">
-        <v>57</v>
-      </c>
-      <c r="F33" s="4">
-        <v>57</v>
-      </c>
-      <c r="G33" s="4">
-        <v>393</v>
-      </c>
-      <c r="H33" s="4">
-        <v>405</v>
-      </c>
-      <c r="I33" s="4">
-        <v>401</v>
-      </c>
-      <c r="J33" s="4">
-        <v>58</v>
-      </c>
-      <c r="K33" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="4">
-        <v>70</v>
-      </c>
-      <c r="C34" s="4">
-        <v>71</v>
-      </c>
-      <c r="D34" s="4">
-        <v>121</v>
-      </c>
-      <c r="E34" s="4">
-        <v>122</v>
-      </c>
-      <c r="F34" s="4">
-        <v>122</v>
-      </c>
-      <c r="G34" s="4">
-        <v>259</v>
-      </c>
-      <c r="H34" s="4">
-        <v>242</v>
-      </c>
-      <c r="I34" s="4">
-        <v>245</v>
-      </c>
-      <c r="J34" s="4">
-        <v>124</v>
-      </c>
-      <c r="K34" s="4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="4">
-        <v>77</v>
-      </c>
-      <c r="C35" s="4">
-        <v>77</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3240</v>
-      </c>
-      <c r="E35" s="4">
-        <v>3240</v>
-      </c>
-      <c r="F35" s="4">
-        <v>3221</v>
-      </c>
-      <c r="G35" s="4">
-        <v>3248</v>
-      </c>
-      <c r="H35" s="4">
-        <v>3249</v>
-      </c>
-      <c r="I35" s="4">
-        <v>3251</v>
-      </c>
-      <c r="J35" s="4">
-        <v>3281</v>
-      </c>
-      <c r="K35" s="4">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="4">
-        <v>112</v>
-      </c>
-      <c r="C36" s="4">
-        <v>112</v>
-      </c>
-      <c r="D36" s="4">
-        <v>62</v>
-      </c>
-      <c r="E36" s="4">
-        <v>55</v>
-      </c>
-      <c r="F36" s="4">
-        <v>55</v>
-      </c>
-      <c r="G36" s="4">
-        <v>311</v>
-      </c>
-      <c r="H36" s="4">
-        <v>307</v>
-      </c>
-      <c r="I36" s="4">
-        <v>307</v>
-      </c>
-      <c r="J36" s="4">
-        <v>56</v>
-      </c>
-      <c r="K36" s="4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="4">
-        <v>384</v>
-      </c>
-      <c r="C37" s="4">
-        <v>370</v>
-      </c>
-      <c r="D37" s="4">
-        <v>819</v>
-      </c>
-      <c r="E37" s="4">
-        <v>812</v>
-      </c>
-      <c r="F37" s="4">
-        <v>823</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1730</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1683</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1744</v>
-      </c>
-      <c r="J37" s="4">
-        <v>835</v>
-      </c>
-      <c r="K37" s="4">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="4">
-        <v>407</v>
-      </c>
-      <c r="C38" s="4">
-        <v>409</v>
-      </c>
-      <c r="D38" s="4">
-        <v>985</v>
-      </c>
-      <c r="E38" s="4">
-        <v>985</v>
-      </c>
-      <c r="F38" s="4">
-        <v>986</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1425</v>
-      </c>
-      <c r="H38" s="4">
-        <v>1422</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1425</v>
-      </c>
-      <c r="J38" s="4">
-        <v>981</v>
-      </c>
-      <c r="K38" s="4">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="4">
-        <v>410</v>
-      </c>
-      <c r="C39" s="4">
-        <v>411</v>
-      </c>
-      <c r="D39" s="4">
-        <v>974</v>
-      </c>
-      <c r="E39" s="4">
-        <v>972</v>
-      </c>
-      <c r="F39" s="4">
-        <v>988</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1415</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1413</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1427</v>
-      </c>
-      <c r="J39" s="4">
-        <v>958</v>
-      </c>
-      <c r="K39" s="4">
-        <v>974</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Final results" sheetId="8" r:id="rId1"/>
-    <sheet name="Final - SGPStreamKL（64位）" sheetId="7" r:id="rId2"/>
-    <sheet name="Final - SGPKL（64位）" sheetId="6" r:id="rId3"/>
-    <sheet name="StreamPartition30%（32位）" sheetId="1" r:id="rId4"/>
-    <sheet name="StreamPartition50%80%（64位）" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet name="节点边度数" sheetId="4" r:id="rId7"/>
+    <sheet name="Final results - real data" sheetId="8" r:id="rId1"/>
+    <sheet name="Final Results - synthetic" sheetId="9" r:id="rId2"/>
+    <sheet name="Final - SGPStreamKL（64位）" sheetId="7" r:id="rId3"/>
+    <sheet name="Final - SGPKL（64位）" sheetId="6" r:id="rId4"/>
+    <sheet name="StreamPartition30%（32位）" sheetId="1" r:id="rId5"/>
+    <sheet name="StreamPartition50%80%（64位）" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="节点边度数" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="88">
   <si>
     <t>hash</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -317,48 +318,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    Total Elapse (\rho = m*x)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SGLs</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    cut (\rho = m*x)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    \varsigma (\rho = m*x)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    \tau (\rho = m*x)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    Total Elapse - k</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    cut </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    \varsigma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成数据集实验 关于\rho</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关于k，参数\rho = 0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    \tau</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>关于AC cache，参数\rho = 0.3， k=4</t>
@@ -367,6 +336,57 @@
   <si>
     <t xml:space="preserve">    Total Elapse</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Total Elapse </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    \varsigma = cut /m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> \varsigma = cut /m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    \tau = max load/(n/k)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点数变化，边数=80000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于顶点数与边数的实验k=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点数=5000，边数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 关于\rho （x*m）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成数据集实验facebook(n=4000, m=80000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于\rho （x*m）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +515,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,15 +800,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA128"/>
+  <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="37.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="5" customWidth="1"/>
     <col min="2" max="13" width="9" style="5"/>
     <col min="14" max="14" width="24.5" style="5" customWidth="1"/>
     <col min="15" max="16384" width="9" style="5"/>
@@ -4167,864 +4190,12 @@
         <v>5.3166666666666668E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="4" customFormat="1">
-      <c r="A44" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" s="11" customFormat="1"/>
-    <row r="52" spans="1:6">
-      <c r="A52" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" s="11" customFormat="1"/>
-    <row r="59" spans="1:6">
-      <c r="A59" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="1:6" s="11" customFormat="1"/>
-    <row r="66" spans="1:6">
-      <c r="A66" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" s="4" customFormat="1">
-      <c r="A72" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="8">
-        <v>2</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="8">
-        <v>4</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="8">
-        <v>8</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="8">
-        <v>16</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="8">
-        <v>2</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="8">
-        <v>4</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="8">
-        <v>8</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="8">
-        <v>16</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="8">
-        <v>2</v>
-      </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="8">
-        <v>4</v>
-      </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="8">
-        <v>8</v>
-      </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="8">
-        <v>16</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="8">
-        <v>2</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="8">
-        <v>4</v>
-      </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="8">
-        <v>8</v>
-      </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="8">
-        <v>16</v>
-      </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-    </row>
-    <row r="101" spans="1:6" s="4" customFormat="1">
-      <c r="A101" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-    </row>
+    <row r="44" spans="1:26" s="4" customFormat="1"/>
+    <row r="51" s="11" customFormat="1"/>
+    <row r="58" s="11" customFormat="1"/>
+    <row r="65" s="11" customFormat="1"/>
+    <row r="72" s="4" customFormat="1"/>
+    <row r="101" s="4" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5032,6 +4203,2551 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="O2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="O5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="O6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="H7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="O7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="H8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="O8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="H12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="O12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="H13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="O13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="H14" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="H15" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="O15" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="H16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="O16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="H19" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="O19" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="H20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="O20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="H21" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="O21" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="H22" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="O22" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="H23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="O23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="H26" s="8">
+        <v>2</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="8">
+        <v>2</v>
+      </c>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="8">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="H27" s="8">
+        <v>4</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="O27" s="8">
+        <v>4</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="8">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="H28" s="8">
+        <v>8</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="O28" s="8">
+        <v>8</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="8">
+        <v>16</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="H29" s="8">
+        <v>16</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="O29" s="8">
+        <v>16</v>
+      </c>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="8">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="H33" s="8">
+        <v>2</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="O33" s="8">
+        <v>2</v>
+      </c>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="8">
+        <v>4</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="H34" s="8">
+        <v>4</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="O34" s="8">
+        <v>4</v>
+      </c>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="8">
+        <v>8</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="H35" s="8">
+        <v>8</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="O35" s="8">
+        <v>8</v>
+      </c>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="8">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="H36" s="8">
+        <v>16</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="O36" s="8">
+        <v>16</v>
+      </c>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="8">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="H40" s="8">
+        <v>2</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="O40" s="8">
+        <v>2</v>
+      </c>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="8">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="H41" s="8">
+        <v>4</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="O41" s="8">
+        <v>4</v>
+      </c>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="8">
+        <v>8</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="H42" s="8">
+        <v>8</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="O42" s="8">
+        <v>8</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="8">
+        <v>16</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="H43" s="8">
+        <v>16</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="O43" s="8">
+        <v>16</v>
+      </c>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="O46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T54" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q61" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T61" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="8">
+        <v>3000</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="8">
+        <v>4000</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="8">
+        <v>6000</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="8">
+        <v>3000</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="8">
+        <v>4000</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="8">
+        <v>6000</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="8">
+        <v>3000</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="8">
+        <v>4000</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="8">
+        <v>6000</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="8">
+        <v>80000</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="8">
+        <v>100000</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="8">
+        <v>120000</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="8">
+        <v>140000</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="8">
+        <v>160000</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="8">
+        <v>80000</v>
+      </c>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="8">
+        <v>100000</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="8">
+        <v>120000</v>
+      </c>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="8">
+        <v>140000</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="8">
+        <v>160000</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="8">
+        <v>80000</v>
+      </c>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="8">
+        <v>100000</v>
+      </c>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="8">
+        <v>120000</v>
+      </c>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="8">
+        <v>140000</v>
+      </c>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="8">
+        <v>160000</v>
+      </c>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -5267,7 +6983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
@@ -6593,7 +8309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N27"/>
   <sheetViews>
@@ -7505,7 +9221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -8435,7 +10151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N36"/>
   <sheetViews>
@@ -9458,7 +11174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>

--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="89">
   <si>
     <t>hash</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -377,15 +377,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 关于\rho （x*m）</t>
+    <t xml:space="preserve"> 关于\rho （x*m）,参数k=4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成数据集实验facebook(n=4000, m=80000)</t>
+    <t>生成数据集实验facebook(n=4000, m=85003)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关于\rho （x*m）</t>
+    <t>\rho = 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于AC cache -aw，参数\rho = 0.3， k=4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -802,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:F128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4207,7 +4211,7 @@
   <dimension ref="A1:T135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4258,7 +4262,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -4266,7 +4270,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="O3" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -5500,7 +5504,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -5528,9 +5532,7 @@
       <c r="A47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
         <v>36</v>
       </c>
@@ -5546,9 +5548,7 @@
       <c r="H47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="I47" s="8"/>
       <c r="J47" s="8" t="s">
         <v>36</v>
       </c>
@@ -5564,9 +5564,7 @@
       <c r="O47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P47" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="P47" s="8"/>
       <c r="Q47" s="8" t="s">
         <v>36</v>
       </c>
@@ -5581,19 +5579,25 @@
       </c>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="8"/>
+      <c r="A48" s="8">
+        <v>10</v>
+      </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="H48" s="8">
+        <v>10</v>
+      </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="O48" s="8">
+        <v>10</v>
+      </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
@@ -5601,19 +5605,25 @@
       <c r="T48" s="8"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="8"/>
+      <c r="A49" s="8">
+        <v>20</v>
+      </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="H49" s="8">
+        <v>20</v>
+      </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="O49" s="8">
+        <v>20</v>
+      </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
@@ -5621,19 +5631,25 @@
       <c r="T49" s="8"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="8"/>
+      <c r="A50" s="8">
+        <v>30</v>
+      </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="H50" s="8">
+        <v>30</v>
+      </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="O50" s="8">
+        <v>30</v>
+      </c>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
@@ -5641,19 +5657,25 @@
       <c r="T50" s="8"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="8"/>
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="8">
+        <v>50</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="O51" s="8">
+        <v>50</v>
+      </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
@@ -5661,19 +5683,25 @@
       <c r="T51" s="8"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="8"/>
+      <c r="A52" s="8">
+        <v>80</v>
+      </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="8">
+        <v>80</v>
+      </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="O52" s="8">
+        <v>80</v>
+      </c>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
@@ -5704,9 +5732,7 @@
       <c r="A54" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
         <v>36</v>
       </c>
@@ -5722,9 +5748,7 @@
       <c r="H54" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I54" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="I54" s="8"/>
       <c r="J54" s="8" t="s">
         <v>36</v>
       </c>
@@ -5740,9 +5764,7 @@
       <c r="O54" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="P54" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="P54" s="8"/>
       <c r="Q54" s="8" t="s">
         <v>36</v>
       </c>
@@ -5757,19 +5779,25 @@
       </c>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="8"/>
+      <c r="A55" s="8">
+        <v>10</v>
+      </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="8">
+        <v>10</v>
+      </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
-      <c r="O55" s="8"/>
+      <c r="O55" s="8">
+        <v>10</v>
+      </c>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
@@ -5777,19 +5805,25 @@
       <c r="T55" s="8"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="8"/>
+      <c r="A56" s="8">
+        <v>20</v>
+      </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="H56" s="8">
+        <v>20</v>
+      </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
-      <c r="O56" s="8"/>
+      <c r="O56" s="8">
+        <v>20</v>
+      </c>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
@@ -5797,19 +5831,25 @@
       <c r="T56" s="8"/>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="8"/>
+      <c r="A57" s="8">
+        <v>30</v>
+      </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="H57" s="8"/>
+      <c r="H57" s="8">
+        <v>30</v>
+      </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
-      <c r="O57" s="8"/>
+      <c r="O57" s="8">
+        <v>30</v>
+      </c>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
@@ -5817,19 +5857,25 @@
       <c r="T57" s="8"/>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="8"/>
+      <c r="A58" s="8">
+        <v>50</v>
+      </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="H58" s="8"/>
+      <c r="H58" s="8">
+        <v>50</v>
+      </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
-      <c r="O58" s="8"/>
+      <c r="O58" s="8">
+        <v>50</v>
+      </c>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
@@ -5837,19 +5883,25 @@
       <c r="T58" s="8"/>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="8"/>
+      <c r="A59" s="8">
+        <v>80</v>
+      </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="H59" s="8">
+        <v>80</v>
+      </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
-      <c r="O59" s="8"/>
+      <c r="O59" s="8">
+        <v>80</v>
+      </c>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
@@ -5880,9 +5932,7 @@
       <c r="A61" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
         <v>36</v>
       </c>
@@ -5898,9 +5948,7 @@
       <c r="H61" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I61" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="I61" s="8"/>
       <c r="J61" s="8" t="s">
         <v>36</v>
       </c>
@@ -5916,9 +5964,7 @@
       <c r="O61" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P61" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="P61" s="8"/>
       <c r="Q61" s="8" t="s">
         <v>36</v>
       </c>
@@ -5933,19 +5979,25 @@
       </c>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="8"/>
+      <c r="A62" s="8">
+        <v>10</v>
+      </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="H62" s="8">
+        <v>10</v>
+      </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
-      <c r="O62" s="8"/>
+      <c r="O62" s="8">
+        <v>10</v>
+      </c>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
@@ -5953,19 +6005,25 @@
       <c r="T62" s="8"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="8"/>
+      <c r="A63" s="8">
+        <v>20</v>
+      </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="H63" s="8">
+        <v>20</v>
+      </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
-      <c r="O63" s="8"/>
+      <c r="O63" s="8">
+        <v>20</v>
+      </c>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
@@ -5973,19 +6031,25 @@
       <c r="T63" s="8"/>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="8"/>
+      <c r="A64" s="8">
+        <v>30</v>
+      </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="H64" s="8">
+        <v>30</v>
+      </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
-      <c r="O64" s="8"/>
+      <c r="O64" s="8">
+        <v>30</v>
+      </c>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
@@ -5993,19 +6057,25 @@
       <c r="T64" s="8"/>
     </row>
     <row r="65" spans="1:20">
-      <c r="A65" s="8"/>
+      <c r="A65" s="8">
+        <v>50</v>
+      </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="H65" s="8">
+        <v>50</v>
+      </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
-      <c r="O65" s="8"/>
+      <c r="O65" s="8">
+        <v>50</v>
+      </c>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
@@ -6013,19 +6083,25 @@
       <c r="T65" s="8"/>
     </row>
     <row r="66" spans="1:20">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8">
+        <v>80</v>
+      </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="H66" s="8"/>
+      <c r="H66" s="8">
+        <v>80</v>
+      </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
-      <c r="O66" s="8"/>
+      <c r="O66" s="8">
+        <v>80</v>
+      </c>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
@@ -6047,7 +6123,9 @@
         <v>82</v>
       </c>
       <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>

--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Final results - real data" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
     <sheet name="节点边度数" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="125">
   <si>
     <t>hash</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -507,6 +507,9 @@
     <t>avg.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>syn-v4k-e85k</t>
+  </si>
 </sst>
 </file>
 
@@ -934,7 +937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -944,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="T73" sqref="T73"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6989,8 +6992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7004,6 +7007,9 @@
       <c r="A1" t="s">
         <v>64</v>
       </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
@@ -7129,7 +7135,9 @@
       <c r="E5" s="8">
         <v>608</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="15">
+        <v>425</v>
+      </c>
       <c r="H5" s="8">
         <v>0.1</v>
       </c>
@@ -7145,7 +7153,9 @@
       <c r="L5" s="8">
         <v>624</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="15">
+        <v>541</v>
+      </c>
       <c r="O5" s="8">
         <v>0.1</v>
       </c>
@@ -7161,7 +7171,9 @@
       <c r="S5" s="8">
         <v>408</v>
       </c>
-      <c r="T5" s="8"/>
+      <c r="T5" s="15">
+        <v>328</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="8">
@@ -7291,7 +7303,9 @@
       <c r="E8" s="8">
         <v>363</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="15">
+        <v>1045</v>
+      </c>
       <c r="H8" s="8">
         <v>0.4</v>
       </c>
@@ -7307,7 +7321,9 @@
       <c r="L8" s="8">
         <v>316</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="15">
+        <v>1124</v>
+      </c>
       <c r="O8" s="8">
         <v>0.4</v>
       </c>
@@ -7323,7 +7339,9 @@
       <c r="S8" s="8">
         <v>318</v>
       </c>
-      <c r="T8" s="8"/>
+      <c r="T8" s="15">
+        <v>907</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="8">
@@ -7473,7 +7491,9 @@
       <c r="E12" s="8">
         <v>0.51819999999999999</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="15">
+        <v>0.17399999999999999</v>
+      </c>
       <c r="H12" s="8">
         <v>0.1</v>
       </c>
@@ -7489,7 +7509,9 @@
       <c r="L12" s="8">
         <v>0.46829999999999999</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="15">
+        <v>0.12909999999999999</v>
+      </c>
       <c r="O12" s="8">
         <v>0.1</v>
       </c>
@@ -7505,7 +7527,9 @@
       <c r="S12" s="8">
         <v>0.43830000000000002</v>
       </c>
-      <c r="T12" s="8"/>
+      <c r="T12" s="15">
+        <v>0.25290000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="8">
@@ -7635,7 +7659,9 @@
       <c r="E15" s="8">
         <v>0.2026</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="15">
+        <v>0.1042</v>
+      </c>
       <c r="H15" s="8">
         <v>0.4</v>
       </c>
@@ -7651,7 +7677,9 @@
       <c r="L15" s="8">
         <v>0.23930000000000001</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="15">
+        <v>9.4700000000000006E-2</v>
+      </c>
       <c r="O15" s="8">
         <v>0.4</v>
       </c>
@@ -7667,7 +7695,9 @@
       <c r="S15" s="8">
         <v>0.3291</v>
       </c>
-      <c r="T15" s="8"/>
+      <c r="T15" s="15">
+        <v>0.14380000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="8">
@@ -7817,7 +7847,9 @@
       <c r="E19" s="8">
         <v>1.00047</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="15">
+        <v>1.2547999999999999</v>
+      </c>
       <c r="H19" s="8">
         <v>0.1</v>
       </c>
@@ -7833,7 +7865,9 @@
       <c r="L19" s="8">
         <v>1.00024</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="15">
+        <v>1.2467999999999999</v>
+      </c>
       <c r="O19" s="8">
         <v>0.1</v>
       </c>
@@ -7849,7 +7883,9 @@
       <c r="S19" s="8">
         <v>1</v>
       </c>
-      <c r="T19" s="8"/>
+      <c r="T19" s="15">
+        <v>1.2515000000000001</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="8">
@@ -7979,7 +8015,9 @@
       <c r="E22" s="8">
         <v>1.0001</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="15">
+        <v>1.2412000000000001</v>
+      </c>
       <c r="H22" s="8">
         <v>0.4</v>
       </c>
@@ -7995,7 +8033,9 @@
       <c r="L22" s="8">
         <v>1.0001</v>
       </c>
-      <c r="M22" s="8"/>
+      <c r="M22" s="15">
+        <v>1.1081000000000001</v>
+      </c>
       <c r="O22" s="8">
         <v>0.4</v>
       </c>
@@ -8011,7 +8051,9 @@
       <c r="S22" s="8">
         <v>1.00027</v>
       </c>
-      <c r="T22" s="8"/>
+      <c r="T22" s="15">
+        <v>1.1158999999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="8">
@@ -11190,25 +11232,61 @@
       </c>
     </row>
     <row r="97" spans="1:20">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
+      <c r="A97" s="8">
+        <v>80000</v>
+      </c>
+      <c r="B97" s="8">
+        <v>13</v>
+      </c>
+      <c r="C97" s="8">
+        <v>131</v>
+      </c>
+      <c r="D97" s="8">
+        <v>169</v>
+      </c>
+      <c r="E97" s="8">
+        <v>95</v>
+      </c>
+      <c r="F97" s="8">
+        <v>817</v>
+      </c>
       <c r="G97" s="12"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
+      <c r="H97" s="8">
+        <v>80000</v>
+      </c>
+      <c r="I97" s="8">
+        <v>20</v>
+      </c>
+      <c r="J97" s="8">
+        <v>135</v>
+      </c>
+      <c r="K97" s="8">
+        <v>203</v>
+      </c>
+      <c r="L97" s="8">
+        <v>161</v>
+      </c>
+      <c r="M97" s="8">
+        <v>1055</v>
+      </c>
+      <c r="O97" s="8">
+        <v>80000</v>
+      </c>
+      <c r="P97" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q97" s="8">
+        <v>123</v>
+      </c>
+      <c r="R97" s="8">
+        <v>155</v>
+      </c>
+      <c r="S97" s="8">
+        <v>85</v>
+      </c>
+      <c r="T97" s="8">
+        <v>811</v>
+      </c>
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="8">
@@ -11517,25 +11595,61 @@
       </c>
     </row>
     <row r="104" spans="1:20">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
+      <c r="A104" s="8">
+        <v>80000</v>
+      </c>
+      <c r="B104" s="8">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="C104" s="8">
+        <v>0.65010000000000001</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0.65769999999999995</v>
+      </c>
+      <c r="E104" s="8">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="F104" s="8">
+        <v>0.64229999999999998</v>
+      </c>
       <c r="G104" s="12"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
+      <c r="H104" s="8">
+        <v>80000</v>
+      </c>
+      <c r="I104" s="8">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="J104" s="8">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="K104" s="8">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="L104" s="8">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="M104" s="8">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="O104" s="8">
+        <v>80000</v>
+      </c>
+      <c r="P104" s="8">
+        <v>0.60409999999999997</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="R104" s="8">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="S104" s="8">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="T104" s="8">
+        <v>0.64190000000000003</v>
+      </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="8">
@@ -11844,25 +11958,61 @@
       </c>
     </row>
     <row r="111" spans="1:20">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
+      <c r="A111" s="8">
+        <v>80000</v>
+      </c>
+      <c r="B111" s="8">
+        <v>1.1005799999999999</v>
+      </c>
+      <c r="C111" s="8">
+        <v>1.0002</v>
+      </c>
+      <c r="D111" s="8">
+        <v>1.0007699999999999</v>
+      </c>
+      <c r="E111" s="8">
+        <v>1.00061</v>
+      </c>
+      <c r="F111" s="8">
+        <v>1.0125999999999999</v>
+      </c>
       <c r="G111" s="12"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
+      <c r="H111" s="8">
+        <v>80000</v>
+      </c>
+      <c r="I111" s="8">
+        <v>1.1005799999999999</v>
+      </c>
+      <c r="J111" s="8">
+        <v>1.0004</v>
+      </c>
+      <c r="K111" s="8">
+        <v>1.0007699999999999</v>
+      </c>
+      <c r="L111" s="8">
+        <v>1.00021</v>
+      </c>
+      <c r="M111" s="8">
+        <v>1.0094000000000001</v>
+      </c>
+      <c r="O111" s="8">
+        <v>80000</v>
+      </c>
+      <c r="P111" s="8">
+        <v>1.1005799999999999</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>1</v>
+      </c>
+      <c r="R111" s="8">
+        <v>1.0007699999999999</v>
+      </c>
+      <c r="S111" s="8">
+        <v>1</v>
+      </c>
+      <c r="T111" s="8">
+        <v>1.0062</v>
+      </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="8">

--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" activeTab="1"/>
@@ -16,7 +16,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
     <sheet name="节点边度数" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="126">
   <si>
     <t>hash</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -510,6 +510,10 @@
   <si>
     <t>syn-v4k-e85k</t>
   </si>
+  <si>
+    <t>SGLd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -937,7 +941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6990,20 +6994,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T135"/>
+  <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -7011,7 +7018,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -7020,24 +7027,27 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="4" t="s">
         <v>68</v>
       </c>
@@ -7046,24 +7056,27 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="Q3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="8" t="s">
         <v>69</v>
       </c>
@@ -7080,46 +7093,55 @@
         <v>73</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="U4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="V4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W4" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:23">
       <c r="A5" s="8">
         <v>0.1</v>
       </c>
@@ -7135,47 +7157,59 @@
       <c r="E5" s="8">
         <v>608</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="8">
+        <f>MIN(D5:E5)</f>
+        <v>545</v>
+      </c>
+      <c r="G5" s="15">
         <v>425</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>0.1</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>391</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>244</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>321</v>
       </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <v>624</v>
       </c>
-      <c r="M5" s="15">
+      <c r="N5" s="8">
+        <f>MIN(L5:M5)</f>
+        <v>321</v>
+      </c>
+      <c r="O5" s="15">
         <v>541</v>
       </c>
-      <c r="O5" s="8">
+      <c r="Q5" s="8">
         <v>0.1</v>
       </c>
-      <c r="P5" s="8">
+      <c r="R5" s="8">
         <v>914</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="S5" s="8">
         <v>231</v>
       </c>
-      <c r="R5" s="8">
+      <c r="T5" s="8">
         <v>406</v>
       </c>
-      <c r="S5" s="8">
+      <c r="U5" s="8">
         <v>408</v>
       </c>
-      <c r="T5" s="15">
+      <c r="V5" s="8">
+        <f>MIN(T5:U5)</f>
+        <v>406</v>
+      </c>
+      <c r="W5" s="15">
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:23">
       <c r="A6" s="8">
         <v>0.2</v>
       </c>
@@ -7192,46 +7226,58 @@
         <v>377</v>
       </c>
       <c r="F6" s="8">
+        <f t="shared" ref="F6:F66" si="0">MIN(D6:E6)</f>
+        <v>377</v>
+      </c>
+      <c r="G6" s="8">
         <v>662</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>0.2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>427</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>207</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>328</v>
       </c>
-      <c r="L6" s="8">
+      <c r="M6" s="8">
         <v>490</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
+        <f t="shared" ref="N6:N66" si="1">MIN(L6:M6)</f>
+        <v>328</v>
+      </c>
+      <c r="O6" s="8">
         <v>712</v>
       </c>
-      <c r="O6" s="8">
+      <c r="Q6" s="8">
         <v>0.2</v>
       </c>
-      <c r="P6" s="8">
+      <c r="R6" s="8">
         <v>950</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="S6" s="8">
         <v>305</v>
       </c>
-      <c r="R6" s="8">
+      <c r="T6" s="8">
         <v>456</v>
       </c>
-      <c r="S6" s="8">
+      <c r="U6" s="8">
         <v>323</v>
       </c>
-      <c r="T6" s="8">
+      <c r="V6" s="8">
+        <f t="shared" ref="V6:V66" si="2">MIN(T6:U6)</f>
+        <v>323</v>
+      </c>
+      <c r="W6" s="8">
         <v>567</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:23">
       <c r="A7" s="8">
         <v>0.3</v>
       </c>
@@ -7248,46 +7294,58 @@
         <v>315</v>
       </c>
       <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="G7" s="8">
         <v>862</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>0.3</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>242</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>347</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>327</v>
       </c>
-      <c r="L7" s="8">
+      <c r="M7" s="8">
         <v>258</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="O7" s="8">
         <v>1033</v>
       </c>
-      <c r="O7" s="8">
+      <c r="Q7" s="8">
         <v>0.3</v>
       </c>
-      <c r="P7" s="8">
+      <c r="R7" s="8">
         <v>907</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="S7" s="8">
         <v>253</v>
       </c>
-      <c r="R7" s="8">
+      <c r="T7" s="8">
         <v>374</v>
       </c>
-      <c r="S7" s="8">
+      <c r="U7" s="8">
         <v>392</v>
       </c>
-      <c r="T7" s="8">
+      <c r="V7" s="8">
+        <f t="shared" si="2"/>
+        <v>374</v>
+      </c>
+      <c r="W7" s="8">
         <v>872</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:23">
       <c r="A8" s="8">
         <v>0.4</v>
       </c>
@@ -7303,47 +7361,59 @@
       <c r="E8" s="8">
         <v>363</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>363</v>
+      </c>
+      <c r="G8" s="15">
         <v>1045</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>0.4</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>125</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>241</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>398</v>
       </c>
-      <c r="L8" s="8">
+      <c r="M8" s="8">
         <v>316</v>
       </c>
-      <c r="M8" s="15">
+      <c r="N8" s="8">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="O8" s="15">
         <v>1124</v>
       </c>
-      <c r="O8" s="8">
+      <c r="Q8" s="8">
         <v>0.4</v>
       </c>
-      <c r="P8" s="8">
+      <c r="R8" s="8">
         <v>859</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="S8" s="8">
         <v>266</v>
       </c>
-      <c r="R8" s="8">
+      <c r="T8" s="8">
         <v>385</v>
       </c>
-      <c r="S8" s="8">
+      <c r="U8" s="8">
         <v>318</v>
       </c>
-      <c r="T8" s="15">
+      <c r="V8" s="8">
+        <f t="shared" si="2"/>
+        <v>318</v>
+      </c>
+      <c r="W8" s="15">
         <v>907</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:23">
       <c r="A9" s="8">
         <v>0.5</v>
       </c>
@@ -7360,66 +7430,78 @@
         <v>344</v>
       </c>
       <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="G9" s="8">
         <v>1296</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>0.5</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>118</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>282</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <v>401</v>
       </c>
-      <c r="L9" s="8">
+      <c r="M9" s="8">
         <v>331</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
+        <f t="shared" si="1"/>
+        <v>331</v>
+      </c>
+      <c r="O9" s="8">
         <v>1326</v>
       </c>
-      <c r="O9" s="8">
+      <c r="Q9" s="8">
         <v>0.5</v>
       </c>
-      <c r="P9" s="8">
+      <c r="R9" s="8">
         <v>730</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="S9" s="8">
         <v>309</v>
       </c>
-      <c r="R9" s="8">
+      <c r="T9" s="8">
         <v>420</v>
       </c>
-      <c r="S9" s="8">
+      <c r="U9" s="8">
         <v>312</v>
       </c>
-      <c r="T9" s="8">
+      <c r="V9" s="8">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="W9" s="8">
         <v>1094</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:23">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="G10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="8" t="s">
         <v>75</v>
       </c>
@@ -7436,46 +7518,55 @@
         <v>73</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="N11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="Q11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="R11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="S11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="T11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="U11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="V11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W11" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:23">
       <c r="A12" s="8">
         <v>0.1</v>
       </c>
@@ -7491,47 +7582,59 @@
       <c r="E12" s="8">
         <v>0.51819999999999999</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="G12" s="15">
         <v>0.17399999999999999</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>0.1</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>0.21129999999999999</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>0.31879999999999997</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <v>0.58930000000000005</v>
       </c>
-      <c r="L12" s="8">
+      <c r="M12" s="8">
         <v>0.46829999999999999</v>
       </c>
-      <c r="M12" s="15">
+      <c r="N12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="O12" s="15">
         <v>0.12909999999999999</v>
       </c>
-      <c r="O12" s="8">
+      <c r="Q12" s="8">
         <v>0.1</v>
       </c>
-      <c r="P12" s="8">
+      <c r="R12" s="8">
         <v>0.1502</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="S12" s="8">
         <v>0.29509999999999997</v>
       </c>
-      <c r="R12" s="8">
+      <c r="T12" s="8">
         <v>0.61180000000000001</v>
       </c>
-      <c r="S12" s="8">
+      <c r="U12" s="8">
         <v>0.43830000000000002</v>
       </c>
-      <c r="T12" s="15">
+      <c r="V12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="W12" s="15">
         <v>0.25290000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:23">
       <c r="A13" s="8">
         <v>0.2</v>
       </c>
@@ -7548,46 +7651,58 @@
         <v>0.3886</v>
       </c>
       <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.3886</v>
+      </c>
+      <c r="G13" s="8">
         <v>0.161</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>0.2</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>0.21129999999999999</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>0.1963</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <v>0.54700000000000004</v>
       </c>
-      <c r="L13" s="8">
+      <c r="M13" s="8">
         <v>0.43020000000000003</v>
       </c>
-      <c r="M13" s="8">
+      <c r="N13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.43020000000000003</v>
+      </c>
+      <c r="O13" s="8">
         <v>0.11799999999999999</v>
       </c>
-      <c r="O13" s="8">
+      <c r="Q13" s="8">
         <v>0.2</v>
       </c>
-      <c r="P13" s="8">
+      <c r="R13" s="8">
         <v>0.1502</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="S13" s="8">
         <v>0.24759999999999999</v>
       </c>
-      <c r="R13" s="8">
+      <c r="T13" s="8">
         <v>0.57509999999999994</v>
       </c>
-      <c r="S13" s="8">
+      <c r="U13" s="8">
         <v>0.38009999999999999</v>
       </c>
-      <c r="T13" s="8">
+      <c r="V13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="W13" s="8">
         <v>0.21510000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:23">
       <c r="A14" s="8">
         <v>0.3</v>
       </c>
@@ -7604,46 +7719,58 @@
         <v>0.28539999999999999</v>
       </c>
       <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28539999999999999</v>
+      </c>
+      <c r="G14" s="8">
         <v>0.15049999999999999</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>0.3</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>0.21129999999999999</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>0.16569999999999999</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <v>0.47520000000000001</v>
       </c>
-      <c r="L14" s="8">
+      <c r="M14" s="8">
         <v>0.3296</v>
       </c>
-      <c r="M14" s="8">
+      <c r="N14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.3296</v>
+      </c>
+      <c r="O14" s="8">
         <v>0.1283</v>
       </c>
-      <c r="O14" s="8">
+      <c r="Q14" s="8">
         <v>0.3</v>
       </c>
-      <c r="P14" s="8">
+      <c r="R14" s="8">
         <v>0.1502</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="S14" s="8">
         <v>0.18060000000000001</v>
       </c>
-      <c r="R14" s="8">
+      <c r="T14" s="8">
         <v>0.47620000000000001</v>
       </c>
-      <c r="S14" s="8">
+      <c r="U14" s="8">
         <v>0.3362</v>
       </c>
-      <c r="T14" s="8">
+      <c r="V14" s="8">
+        <f t="shared" si="2"/>
+        <v>0.3362</v>
+      </c>
+      <c r="W14" s="8">
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:23">
       <c r="A15" s="8">
         <v>0.4</v>
       </c>
@@ -7659,47 +7786,59 @@
       <c r="E15" s="8">
         <v>0.2026</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2026</v>
+      </c>
+      <c r="G15" s="15">
         <v>0.1042</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>0.4</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>0.21129999999999999</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>0.14710000000000001</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <v>0.39750000000000002</v>
       </c>
-      <c r="L15" s="8">
+      <c r="M15" s="8">
         <v>0.23930000000000001</v>
       </c>
-      <c r="M15" s="15">
+      <c r="N15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="O15" s="15">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="O15" s="8">
+      <c r="Q15" s="8">
         <v>0.4</v>
       </c>
-      <c r="P15" s="8">
+      <c r="R15" s="8">
         <v>0.1502</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="S15" s="8">
         <v>0.1628</v>
       </c>
-      <c r="R15" s="8">
+      <c r="T15" s="8">
         <v>0.44209999999999999</v>
       </c>
-      <c r="S15" s="8">
+      <c r="U15" s="8">
         <v>0.3291</v>
       </c>
-      <c r="T15" s="15">
+      <c r="V15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.3291</v>
+      </c>
+      <c r="W15" s="15">
         <v>0.14380000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:23">
       <c r="A16" s="8">
         <v>0.5</v>
       </c>
@@ -7716,66 +7855,78 @@
         <v>0.1368</v>
       </c>
       <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1368</v>
+      </c>
+      <c r="G16" s="8">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>0.5</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>0.21129999999999999</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>0.1232</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>0.3604</v>
       </c>
-      <c r="L16" s="8">
+      <c r="M16" s="8">
         <v>0.2165</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.2165</v>
+      </c>
+      <c r="O16" s="8">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="O16" s="8">
+      <c r="Q16" s="8">
         <v>0.5</v>
       </c>
-      <c r="P16" s="8">
+      <c r="R16" s="8">
         <v>0.1502</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="S16" s="8">
         <v>0.1381</v>
       </c>
-      <c r="R16" s="8">
+      <c r="T16" s="8">
         <v>0.41299999999999998</v>
       </c>
-      <c r="S16" s="8">
+      <c r="U16" s="8">
         <v>0.25619999999999998</v>
       </c>
-      <c r="T16" s="8">
+      <c r="V16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25619999999999998</v>
+      </c>
+      <c r="W16" s="8">
         <v>0.1221</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:23">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" s="11"/>
+      <c r="W17" s="11"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="8" t="s">
         <v>76</v>
       </c>
@@ -7792,46 +7943,55 @@
         <v>73</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="N18" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="Q18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="R18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="S18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="T18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="U18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="V18" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W18" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:23">
       <c r="A19" s="8">
         <v>0.1</v>
       </c>
@@ -7847,47 +8007,59 @@
       <c r="E19" s="8">
         <v>1.00047</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>1.00047</v>
+      </c>
+      <c r="G19" s="15">
         <v>1.2547999999999999</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>0.1</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <v>1.10009</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>1.0002800000000001</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <v>1.00051</v>
       </c>
-      <c r="L19" s="8">
+      <c r="M19" s="8">
         <v>1.00024</v>
       </c>
-      <c r="M19" s="15">
+      <c r="N19" s="8">
+        <f t="shared" si="1"/>
+        <v>1.00024</v>
+      </c>
+      <c r="O19" s="15">
         <v>1.2467999999999999</v>
       </c>
-      <c r="O19" s="8">
+      <c r="Q19" s="8">
         <v>0.1</v>
       </c>
-      <c r="P19" s="8">
+      <c r="R19" s="8">
         <v>1.0576000000000001</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="S19" s="8">
         <v>1.0004200000000001</v>
       </c>
-      <c r="R19" s="8">
+      <c r="T19" s="8">
         <v>1.0003899999999999</v>
       </c>
-      <c r="S19" s="8">
+      <c r="U19" s="8">
         <v>1</v>
       </c>
-      <c r="T19" s="15">
+      <c r="V19" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W19" s="15">
         <v>1.2515000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:23">
       <c r="A20" s="8">
         <v>0.2</v>
       </c>
@@ -7904,46 +8076,58 @@
         <v>1.0001500000000001</v>
       </c>
       <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0001500000000001</v>
+      </c>
+      <c r="G20" s="8">
         <v>1.25617</v>
       </c>
-      <c r="H20" s="8">
+      <c r="I20" s="8">
         <v>0.2</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>1.10009</v>
       </c>
-      <c r="J20" s="8">
+      <c r="K20" s="8">
         <v>1.0003299999999999</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>1.0006999999999999</v>
       </c>
-      <c r="L20" s="8">
+      <c r="M20" s="8">
         <v>1.0004599999999999</v>
       </c>
-      <c r="M20" s="8">
+      <c r="N20" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0004599999999999</v>
+      </c>
+      <c r="O20" s="8">
         <v>1.2642199999999999</v>
       </c>
-      <c r="O20" s="8">
+      <c r="Q20" s="8">
         <v>0.2</v>
       </c>
-      <c r="P20" s="8">
+      <c r="R20" s="8">
         <v>1.0576000000000001</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="S20" s="8">
         <v>1</v>
       </c>
-      <c r="R20" s="8">
+      <c r="T20" s="8">
         <v>1</v>
       </c>
-      <c r="S20" s="8">
+      <c r="U20" s="8">
         <v>1.0001599999999999</v>
       </c>
-      <c r="T20" s="8">
+      <c r="V20" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W20" s="8">
         <v>1.2632099999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:23">
       <c r="A21" s="8">
         <v>0.3</v>
       </c>
@@ -7960,46 +8144,58 @@
         <v>1</v>
       </c>
       <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
         <v>1.27529</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>0.3</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <v>1.10009</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>1.0001</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <v>1</v>
       </c>
-      <c r="L21" s="8">
+      <c r="M21" s="8">
         <v>1.00037</v>
       </c>
-      <c r="M21" s="8">
+      <c r="N21" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="8">
         <v>1.18571</v>
       </c>
-      <c r="O21" s="8">
+      <c r="Q21" s="8">
         <v>0.3</v>
       </c>
-      <c r="P21" s="8">
+      <c r="R21" s="8">
         <v>1.0576000000000001</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="S21" s="8">
         <v>1</v>
       </c>
-      <c r="R21" s="8">
+      <c r="T21" s="8">
         <v>1.00058</v>
       </c>
-      <c r="S21" s="8">
+      <c r="U21" s="8">
         <v>1.00014</v>
       </c>
-      <c r="T21" s="8">
+      <c r="V21" s="8">
+        <f t="shared" si="2"/>
+        <v>1.00014</v>
+      </c>
+      <c r="W21" s="8">
         <v>1.19577</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:23">
       <c r="A22" s="8">
         <v>0.4</v>
       </c>
@@ -8015,47 +8211,59 @@
       <c r="E22" s="8">
         <v>1.0001</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0001</v>
+      </c>
+      <c r="G22" s="15">
         <v>1.2412000000000001</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <v>0.4</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="8">
         <v>1.10009</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1</v>
       </c>
       <c r="K22" s="8">
         <v>1</v>
       </c>
       <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
         <v>1.0001</v>
       </c>
-      <c r="M22" s="15">
+      <c r="N22" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="15">
         <v>1.1081000000000001</v>
       </c>
-      <c r="O22" s="8">
+      <c r="Q22" s="8">
         <v>0.4</v>
       </c>
-      <c r="P22" s="8">
+      <c r="R22" s="8">
         <v>1.0576000000000001</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="S22" s="8">
         <v>1.0002599999999999</v>
       </c>
-      <c r="R22" s="8">
+      <c r="T22" s="8">
         <v>1.0004999999999999</v>
       </c>
-      <c r="S22" s="8">
+      <c r="U22" s="8">
         <v>1.00027</v>
       </c>
-      <c r="T22" s="15">
+      <c r="V22" s="8">
+        <f t="shared" si="2"/>
+        <v>1.00027</v>
+      </c>
+      <c r="W22" s="15">
         <v>1.1158999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:23">
       <c r="A23" s="8">
         <v>0.5</v>
       </c>
@@ -8072,46 +8280,58 @@
         <v>1.0001599999999999</v>
       </c>
       <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>1.00014</v>
+      </c>
+      <c r="G23" s="8">
         <v>1.2642199999999999</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>0.5</v>
       </c>
-      <c r="I23" s="8">
+      <c r="J23" s="8">
         <v>1.10009</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>1.00027</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <v>1.0003200000000001</v>
       </c>
-      <c r="L23" s="8">
+      <c r="M23" s="8">
         <v>1.0001</v>
       </c>
-      <c r="M23" s="8">
+      <c r="N23" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0001</v>
+      </c>
+      <c r="O23" s="8">
         <v>1.1887300000000001</v>
       </c>
-      <c r="O23" s="8">
+      <c r="Q23" s="8">
         <v>0.5</v>
       </c>
-      <c r="P23" s="8">
+      <c r="R23" s="8">
         <v>1.0576000000000001</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="S23" s="8">
         <v>1.0000800000000001</v>
       </c>
-      <c r="R23" s="8">
+      <c r="T23" s="8">
         <v>1</v>
       </c>
-      <c r="S23" s="8">
+      <c r="U23" s="8">
         <v>1</v>
       </c>
-      <c r="T23" s="8">
+      <c r="V23" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W23" s="8">
         <v>1.17665</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:23">
       <c r="A24" s="4" t="s">
         <v>77</v>
       </c>
@@ -8120,24 +8340,27 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="4"/>
+      <c r="I24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="O24" s="4" t="s">
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="Q24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="8" t="s">
         <v>78</v>
       </c>
@@ -8154,46 +8377,55 @@
         <v>73</v>
       </c>
       <c r="F25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="J25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="K25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="L25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="M25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="N25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="Q25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="R25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="S25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="T25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S25" s="8" t="s">
+      <c r="U25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T25" s="8" t="s">
+      <c r="V25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W25" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:23">
       <c r="A26" s="8">
         <v>2</v>
       </c>
@@ -8210,46 +8442,58 @@
         <v>272</v>
       </c>
       <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="G26" s="8">
         <v>909</v>
       </c>
-      <c r="H26" s="8">
+      <c r="I26" s="8">
         <v>2</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="8">
         <v>236</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <v>163</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <v>283</v>
       </c>
-      <c r="L26" s="8">
+      <c r="M26" s="8">
         <v>206</v>
       </c>
-      <c r="M26" s="8">
+      <c r="N26" s="8">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="O26" s="8">
         <v>982</v>
       </c>
-      <c r="O26" s="8">
+      <c r="Q26" s="8">
         <v>2</v>
       </c>
-      <c r="P26" s="8">
+      <c r="R26" s="8">
         <v>911</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="S26" s="8">
         <v>172</v>
       </c>
-      <c r="R26" s="8">
+      <c r="T26" s="8">
         <v>313</v>
       </c>
-      <c r="S26" s="8">
+      <c r="U26" s="8">
         <v>380</v>
       </c>
-      <c r="T26" s="8">
+      <c r="V26" s="8">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="W26" s="8">
         <v>844</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:23">
       <c r="A27" s="8">
         <v>4</v>
       </c>
@@ -8266,46 +8510,58 @@
         <v>315</v>
       </c>
       <c r="F27" s="8">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="G27" s="8">
         <v>862</v>
       </c>
-      <c r="H27" s="8">
+      <c r="I27" s="8">
         <v>4</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J27" s="8">
         <v>242</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <v>347</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <v>327</v>
       </c>
-      <c r="L27" s="8">
+      <c r="M27" s="8">
         <v>258</v>
       </c>
-      <c r="M27" s="8">
+      <c r="N27" s="8">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="O27" s="8">
         <v>1033</v>
       </c>
-      <c r="O27" s="8">
+      <c r="Q27" s="8">
         <v>4</v>
       </c>
-      <c r="P27" s="8">
+      <c r="R27" s="8">
         <v>907</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="S27" s="8">
         <v>253</v>
       </c>
-      <c r="R27" s="8">
+      <c r="T27" s="8">
         <v>374</v>
       </c>
-      <c r="S27" s="8">
+      <c r="U27" s="8">
         <v>392</v>
       </c>
-      <c r="T27" s="8">
+      <c r="V27" s="8">
+        <f t="shared" si="2"/>
+        <v>374</v>
+      </c>
+      <c r="W27" s="8">
         <v>872</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:23">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -8322,46 +8578,58 @@
         <v>348</v>
       </c>
       <c r="F28" s="8">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="G28" s="8">
         <v>919</v>
       </c>
-      <c r="H28" s="8">
+      <c r="I28" s="8">
         <v>8</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="8">
         <v>241</v>
       </c>
-      <c r="J28" s="8">
+      <c r="K28" s="8">
         <v>277</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <v>348</v>
       </c>
-      <c r="L28" s="8">
+      <c r="M28" s="8">
         <v>292</v>
       </c>
-      <c r="M28" s="8">
+      <c r="N28" s="8">
+        <f t="shared" si="1"/>
+        <v>292</v>
+      </c>
+      <c r="O28" s="8">
         <v>1065</v>
       </c>
-      <c r="O28" s="8">
+      <c r="Q28" s="8">
         <v>8</v>
       </c>
-      <c r="P28" s="8">
+      <c r="R28" s="8">
         <v>891</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="S28" s="8">
         <v>321</v>
       </c>
-      <c r="R28" s="8">
+      <c r="T28" s="8">
         <v>393</v>
       </c>
-      <c r="S28" s="8">
+      <c r="U28" s="8">
         <v>382</v>
       </c>
-      <c r="T28" s="8">
+      <c r="V28" s="8">
+        <f t="shared" si="2"/>
+        <v>382</v>
+      </c>
+      <c r="W28" s="8">
         <v>891</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:23">
       <c r="A29" s="8">
         <v>16</v>
       </c>
@@ -8378,86 +8646,101 @@
         <v>378</v>
       </c>
       <c r="F29" s="8">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="G29" s="8">
         <v>952</v>
       </c>
-      <c r="H29" s="8">
+      <c r="I29" s="8">
         <v>16</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="8">
         <v>246</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="8">
         <v>335</v>
       </c>
-      <c r="K29" s="8">
+      <c r="L29" s="8">
         <v>361</v>
       </c>
-      <c r="L29" s="8">
+      <c r="M29" s="8">
         <v>316</v>
       </c>
-      <c r="M29" s="8">
+      <c r="N29" s="8">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="O29" s="8">
         <v>1092</v>
       </c>
-      <c r="O29" s="8">
+      <c r="Q29" s="8">
         <v>16</v>
       </c>
-      <c r="P29" s="8">
+      <c r="R29" s="8">
         <v>941</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="S29" s="8">
         <v>347</v>
       </c>
-      <c r="R29" s="8">
+      <c r="T29" s="8">
         <v>407</v>
       </c>
-      <c r="S29" s="8">
+      <c r="U29" s="8">
         <v>396</v>
       </c>
-      <c r="T29" s="8">
+      <c r="V29" s="8">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+      <c r="W29" s="8">
         <v>912</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:23">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31" s="11"/>
+      <c r="W31" s="11"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="8" t="s">
         <v>63</v>
       </c>
@@ -8474,46 +8757,55 @@
         <v>73</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="J32" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="L32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="M32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="N32" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="Q32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="R32" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="S32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R32" s="8" t="s">
+      <c r="T32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="U32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="V32" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W32" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:23">
       <c r="A33" s="8">
         <v>2</v>
       </c>
@@ -8530,46 +8822,58 @@
         <v>9.2200000000000004E-2</v>
       </c>
       <c r="F33" s="8">
+        <f t="shared" si="0"/>
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="G33" s="8">
         <v>2.4E-2</v>
       </c>
-      <c r="H33" s="8">
+      <c r="I33" s="8">
         <v>2</v>
       </c>
-      <c r="I33" s="8">
+      <c r="J33" s="8">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="J33" s="8">
+      <c r="K33" s="8">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <v>5.21E-2</v>
       </c>
-      <c r="L33" s="8">
+      <c r="M33" s="8">
         <v>0.18110000000000001</v>
       </c>
-      <c r="M33" s="8">
+      <c r="N33" s="8">
+        <f t="shared" si="1"/>
+        <v>5.21E-2</v>
+      </c>
+      <c r="O33" s="8">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="O33" s="8">
+      <c r="Q33" s="8">
         <v>2</v>
       </c>
-      <c r="P33" s="8">
+      <c r="R33" s="8">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="S33" s="8">
         <v>6.59E-2</v>
       </c>
-      <c r="R33" s="8">
+      <c r="T33" s="8">
         <v>2.35E-2</v>
       </c>
-      <c r="S33" s="8">
+      <c r="U33" s="8">
         <v>0.13739999999999999</v>
       </c>
-      <c r="T33" s="8">
+      <c r="V33" s="8">
+        <f t="shared" si="2"/>
+        <v>2.35E-2</v>
+      </c>
+      <c r="W33" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:23">
       <c r="A34" s="8">
         <v>4</v>
       </c>
@@ -8586,46 +8890,58 @@
         <v>0.28539999999999999</v>
       </c>
       <c r="F34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28539999999999999</v>
+      </c>
+      <c r="G34" s="8">
         <v>0.15049999999999999</v>
       </c>
-      <c r="H34" s="8">
+      <c r="I34" s="8">
         <v>4</v>
       </c>
-      <c r="I34" s="8">
+      <c r="J34" s="8">
         <v>0.21129999999999999</v>
       </c>
-      <c r="J34" s="8">
+      <c r="K34" s="8">
         <v>0.16569999999999999</v>
       </c>
-      <c r="K34" s="8">
+      <c r="L34" s="8">
         <v>0.47520000000000001</v>
       </c>
-      <c r="L34" s="8">
+      <c r="M34" s="8">
         <v>0.3296</v>
       </c>
-      <c r="M34" s="8">
+      <c r="N34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.3296</v>
+      </c>
+      <c r="O34" s="8">
         <v>0.1283</v>
       </c>
-      <c r="O34" s="8">
+      <c r="Q34" s="8">
         <v>4</v>
       </c>
-      <c r="P34" s="8">
+      <c r="R34" s="8">
         <v>0.1502</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="S34" s="8">
         <v>0.18060000000000001</v>
       </c>
-      <c r="R34" s="8">
+      <c r="T34" s="8">
         <v>0.47620000000000001</v>
       </c>
-      <c r="S34" s="8">
+      <c r="U34" s="8">
         <v>0.3362</v>
       </c>
-      <c r="T34" s="8">
+      <c r="V34" s="8">
+        <f t="shared" si="2"/>
+        <v>0.3362</v>
+      </c>
+      <c r="W34" s="8">
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:23">
       <c r="A35" s="8">
         <v>8</v>
       </c>
@@ -8642,46 +8958,58 @@
         <v>0.42009999999999997</v>
       </c>
       <c r="F35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.42009999999999997</v>
+      </c>
+      <c r="G35" s="8">
         <v>0.24079999999999999</v>
       </c>
-      <c r="H35" s="8">
+      <c r="I35" s="8">
         <v>8</v>
       </c>
-      <c r="I35" s="8">
+      <c r="J35" s="8">
         <v>0.28349999999999997</v>
       </c>
-      <c r="J35" s="8">
+      <c r="K35" s="8">
         <v>0.26669999999999999</v>
       </c>
-      <c r="K35" s="8">
+      <c r="L35" s="8">
         <v>0.65159999999999996</v>
       </c>
-      <c r="L35" s="8">
+      <c r="M35" s="8">
         <v>0.4642</v>
       </c>
-      <c r="M35" s="8">
+      <c r="N35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.4642</v>
+      </c>
+      <c r="O35" s="8">
         <v>0.21229999999999999</v>
       </c>
-      <c r="O35" s="8">
+      <c r="Q35" s="8">
         <v>8</v>
       </c>
-      <c r="P35" s="8">
+      <c r="R35" s="8">
         <v>0.2104</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="S35" s="8">
         <v>0.26779999999999998</v>
       </c>
-      <c r="R35" s="8">
+      <c r="T35" s="8">
         <v>0.63449999999999995</v>
       </c>
-      <c r="S35" s="8">
+      <c r="U35" s="8">
         <v>0.46079999999999999</v>
       </c>
-      <c r="T35" s="8">
+      <c r="V35" s="8">
+        <f t="shared" si="2"/>
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="W35" s="8">
         <v>0.2293</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:23">
       <c r="A36" s="8">
         <v>16</v>
       </c>
@@ -8698,86 +9026,101 @@
         <v>0.53710000000000002</v>
       </c>
       <c r="F36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.53710000000000002</v>
+      </c>
+      <c r="G36" s="8">
         <v>0.40450000000000003</v>
       </c>
-      <c r="H36" s="8">
+      <c r="I36" s="8">
         <v>16</v>
       </c>
-      <c r="I36" s="8">
+      <c r="J36" s="8">
         <v>0.44650000000000001</v>
       </c>
-      <c r="J36" s="8">
+      <c r="K36" s="8">
         <v>0.3977</v>
       </c>
-      <c r="K36" s="8">
+      <c r="L36" s="8">
         <v>0.76580000000000004</v>
       </c>
-      <c r="L36" s="8">
+      <c r="M36" s="8">
         <v>0.56530000000000002</v>
       </c>
-      <c r="M36" s="8">
+      <c r="N36" s="8">
+        <f t="shared" si="1"/>
+        <v>0.56530000000000002</v>
+      </c>
+      <c r="O36" s="8">
         <v>0.38129999999999997</v>
       </c>
-      <c r="O36" s="8">
+      <c r="Q36" s="8">
         <v>16</v>
       </c>
-      <c r="P36" s="8">
+      <c r="R36" s="8">
         <v>0.27600000000000002</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="S36" s="8">
         <v>0.37490000000000001</v>
       </c>
-      <c r="R36" s="8">
+      <c r="T36" s="8">
         <v>0.72240000000000004</v>
       </c>
-      <c r="S36" s="8">
+      <c r="U36" s="8">
         <v>0.53559999999999997</v>
       </c>
-      <c r="T36" s="8">
+      <c r="V36" s="8">
+        <f t="shared" si="2"/>
+        <v>0.53559999999999997</v>
+      </c>
+      <c r="W36" s="8">
         <v>0.38469999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:23">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="G38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38" s="11"/>
+      <c r="W38" s="11"/>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="8" t="s">
         <v>76</v>
       </c>
@@ -8794,46 +9137,55 @@
         <v>73</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="I39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="J39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="K39" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="L39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="M39" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="N39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="Q39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="R39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="S39" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="T39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S39" s="8" t="s">
+      <c r="U39" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="V39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W39" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:23">
       <c r="A40" s="8">
         <v>2</v>
       </c>
@@ -8850,46 +9202,58 @@
         <v>1</v>
       </c>
       <c r="F40" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
         <v>1.1233</v>
       </c>
-      <c r="H40" s="8">
+      <c r="I40" s="8">
         <v>2</v>
       </c>
-      <c r="I40" s="8">
+      <c r="J40" s="8">
         <v>1.0636000000000001</v>
       </c>
-      <c r="J40" s="8">
+      <c r="K40" s="8">
         <v>1.0001</v>
       </c>
-      <c r="K40" s="8">
+      <c r="L40" s="8">
         <v>1</v>
       </c>
-      <c r="L40" s="8">
+      <c r="M40" s="8">
         <v>1.0001199999999999</v>
       </c>
-      <c r="M40" s="8">
+      <c r="N40" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="8">
         <v>1.03573</v>
       </c>
-      <c r="O40" s="8">
+      <c r="Q40" s="8">
         <v>2</v>
       </c>
-      <c r="P40" s="8">
+      <c r="R40" s="8">
         <v>1.0646199999999999</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="S40" s="8">
         <v>1</v>
       </c>
-      <c r="R40" s="8">
+      <c r="T40" s="8">
         <v>1.0001899999999999</v>
       </c>
-      <c r="S40" s="8">
+      <c r="U40" s="8">
         <v>1.00014</v>
       </c>
-      <c r="T40" s="8">
+      <c r="V40" s="8">
+        <f t="shared" si="2"/>
+        <v>1.00014</v>
+      </c>
+      <c r="W40" s="8">
         <v>1.1142399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:23">
       <c r="A41" s="8">
         <v>4</v>
       </c>
@@ -8906,46 +9270,58 @@
         <v>1</v>
       </c>
       <c r="F41" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="8">
         <v>1.27529</v>
       </c>
-      <c r="H41" s="8">
+      <c r="I41" s="8">
         <v>4</v>
       </c>
-      <c r="I41" s="8">
+      <c r="J41" s="8">
         <v>1.10009</v>
       </c>
-      <c r="J41" s="8">
+      <c r="K41" s="8">
         <v>1.0001</v>
       </c>
-      <c r="K41" s="8">
+      <c r="L41" s="8">
         <v>1</v>
       </c>
-      <c r="L41" s="8">
+      <c r="M41" s="8">
         <v>1.00037</v>
       </c>
-      <c r="M41" s="8">
+      <c r="N41" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="8">
         <v>1.18571</v>
       </c>
-      <c r="O41" s="8">
+      <c r="Q41" s="8">
         <v>4</v>
       </c>
-      <c r="P41" s="8">
+      <c r="R41" s="8">
         <v>1.0576000000000001</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="S41" s="8">
         <v>1</v>
       </c>
-      <c r="R41" s="8">
+      <c r="T41" s="8">
         <v>1.00058</v>
       </c>
-      <c r="S41" s="8">
+      <c r="U41" s="8">
         <v>1.00014</v>
       </c>
-      <c r="T41" s="8">
+      <c r="V41" s="8">
+        <f t="shared" si="2"/>
+        <v>1.00014</v>
+      </c>
+      <c r="W41" s="8">
         <v>1.19577</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:23">
       <c r="A42" s="8">
         <v>8</v>
       </c>
@@ -8962,46 +9338,58 @@
         <v>1</v>
       </c>
       <c r="F42" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="8">
         <v>1.4494199999999999</v>
       </c>
-      <c r="H42" s="8">
+      <c r="I42" s="8">
         <v>8</v>
       </c>
-      <c r="I42" s="8">
+      <c r="J42" s="8">
         <v>1.10009</v>
       </c>
-      <c r="J42" s="8">
+      <c r="K42" s="8">
         <v>1.0002</v>
       </c>
-      <c r="K42" s="8">
+      <c r="L42" s="8">
         <v>1</v>
       </c>
-      <c r="L42" s="8">
+      <c r="M42" s="8">
         <v>1.0008600000000001</v>
       </c>
-      <c r="M42" s="8">
+      <c r="N42" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="8">
         <v>1.3366899999999999</v>
       </c>
-      <c r="O42" s="8">
+      <c r="Q42" s="8">
         <v>8</v>
       </c>
-      <c r="P42" s="8">
+      <c r="R42" s="8">
         <v>1.1003400000000001</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="S42" s="8">
         <v>1.0001899999999999</v>
       </c>
-      <c r="R42" s="8">
+      <c r="T42" s="8">
         <v>1.00136</v>
       </c>
-      <c r="S42" s="8">
+      <c r="U42" s="8">
         <v>1.00071</v>
       </c>
-      <c r="T42" s="8">
+      <c r="V42" s="8">
+        <f t="shared" si="2"/>
+        <v>1.00071</v>
+      </c>
+      <c r="W42" s="8">
         <v>1.2078500000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:23">
       <c r="A43" s="8">
         <v>16</v>
       </c>
@@ -9018,86 +9406,101 @@
         <v>1</v>
       </c>
       <c r="F43" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="8">
         <v>1.59839</v>
       </c>
-      <c r="H43" s="8">
+      <c r="I43" s="8">
         <v>16</v>
       </c>
-      <c r="I43" s="8">
+      <c r="J43" s="8">
         <v>1.10009</v>
       </c>
-      <c r="J43" s="8">
+      <c r="K43" s="8">
         <v>1.0004900000000001</v>
       </c>
-      <c r="K43" s="8">
+      <c r="L43" s="8">
         <v>1</v>
       </c>
-      <c r="L43" s="8">
+      <c r="M43" s="8">
         <v>1.0008600000000001</v>
       </c>
-      <c r="M43" s="8">
+      <c r="N43" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="8">
         <v>1.4212400000000001</v>
       </c>
-      <c r="O43" s="8">
+      <c r="Q43" s="8">
         <v>16</v>
       </c>
-      <c r="P43" s="8">
+      <c r="R43" s="8">
         <v>1.10093</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="S43" s="8">
         <v>1.0001899999999999</v>
       </c>
-      <c r="R43" s="8">
+      <c r="T43" s="8">
         <v>1.00291</v>
       </c>
-      <c r="S43" s="8">
+      <c r="U43" s="8">
         <v>1.0018400000000001</v>
       </c>
-      <c r="T43" s="8">
+      <c r="V43" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0018400000000001</v>
+      </c>
+      <c r="W43" s="8">
         <v>1.4454</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:23">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="G45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45" s="5"/>
+      <c r="W45" s="5"/>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
@@ -9106,24 +9509,27 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="H46" s="4" t="s">
+      <c r="G46" s="4"/>
+      <c r="I46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="O46" s="4" t="s">
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="Q46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="8" t="s">
         <v>82</v>
       </c>
@@ -9138,42 +9544,51 @@
         <v>73</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="I47" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="8"/>
+      <c r="K47" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="L47" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="M47" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M47" s="8" t="s">
+      <c r="N47" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O47" s="8" t="s">
+      <c r="Q47" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8" t="s">
+      <c r="R47" s="8"/>
+      <c r="S47" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R47" s="8" t="s">
+      <c r="T47" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S47" s="8" t="s">
+      <c r="U47" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T47" s="8" t="s">
+      <c r="V47" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W47" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:23">
       <c r="A48" s="8">
         <v>10</v>
       </c>
@@ -9188,42 +9603,54 @@
         <v>160</v>
       </c>
       <c r="F48" s="8">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="G48" s="8">
         <v>847</v>
       </c>
-      <c r="H48" s="8">
+      <c r="I48" s="8">
         <v>10</v>
       </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8">
+      <c r="J48" s="8"/>
+      <c r="K48" s="8">
         <v>160</v>
       </c>
-      <c r="K48" s="8">
+      <c r="L48" s="8">
         <v>169</v>
       </c>
-      <c r="L48" s="8">
+      <c r="M48" s="8">
         <v>167</v>
       </c>
-      <c r="M48" s="8">
+      <c r="N48" s="8">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="O48" s="8">
         <v>1015</v>
       </c>
-      <c r="O48" s="8">
+      <c r="Q48" s="8">
         <v>10</v>
       </c>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8">
+      <c r="R48" s="8"/>
+      <c r="S48" s="8">
         <v>173</v>
       </c>
-      <c r="R48" s="8">
+      <c r="T48" s="8">
         <v>202</v>
       </c>
-      <c r="S48" s="8">
+      <c r="U48" s="8">
         <v>162</v>
       </c>
-      <c r="T48" s="8">
+      <c r="V48" s="8">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="W48" s="8">
         <v>833</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:23">
       <c r="A49" s="8">
         <v>20</v>
       </c>
@@ -9238,42 +9665,54 @@
         <v>185</v>
       </c>
       <c r="F49" s="8">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="G49" s="8">
         <v>854</v>
       </c>
-      <c r="H49" s="8">
+      <c r="I49" s="8">
         <v>20</v>
       </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8">
+      <c r="J49" s="8"/>
+      <c r="K49" s="8">
         <v>218</v>
       </c>
-      <c r="K49" s="8">
+      <c r="L49" s="8">
         <v>202</v>
       </c>
-      <c r="L49" s="8">
+      <c r="M49" s="8">
         <v>188</v>
       </c>
-      <c r="M49" s="8">
+      <c r="N49" s="8">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="O49" s="8">
         <v>1018</v>
       </c>
-      <c r="O49" s="8">
+      <c r="Q49" s="8">
         <v>20</v>
       </c>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8">
+      <c r="R49" s="8"/>
+      <c r="S49" s="8">
         <v>195</v>
       </c>
-      <c r="R49" s="8">
+      <c r="T49" s="8">
         <v>237</v>
       </c>
-      <c r="S49" s="8">
+      <c r="U49" s="8">
         <v>208</v>
       </c>
-      <c r="T49" s="8">
+      <c r="V49" s="8">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="W49" s="8">
         <v>835</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:23">
       <c r="A50" s="8">
         <v>30</v>
       </c>
@@ -9288,42 +9727,54 @@
         <v>220</v>
       </c>
       <c r="F50" s="8">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G50" s="8">
         <v>861</v>
       </c>
-      <c r="H50" s="8">
+      <c r="I50" s="8">
         <v>30</v>
       </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8">
+      <c r="J50" s="8"/>
+      <c r="K50" s="8">
         <v>196</v>
       </c>
-      <c r="K50" s="8">
+      <c r="L50" s="8">
         <v>238</v>
       </c>
-      <c r="L50" s="8">
+      <c r="M50" s="8">
         <v>208</v>
       </c>
-      <c r="M50" s="8">
+      <c r="N50" s="8">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="O50" s="8">
         <v>1021</v>
       </c>
-      <c r="O50" s="8">
+      <c r="Q50" s="8">
         <v>30</v>
       </c>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8">
+      <c r="R50" s="8"/>
+      <c r="S50" s="8">
         <v>203</v>
       </c>
-      <c r="R50" s="8">
+      <c r="T50" s="8">
         <v>274</v>
       </c>
-      <c r="S50" s="8">
+      <c r="U50" s="8">
         <v>257</v>
       </c>
-      <c r="T50" s="8">
+      <c r="V50" s="8">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="W50" s="8">
         <v>848</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:23">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -9338,42 +9789,54 @@
         <v>315</v>
       </c>
       <c r="F51" s="8">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="G51" s="8">
         <v>862</v>
       </c>
-      <c r="H51" s="8">
+      <c r="I51" s="8">
         <v>50</v>
       </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8">
+      <c r="J51" s="8"/>
+      <c r="K51" s="8">
         <v>347</v>
       </c>
-      <c r="K51" s="8">
+      <c r="L51" s="8">
         <v>327</v>
       </c>
-      <c r="L51" s="8">
+      <c r="M51" s="8">
         <v>258</v>
       </c>
-      <c r="M51" s="8">
+      <c r="N51" s="8">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="O51" s="8">
         <v>1033</v>
       </c>
-      <c r="O51" s="8">
+      <c r="Q51" s="8">
         <v>50</v>
       </c>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8">
+      <c r="R51" s="8"/>
+      <c r="S51" s="8">
         <v>253</v>
       </c>
-      <c r="R51" s="8">
+      <c r="T51" s="8">
         <v>374</v>
       </c>
-      <c r="S51" s="8">
+      <c r="U51" s="8">
         <v>392</v>
       </c>
-      <c r="T51" s="8">
+      <c r="V51" s="8">
+        <f t="shared" si="2"/>
+        <v>374</v>
+      </c>
+      <c r="W51" s="8">
         <v>872</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:23">
       <c r="A52" s="8">
         <v>80</v>
       </c>
@@ -9388,62 +9851,74 @@
         <v>523</v>
       </c>
       <c r="F52" s="8">
+        <f t="shared" si="0"/>
+        <v>523</v>
+      </c>
+      <c r="G52" s="8">
         <v>944</v>
       </c>
-      <c r="H52" s="8">
+      <c r="I52" s="8">
         <v>80</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8">
+      <c r="J52" s="8"/>
+      <c r="K52" s="8">
         <v>309</v>
       </c>
-      <c r="K52" s="8">
+      <c r="L52" s="8">
         <v>484</v>
       </c>
-      <c r="L52" s="8">
+      <c r="M52" s="8">
         <v>342</v>
       </c>
-      <c r="M52" s="8">
+      <c r="N52" s="8">
+        <f t="shared" si="1"/>
+        <v>342</v>
+      </c>
+      <c r="O52" s="8">
         <v>1042</v>
       </c>
-      <c r="O52" s="8">
+      <c r="Q52" s="8">
         <v>80</v>
       </c>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8">
+      <c r="R52" s="8"/>
+      <c r="S52" s="8">
         <v>350</v>
       </c>
-      <c r="R52" s="8">
+      <c r="T52" s="8">
         <v>553</v>
       </c>
-      <c r="S52" s="8">
+      <c r="U52" s="8">
         <v>539</v>
       </c>
-      <c r="T52" s="8">
+      <c r="V52" s="8">
+        <f t="shared" si="2"/>
+        <v>539</v>
+      </c>
+      <c r="W52" s="8">
         <v>892</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:23">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="G53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="U53" s="11"/>
+      <c r="W53" s="11"/>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="8" t="s">
         <v>63</v>
       </c>
@@ -9458,42 +9933,51 @@
         <v>73</v>
       </c>
       <c r="F54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="I54" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="8"/>
+      <c r="K54" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="L54" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="M54" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="N54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O54" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O54" s="8" t="s">
+      <c r="Q54" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8" t="s">
+      <c r="R54" s="8"/>
+      <c r="S54" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R54" s="8" t="s">
+      <c r="T54" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S54" s="8" t="s">
+      <c r="U54" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T54" s="8" t="s">
+      <c r="V54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W54" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:23">
       <c r="A55" s="8">
         <v>10</v>
       </c>
@@ -9508,42 +9992,54 @@
         <v>0.29139999999999999</v>
       </c>
       <c r="F55" s="8">
+        <f t="shared" si="0"/>
+        <v>0.29139999999999999</v>
+      </c>
+      <c r="G55" s="8">
         <v>0.14330000000000001</v>
       </c>
-      <c r="H55" s="8">
+      <c r="I55" s="8">
         <v>10</v>
       </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8">
+      <c r="J55" s="8"/>
+      <c r="K55" s="8">
         <v>0.16600000000000001</v>
       </c>
-      <c r="K55" s="8">
+      <c r="L55" s="8">
         <v>0.48249999999999998</v>
       </c>
-      <c r="L55" s="8">
+      <c r="M55" s="8">
         <v>0.35320000000000001</v>
       </c>
-      <c r="M55" s="8">
+      <c r="N55" s="8">
+        <f t="shared" si="1"/>
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="O55" s="8">
         <v>0.1221</v>
       </c>
-      <c r="O55" s="8">
+      <c r="Q55" s="8">
         <v>10</v>
       </c>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8">
+      <c r="R55" s="8"/>
+      <c r="S55" s="8">
         <v>0.1893</v>
       </c>
-      <c r="R55" s="8">
+      <c r="T55" s="8">
         <v>0.49149999999999999</v>
       </c>
-      <c r="S55" s="8">
+      <c r="U55" s="8">
         <v>0.3548</v>
       </c>
-      <c r="T55" s="8">
+      <c r="V55" s="8">
+        <f t="shared" si="2"/>
+        <v>0.3548</v>
+      </c>
+      <c r="W55" s="8">
         <v>0.1588</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:23">
       <c r="A56" s="8">
         <v>20</v>
       </c>
@@ -9558,42 +10054,54 @@
         <v>0.28970000000000001</v>
       </c>
       <c r="F56" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="G56" s="8">
         <v>0.1195</v>
       </c>
-      <c r="H56" s="8">
+      <c r="I56" s="8">
         <v>20</v>
       </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8">
+      <c r="J56" s="8"/>
+      <c r="K56" s="8">
         <v>0.17349999999999999</v>
       </c>
-      <c r="K56" s="8">
+      <c r="L56" s="8">
         <v>0.4803</v>
       </c>
-      <c r="L56" s="8">
+      <c r="M56" s="8">
         <v>0.34620000000000001</v>
       </c>
-      <c r="M56" s="8">
+      <c r="N56" s="8">
+        <f t="shared" si="1"/>
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="O56" s="8">
         <v>0.11799999999999999</v>
       </c>
-      <c r="O56" s="8">
+      <c r="Q56" s="8">
         <v>20</v>
       </c>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8">
+      <c r="R56" s="8"/>
+      <c r="S56" s="8">
         <v>0.19040000000000001</v>
       </c>
-      <c r="R56" s="8">
+      <c r="T56" s="8">
         <v>0.4995</v>
       </c>
-      <c r="S56" s="8">
+      <c r="U56" s="8">
         <v>0.34910000000000002</v>
       </c>
-      <c r="T56" s="8">
+      <c r="V56" s="8">
+        <f t="shared" si="2"/>
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="W56" s="8">
         <v>0.1542</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:23">
       <c r="A57" s="8">
         <v>30</v>
       </c>
@@ -9608,42 +10116,54 @@
         <v>0.2898</v>
       </c>
       <c r="F57" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2898</v>
+      </c>
+      <c r="G57" s="8">
         <v>0.1338</v>
       </c>
-      <c r="H57" s="8">
+      <c r="I57" s="8">
         <v>30</v>
       </c>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8">
+      <c r="J57" s="8"/>
+      <c r="K57" s="8">
         <v>0.1573</v>
       </c>
-      <c r="K57" s="8">
+      <c r="L57" s="8">
         <v>0.47570000000000001</v>
       </c>
-      <c r="L57" s="8">
+      <c r="M57" s="8">
         <v>0.34250000000000003</v>
       </c>
-      <c r="M57" s="8">
+      <c r="N57" s="8">
+        <f t="shared" si="1"/>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="O57" s="8">
         <v>0.1208</v>
       </c>
-      <c r="O57" s="8">
+      <c r="Q57" s="8">
         <v>30</v>
       </c>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8">
+      <c r="R57" s="8"/>
+      <c r="S57" s="8">
         <v>0.1923</v>
       </c>
-      <c r="R57" s="8">
+      <c r="T57" s="8">
         <v>0.49249999999999999</v>
       </c>
-      <c r="S57" s="8">
+      <c r="U57" s="8">
         <v>0.34510000000000002</v>
       </c>
-      <c r="T57" s="8">
+      <c r="V57" s="8">
+        <f t="shared" si="2"/>
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="W57" s="8">
         <v>0.1479</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:23">
       <c r="A58" s="8">
         <v>50</v>
       </c>
@@ -9658,42 +10178,54 @@
         <v>0.28539999999999999</v>
       </c>
       <c r="F58" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28539999999999999</v>
+      </c>
+      <c r="G58" s="8">
         <v>0.15049999999999999</v>
       </c>
-      <c r="H58" s="8">
+      <c r="I58" s="8">
         <v>50</v>
       </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8">
+      <c r="J58" s="8"/>
+      <c r="K58" s="8">
         <v>0.16569999999999999</v>
       </c>
-      <c r="K58" s="8">
+      <c r="L58" s="8">
         <v>0.47520000000000001</v>
       </c>
-      <c r="L58" s="8">
+      <c r="M58" s="8">
         <v>0.3296</v>
       </c>
-      <c r="M58" s="8">
+      <c r="N58" s="8">
+        <f t="shared" si="1"/>
+        <v>0.3296</v>
+      </c>
+      <c r="O58" s="8">
         <v>0.1283</v>
       </c>
-      <c r="O58" s="8">
+      <c r="Q58" s="8">
         <v>50</v>
       </c>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8">
+      <c r="R58" s="8"/>
+      <c r="S58" s="8">
         <v>0.18060000000000001</v>
       </c>
-      <c r="R58" s="8">
+      <c r="T58" s="8">
         <v>0.47620000000000001</v>
       </c>
-      <c r="S58" s="8">
+      <c r="U58" s="8">
         <v>0.3362</v>
       </c>
-      <c r="T58" s="8">
+      <c r="V58" s="8">
+        <f t="shared" si="2"/>
+        <v>0.3362</v>
+      </c>
+      <c r="W58" s="8">
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:23">
       <c r="A59" s="8">
         <v>80</v>
       </c>
@@ -9708,62 +10240,74 @@
         <v>0.27560000000000001</v>
       </c>
       <c r="F59" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27560000000000001</v>
+      </c>
+      <c r="G59" s="8">
         <v>0.1368</v>
       </c>
-      <c r="H59" s="8">
+      <c r="I59" s="8">
         <v>80</v>
       </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8">
+      <c r="J59" s="8"/>
+      <c r="K59" s="8">
         <v>0.156</v>
       </c>
-      <c r="K59" s="8">
+      <c r="L59" s="8">
         <v>0.4698</v>
       </c>
-      <c r="L59" s="8">
+      <c r="M59" s="8">
         <v>0.33750000000000002</v>
       </c>
-      <c r="M59" s="8">
+      <c r="N59" s="8">
+        <f t="shared" si="1"/>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="O59" s="8">
         <v>0.108</v>
       </c>
-      <c r="O59" s="8">
+      <c r="Q59" s="8">
         <v>80</v>
       </c>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8">
+      <c r="R59" s="8"/>
+      <c r="S59" s="8">
         <v>0.17680000000000001</v>
       </c>
-      <c r="R59" s="8">
+      <c r="T59" s="8">
         <v>0.4733</v>
       </c>
-      <c r="S59" s="8">
+      <c r="U59" s="8">
         <v>0.32500000000000001</v>
       </c>
-      <c r="T59" s="8">
+      <c r="V59" s="8">
+        <f t="shared" si="2"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="W59" s="8">
         <v>0.1653</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:23">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="G60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
       <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="U60" s="11"/>
+      <c r="W60" s="11"/>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="8" t="s">
         <v>76</v>
       </c>
@@ -9778,42 +10322,51 @@
         <v>73</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="I61" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8" t="s">
+      <c r="J61" s="8"/>
+      <c r="K61" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="L61" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="M61" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M61" s="8" t="s">
+      <c r="N61" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O61" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O61" s="8" t="s">
+      <c r="Q61" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8" t="s">
+      <c r="R61" s="8"/>
+      <c r="S61" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R61" s="8" t="s">
+      <c r="T61" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S61" s="8" t="s">
+      <c r="U61" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T61" s="8" t="s">
+      <c r="V61" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W61" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:23">
       <c r="A62" s="8">
         <v>10</v>
       </c>
@@ -9828,42 +10381,54 @@
         <v>1</v>
       </c>
       <c r="F62" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="8">
         <v>1.23905</v>
       </c>
-      <c r="H62" s="8">
+      <c r="I62" s="8">
         <v>10</v>
       </c>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8">
+      <c r="J62" s="8"/>
+      <c r="K62" s="8">
         <v>1.0001</v>
       </c>
-      <c r="K62" s="8">
+      <c r="L62" s="8">
         <v>1</v>
       </c>
-      <c r="L62" s="8">
+      <c r="M62" s="8">
         <v>1.00037</v>
       </c>
-      <c r="M62" s="8">
+      <c r="N62" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O62" s="8">
         <v>1.1716200000000001</v>
       </c>
-      <c r="O62" s="8">
+      <c r="Q62" s="8">
         <v>10</v>
       </c>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8">
+      <c r="R62" s="8"/>
+      <c r="S62" s="8">
         <v>1.0002800000000001</v>
       </c>
-      <c r="R62" s="8">
+      <c r="T62" s="8">
         <v>1.00058</v>
       </c>
-      <c r="S62" s="8">
+      <c r="U62" s="8">
         <v>1.00014</v>
       </c>
-      <c r="T62" s="8">
+      <c r="V62" s="8">
+        <f t="shared" si="2"/>
+        <v>1.00014</v>
+      </c>
+      <c r="W62" s="8">
         <v>1.17262</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:23">
       <c r="A63" s="8">
         <v>20</v>
       </c>
@@ -9878,42 +10443,54 @@
         <v>1</v>
       </c>
       <c r="F63" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="8">
         <v>1.27328</v>
       </c>
-      <c r="H63" s="8">
+      <c r="I63" s="8">
         <v>20</v>
       </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8">
+      <c r="J63" s="8"/>
+      <c r="K63" s="8">
         <v>1.0003</v>
       </c>
-      <c r="K63" s="8">
+      <c r="L63" s="8">
         <v>1</v>
       </c>
-      <c r="L63" s="8">
+      <c r="M63" s="8">
         <v>1.00037</v>
       </c>
-      <c r="M63" s="8">
+      <c r="N63" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O63" s="8">
         <v>1.29139</v>
       </c>
-      <c r="O63" s="8">
+      <c r="Q63" s="8">
         <v>20</v>
       </c>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8">
+      <c r="R63" s="8"/>
+      <c r="S63" s="8">
         <v>1.0001899999999999</v>
       </c>
-      <c r="R63" s="8">
+      <c r="T63" s="8">
         <v>1.00058</v>
       </c>
-      <c r="S63" s="8">
+      <c r="U63" s="8">
         <v>1.00014</v>
       </c>
-      <c r="T63" s="8">
+      <c r="V63" s="8">
+        <f t="shared" si="2"/>
+        <v>1.00014</v>
+      </c>
+      <c r="W63" s="8">
         <v>1.1847000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:23">
       <c r="A64" s="8">
         <v>30</v>
       </c>
@@ -9928,42 +10505,54 @@
         <v>1</v>
       </c>
       <c r="F64" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G64" s="8">
         <v>1.2541500000000001</v>
       </c>
-      <c r="H64" s="8">
+      <c r="I64" s="8">
         <v>30</v>
       </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8">
+      <c r="J64" s="8"/>
+      <c r="K64" s="8">
         <v>1.0003</v>
       </c>
-      <c r="K64" s="8">
+      <c r="L64" s="8">
         <v>1</v>
       </c>
-      <c r="L64" s="8">
+      <c r="M64" s="8">
         <v>1.00037</v>
       </c>
-      <c r="M64" s="8">
+      <c r="N64" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O64" s="8">
         <v>1.19577</v>
       </c>
-      <c r="O64" s="8">
+      <c r="Q64" s="8">
         <v>30</v>
       </c>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8">
+      <c r="R64" s="8"/>
+      <c r="S64" s="8">
         <v>1.0001899999999999</v>
       </c>
-      <c r="R64" s="8">
+      <c r="T64" s="8">
         <v>1.00058</v>
       </c>
-      <c r="S64" s="8">
+      <c r="U64" s="8">
         <v>1.00014</v>
       </c>
-      <c r="T64" s="8">
+      <c r="V64" s="8">
+        <f t="shared" si="2"/>
+        <v>1.00014</v>
+      </c>
+      <c r="W64" s="8">
         <v>1.22698</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:23">
       <c r="A65" s="8">
         <v>50</v>
       </c>
@@ -9978,42 +10567,54 @@
         <v>1</v>
       </c>
       <c r="F65" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G65" s="8">
         <v>1.27529</v>
       </c>
-      <c r="H65" s="8">
+      <c r="I65" s="8">
         <v>50</v>
       </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8">
+      <c r="J65" s="8"/>
+      <c r="K65" s="8">
         <v>1.0001</v>
       </c>
-      <c r="K65" s="8">
+      <c r="L65" s="8">
         <v>1</v>
       </c>
-      <c r="L65" s="8">
+      <c r="M65" s="8">
         <v>1.00037</v>
       </c>
-      <c r="M65" s="8">
+      <c r="N65" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O65" s="8">
         <v>1.18571</v>
       </c>
-      <c r="O65" s="8">
+      <c r="Q65" s="8">
         <v>50</v>
       </c>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8">
+      <c r="R65" s="8"/>
+      <c r="S65" s="8">
         <v>1</v>
       </c>
-      <c r="R65" s="8">
+      <c r="T65" s="8">
         <v>1.00058</v>
       </c>
-      <c r="S65" s="8">
+      <c r="U65" s="8">
         <v>1.00014</v>
       </c>
-      <c r="T65" s="8">
+      <c r="V65" s="8">
+        <f t="shared" si="2"/>
+        <v>1.00014</v>
+      </c>
+      <c r="W65" s="8">
         <v>1.19577</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:23">
       <c r="A66" s="8">
         <v>80</v>
       </c>
@@ -10028,42 +10629,54 @@
         <v>1</v>
       </c>
       <c r="F66" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G66" s="8">
         <v>1.24912</v>
       </c>
-      <c r="H66" s="8">
+      <c r="I66" s="8">
         <v>80</v>
       </c>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8">
+      <c r="J66" s="8"/>
+      <c r="K66" s="8">
         <v>1.0003</v>
       </c>
-      <c r="K66" s="8">
+      <c r="L66" s="8">
         <v>1</v>
       </c>
-      <c r="L66" s="8">
+      <c r="M66" s="8">
         <v>1.00037</v>
       </c>
-      <c r="M66" s="8">
+      <c r="N66" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O66" s="8">
         <v>1.2642199999999999</v>
       </c>
-      <c r="O66" s="8">
+      <c r="Q66" s="8">
         <v>80</v>
       </c>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8">
+      <c r="R66" s="8"/>
+      <c r="S66" s="8">
         <v>1.0001899999999999</v>
       </c>
-      <c r="R66" s="8">
+      <c r="T66" s="8">
         <v>1.00058</v>
       </c>
-      <c r="S66" s="8">
+      <c r="U66" s="8">
         <v>1.00014</v>
       </c>
-      <c r="T66" s="8">
+      <c r="V66" s="8">
+        <f t="shared" si="2"/>
+        <v>1.00014</v>
+      </c>
+      <c r="W66" s="8">
         <v>1.2239599999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:23">
       <c r="A70" s="5" t="s">
         <v>83</v>
       </c>
@@ -10072,24 +10685,27 @@
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="H70" s="5" t="s">
+      <c r="G70" s="5"/>
+      <c r="I70" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
-      <c r="O70" s="5" t="s">
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="Q70" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="5" t="s">
         <v>85</v>
       </c>
@@ -10100,28 +10716,31 @@
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="H71" s="5" t="s">
+      <c r="G71" s="5"/>
+      <c r="I71" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5" t="s">
+      <c r="J71" s="5"/>
+      <c r="K71" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="O71" s="5" t="s">
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="Q71" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5" t="s">
+      <c r="R71" s="5"/>
+      <c r="S71" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
       <c r="T71" s="5"/>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="4" t="s">
         <v>87</v>
       </c>
@@ -10136,36 +10755,39 @@
         <v>88</v>
       </c>
       <c r="F72" s="4"/>
-      <c r="H72" s="4" t="s">
+      <c r="G72" s="4"/>
+      <c r="I72" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M72" s="4"/>
-      <c r="O72" s="4" t="s">
+      <c r="M72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="Q72" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="R72" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="R72" s="4"/>
       <c r="S72" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T72" s="4"/>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="T72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="8" t="s">
         <v>69</v>
       </c>
@@ -10182,46 +10804,55 @@
         <v>73</v>
       </c>
       <c r="F73" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G73" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="I73" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="J73" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="K73" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="L73" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L73" s="8" t="s">
+      <c r="M73" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M73" s="8" t="s">
+      <c r="N73" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O73" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O73" s="8" t="s">
+      <c r="Q73" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="P73" s="8" t="s">
+      <c r="R73" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q73" s="8" t="s">
+      <c r="S73" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R73" s="8" t="s">
+      <c r="T73" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S73" s="8" t="s">
+      <c r="U73" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T73" s="8" t="s">
+      <c r="V73" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W73" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:23">
       <c r="A74" s="8">
         <v>2000</v>
       </c>
@@ -10238,46 +10869,58 @@
         <v>60</v>
       </c>
       <c r="F74" s="8">
+        <f t="shared" ref="F74:F115" si="3">MIN(D74:E74)</f>
+        <v>60</v>
+      </c>
+      <c r="G74" s="8">
         <v>687</v>
       </c>
-      <c r="H74" s="8">
+      <c r="I74" s="8">
         <v>2000</v>
       </c>
-      <c r="I74" s="8">
+      <c r="J74" s="8">
         <v>8</v>
       </c>
-      <c r="J74" s="8">
+      <c r="K74" s="8">
         <v>83</v>
       </c>
-      <c r="K74" s="8">
+      <c r="L74" s="8">
         <v>110</v>
       </c>
-      <c r="L74" s="8">
+      <c r="M74" s="8">
         <v>82</v>
       </c>
-      <c r="M74" s="8">
+      <c r="N74" s="8">
+        <f t="shared" ref="N74:N115" si="4">MIN(L74:M74)</f>
+        <v>82</v>
+      </c>
+      <c r="O74" s="8">
         <v>834</v>
       </c>
-      <c r="O74" s="8">
+      <c r="Q74" s="8">
         <v>2000</v>
       </c>
-      <c r="P74" s="8">
+      <c r="R74" s="8">
         <v>9</v>
       </c>
-      <c r="Q74" s="8">
+      <c r="S74" s="8">
         <v>79</v>
       </c>
-      <c r="R74" s="8">
+      <c r="T74" s="8">
         <v>91</v>
       </c>
-      <c r="S74" s="8">
+      <c r="U74" s="8">
         <v>50</v>
       </c>
-      <c r="T74" s="8">
+      <c r="V74" s="8">
+        <f t="shared" ref="V74:V115" si="5">MIN(T74:U74)</f>
+        <v>50</v>
+      </c>
+      <c r="W74" s="8">
         <v>678</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:23">
       <c r="A75" s="8">
         <v>3000</v>
       </c>
@@ -10294,46 +10937,58 @@
         <v>70</v>
       </c>
       <c r="F75" s="8">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G75" s="8">
         <v>716</v>
       </c>
-      <c r="H75" s="8">
+      <c r="I75" s="8">
         <v>3000</v>
       </c>
-      <c r="I75" s="8">
+      <c r="J75" s="8">
         <v>9</v>
       </c>
-      <c r="J75" s="8">
+      <c r="K75" s="8">
         <v>96</v>
       </c>
-      <c r="K75" s="8">
+      <c r="L75" s="8">
         <v>141</v>
       </c>
-      <c r="L75" s="8">
+      <c r="M75" s="8">
         <v>92</v>
       </c>
-      <c r="M75" s="8">
+      <c r="N75" s="8">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="O75" s="8">
         <v>864</v>
       </c>
-      <c r="O75" s="8">
+      <c r="Q75" s="8">
         <v>3000</v>
       </c>
-      <c r="P75" s="8">
+      <c r="R75" s="8">
         <v>8</v>
       </c>
-      <c r="Q75" s="8">
+      <c r="S75" s="8">
         <v>94</v>
       </c>
-      <c r="R75" s="8">
+      <c r="T75" s="8">
         <v>123</v>
       </c>
-      <c r="S75" s="8">
+      <c r="U75" s="8">
         <v>59</v>
       </c>
-      <c r="T75" s="8">
+      <c r="V75" s="8">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="W75" s="8">
         <v>715</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:23">
       <c r="A76" s="8">
         <v>4000</v>
       </c>
@@ -10350,46 +11005,58 @@
         <v>87</v>
       </c>
       <c r="F76" s="8">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="G76" s="8">
         <v>778</v>
       </c>
-      <c r="H76" s="8">
+      <c r="I76" s="8">
         <v>4000</v>
       </c>
-      <c r="I76" s="8">
+      <c r="J76" s="8">
         <v>12</v>
       </c>
-      <c r="J76" s="8">
+      <c r="K76" s="8">
         <v>113</v>
       </c>
-      <c r="K76" s="8">
+      <c r="L76" s="8">
         <v>164</v>
       </c>
-      <c r="L76" s="8">
+      <c r="M76" s="8">
         <v>134</v>
       </c>
-      <c r="M76" s="8">
+      <c r="N76" s="8">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="O76" s="8">
         <v>990</v>
       </c>
-      <c r="O76" s="8">
+      <c r="Q76" s="8">
         <v>4000</v>
       </c>
-      <c r="P76" s="8">
+      <c r="R76" s="8">
         <v>10</v>
       </c>
-      <c r="Q76" s="8">
+      <c r="S76" s="8">
         <v>110</v>
       </c>
-      <c r="R76" s="8">
+      <c r="T76" s="8">
         <v>127</v>
       </c>
-      <c r="S76" s="8">
+      <c r="U76" s="8">
         <v>73</v>
       </c>
-      <c r="T76" s="8">
+      <c r="V76" s="8">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="W76" s="8">
         <v>762</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:23">
       <c r="A77" s="8">
         <v>5000</v>
       </c>
@@ -10406,86 +11073,104 @@
         <v>95</v>
       </c>
       <c r="F77" s="8">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="G77" s="8">
         <v>817</v>
       </c>
-      <c r="H77" s="8">
+      <c r="I77" s="8">
         <v>5000</v>
       </c>
-      <c r="I77" s="8">
+      <c r="J77" s="8">
         <v>20</v>
       </c>
-      <c r="J77" s="8">
+      <c r="K77" s="8">
         <v>135</v>
       </c>
-      <c r="K77" s="8">
+      <c r="L77" s="8">
         <v>203</v>
       </c>
-      <c r="L77" s="8">
+      <c r="M77" s="8">
         <v>161</v>
       </c>
-      <c r="M77" s="8">
+      <c r="N77" s="8">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="O77" s="8">
         <v>1055</v>
       </c>
-      <c r="O77" s="8">
+      <c r="Q77" s="8">
         <v>5000</v>
       </c>
-      <c r="P77" s="8">
+      <c r="R77" s="8">
         <v>16</v>
       </c>
-      <c r="Q77" s="8">
+      <c r="S77" s="8">
         <v>123</v>
       </c>
-      <c r="R77" s="8">
+      <c r="T77" s="8">
         <v>155</v>
       </c>
-      <c r="S77" s="8">
+      <c r="U77" s="8">
         <v>85</v>
       </c>
-      <c r="T77" s="8">
+      <c r="V77" s="8">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="W77" s="8">
         <v>811</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:23">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
-      <c r="H78" s="8"/>
+      <c r="G78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
-    </row>
-    <row r="79" spans="1:20">
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
-      <c r="H79" s="11"/>
+      <c r="G79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
       <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
       <c r="S79" s="11"/>
       <c r="T79" s="11"/>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="8" t="s">
         <v>75</v>
       </c>
@@ -10502,46 +11187,55 @@
         <v>73</v>
       </c>
       <c r="F80" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="I80" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="J80" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="K80" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="L80" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L80" s="8" t="s">
+      <c r="M80" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M80" s="8" t="s">
+      <c r="N80" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O80" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O80" s="8" t="s">
+      <c r="Q80" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P80" s="8" t="s">
+      <c r="R80" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q80" s="8" t="s">
+      <c r="S80" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R80" s="8" t="s">
+      <c r="T80" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S80" s="8" t="s">
+      <c r="U80" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T80" s="8" t="s">
+      <c r="V80" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W80" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:23">
       <c r="A81" s="8">
         <v>2000</v>
       </c>
@@ -10558,46 +11252,58 @@
         <v>0.64490000000000003</v>
       </c>
       <c r="F81" s="8">
+        <f t="shared" si="3"/>
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="G81" s="8">
         <v>0.64129999999999998</v>
       </c>
-      <c r="H81" s="8">
+      <c r="I81" s="8">
         <v>2000</v>
       </c>
-      <c r="I81" s="8">
+      <c r="J81" s="8">
         <v>0.625</v>
       </c>
-      <c r="J81" s="8">
+      <c r="K81" s="8">
         <v>0.65010000000000001</v>
       </c>
-      <c r="K81" s="8">
+      <c r="L81" s="8">
         <v>0.66649999999999998</v>
       </c>
-      <c r="L81" s="8">
+      <c r="M81" s="8">
         <v>0.65549999999999997</v>
       </c>
-      <c r="M81" s="8">
+      <c r="N81" s="8">
+        <f t="shared" si="4"/>
+        <v>0.65549999999999997</v>
+      </c>
+      <c r="O81" s="8">
         <v>0.63859999999999995</v>
       </c>
-      <c r="O81" s="8">
+      <c r="Q81" s="8">
         <v>2000</v>
       </c>
-      <c r="P81" s="8">
+      <c r="R81" s="8">
         <v>0.62360000000000004</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="S81" s="8">
         <v>0.64670000000000005</v>
       </c>
-      <c r="R81" s="8">
+      <c r="T81" s="8">
         <v>0.65810000000000002</v>
       </c>
-      <c r="S81" s="8">
+      <c r="U81" s="8">
         <v>0.6502</v>
       </c>
-      <c r="T81" s="8">
+      <c r="V81" s="8">
+        <f t="shared" si="5"/>
+        <v>0.6502</v>
+      </c>
+      <c r="W81" s="8">
         <v>0.63970000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:23">
       <c r="A82" s="8">
         <v>3000</v>
       </c>
@@ -10614,46 +11320,58 @@
         <v>0.63319999999999999</v>
       </c>
       <c r="F82" s="8">
+        <f t="shared" si="3"/>
+        <v>0.63319999999999999</v>
+      </c>
+      <c r="G82" s="8">
         <v>0.62619999999999998</v>
       </c>
-      <c r="H82" s="8">
+      <c r="I82" s="8">
         <v>3000</v>
       </c>
-      <c r="I82" s="8">
+      <c r="J82" s="8">
         <v>0.61050000000000004</v>
       </c>
-      <c r="J82" s="8">
+      <c r="K82" s="8">
         <v>0.63060000000000005</v>
       </c>
-      <c r="K82" s="8">
+      <c r="L82" s="8">
         <v>0.64359999999999995</v>
       </c>
-      <c r="L82" s="8">
+      <c r="M82" s="8">
         <v>0.63900000000000001</v>
       </c>
-      <c r="M82" s="8">
+      <c r="N82" s="8">
+        <f t="shared" si="4"/>
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="O82" s="8">
         <v>0.625</v>
       </c>
-      <c r="O82" s="8">
+      <c r="Q82" s="8">
         <v>3000</v>
       </c>
-      <c r="P82" s="8">
+      <c r="R82" s="8">
         <v>0.60409999999999997</v>
       </c>
-      <c r="Q82" s="8">
+      <c r="S82" s="8">
         <v>0.62970000000000004</v>
       </c>
-      <c r="R82" s="8">
+      <c r="T82" s="8">
         <v>0.6371</v>
       </c>
-      <c r="S82" s="8">
+      <c r="U82" s="8">
         <v>0.64159999999999995</v>
       </c>
-      <c r="T82" s="8">
+      <c r="V82" s="8">
+        <f t="shared" si="5"/>
+        <v>0.6371</v>
+      </c>
+      <c r="W82" s="8">
         <v>0.62460000000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:23">
       <c r="A83" s="8">
         <v>4000</v>
       </c>
@@ -10670,46 +11388,58 @@
         <v>0.6502</v>
       </c>
       <c r="F83" s="8">
+        <f t="shared" si="3"/>
+        <v>0.6502</v>
+      </c>
+      <c r="G83" s="8">
         <v>0.64600000000000002</v>
       </c>
-      <c r="H83" s="8">
+      <c r="I83" s="8">
         <v>4000</v>
       </c>
-      <c r="I83" s="8">
+      <c r="J83" s="8">
         <v>0.61250000000000004</v>
       </c>
-      <c r="J83" s="8">
+      <c r="K83" s="8">
         <v>0.6512</v>
       </c>
-      <c r="K83" s="8">
+      <c r="L83" s="8">
         <v>0.66090000000000004</v>
       </c>
-      <c r="L83" s="8">
+      <c r="M83" s="8">
         <v>0.65410000000000001</v>
       </c>
-      <c r="M83" s="8">
+      <c r="N83" s="8">
+        <f t="shared" si="4"/>
+        <v>0.65410000000000001</v>
+      </c>
+      <c r="O83" s="8">
         <v>0.64180000000000004</v>
       </c>
-      <c r="O83" s="8">
+      <c r="Q83" s="8">
         <v>4000</v>
       </c>
-      <c r="P83" s="8">
+      <c r="R83" s="8">
         <v>0.60980000000000001</v>
       </c>
-      <c r="Q83" s="8">
+      <c r="S83" s="8">
         <v>0.64849999999999997</v>
       </c>
-      <c r="R83" s="8">
+      <c r="T83" s="8">
         <v>0.65629999999999999</v>
       </c>
-      <c r="S83" s="8">
+      <c r="U83" s="8">
         <v>0.66169999999999995</v>
       </c>
-      <c r="T83" s="8">
+      <c r="V83" s="8">
+        <f t="shared" si="5"/>
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="W83" s="8">
         <v>0.6421</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:23">
       <c r="A84" s="8">
         <v>5000</v>
       </c>
@@ -10726,86 +11456,104 @@
         <v>0.64980000000000004</v>
       </c>
       <c r="F84" s="8">
+        <f t="shared" si="3"/>
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="G84" s="8">
         <v>0.64229999999999998</v>
       </c>
-      <c r="H84" s="8">
+      <c r="I84" s="8">
         <v>5000</v>
       </c>
-      <c r="I84" s="8">
+      <c r="J84" s="8">
         <v>0.60550000000000004</v>
       </c>
-      <c r="J84" s="8">
+      <c r="K84" s="8">
         <v>0.64759999999999995</v>
       </c>
-      <c r="K84" s="8">
+      <c r="L84" s="8">
         <v>0.65059999999999996</v>
       </c>
-      <c r="L84" s="8">
+      <c r="M84" s="8">
         <v>0.64780000000000004</v>
       </c>
-      <c r="M84" s="8">
+      <c r="N84" s="8">
+        <f t="shared" si="4"/>
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="O84" s="8">
         <v>0.64080000000000004</v>
       </c>
-      <c r="O84" s="8">
+      <c r="Q84" s="8">
         <v>5000</v>
       </c>
-      <c r="P84" s="8">
+      <c r="R84" s="8">
         <v>0.60409999999999997</v>
       </c>
-      <c r="Q84" s="8">
+      <c r="S84" s="8">
         <v>0.64959999999999996</v>
       </c>
-      <c r="R84" s="8">
+      <c r="T84" s="8">
         <v>0.65180000000000005</v>
       </c>
-      <c r="S84" s="8">
+      <c r="U84" s="8">
         <v>0.65849999999999997</v>
       </c>
-      <c r="T84" s="8">
+      <c r="V84" s="8">
+        <f t="shared" si="5"/>
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="W84" s="8">
         <v>0.64190000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:23">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
-      <c r="H85" s="8"/>
+      <c r="G85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
-    </row>
-    <row r="86" spans="1:20">
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="8"/>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
-      <c r="H86" s="11"/>
+      <c r="G86" s="11"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
       <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
       <c r="S86" s="11"/>
       <c r="T86" s="11"/>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="8" t="s">
         <v>76</v>
       </c>
@@ -10822,46 +11570,55 @@
         <v>73</v>
       </c>
       <c r="F87" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="I87" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="J87" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="K87" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K87" s="8" t="s">
+      <c r="L87" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L87" s="8" t="s">
+      <c r="M87" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M87" s="8" t="s">
+      <c r="N87" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O87" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O87" s="8" t="s">
+      <c r="Q87" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P87" s="8" t="s">
+      <c r="R87" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q87" s="8" t="s">
+      <c r="S87" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R87" s="8" t="s">
+      <c r="T87" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S87" s="8" t="s">
+      <c r="U87" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T87" s="8" t="s">
+      <c r="V87" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W87" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:23">
       <c r="A88" s="8">
         <v>2000</v>
       </c>
@@ -10878,46 +11635,58 @@
         <v>1.0004999999999999</v>
       </c>
       <c r="F88" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G88" s="8">
         <v>1.0015000000000001</v>
       </c>
-      <c r="H88" s="8">
+      <c r="I88" s="8">
         <v>2000</v>
       </c>
-      <c r="I88" s="8">
+      <c r="J88" s="8">
         <v>1.10145</v>
-      </c>
-      <c r="J88" s="8">
-        <v>1</v>
       </c>
       <c r="K88" s="8">
         <v>1</v>
       </c>
       <c r="L88" s="8">
+        <v>1</v>
+      </c>
+      <c r="M88" s="8">
         <v>1.0004999999999999</v>
       </c>
-      <c r="M88" s="8">
+      <c r="N88" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O88" s="8">
         <v>1.0035000000000001</v>
       </c>
-      <c r="O88" s="8">
+      <c r="Q88" s="8">
         <v>2000</v>
       </c>
-      <c r="P88" s="8">
+      <c r="R88" s="8">
         <v>1.10145</v>
       </c>
-      <c r="Q88" s="8">
+      <c r="S88" s="8">
         <v>1</v>
       </c>
-      <c r="R88" s="8">
+      <c r="T88" s="8">
         <v>1</v>
       </c>
-      <c r="S88" s="8">
+      <c r="U88" s="8">
         <v>1.0009999999999999</v>
       </c>
-      <c r="T88" s="8">
+      <c r="V88" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W88" s="8">
         <v>1.0015000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:23">
       <c r="A89" s="8">
         <v>3000</v>
       </c>
@@ -10934,46 +11703,58 @@
         <v>1.0006699999999999</v>
       </c>
       <c r="F89" s="8">
+        <f t="shared" si="3"/>
+        <v>1.0004299999999999</v>
+      </c>
+      <c r="G89" s="8">
         <v>1.0036700000000001</v>
       </c>
-      <c r="H89" s="8">
+      <c r="I89" s="8">
         <v>3000</v>
       </c>
-      <c r="I89" s="8">
+      <c r="J89" s="8">
         <v>1.10097</v>
       </c>
-      <c r="J89" s="8">
+      <c r="K89" s="8">
         <v>1.0009999999999999</v>
       </c>
-      <c r="K89" s="8">
+      <c r="L89" s="8">
         <v>1.0004299999999999</v>
       </c>
-      <c r="L89" s="8">
+      <c r="M89" s="8">
         <v>1.0003299999999999</v>
       </c>
-      <c r="M89" s="8">
+      <c r="N89" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0003299999999999</v>
+      </c>
+      <c r="O89" s="8">
         <v>1.0023299999999999</v>
       </c>
-      <c r="O89" s="8">
+      <c r="Q89" s="8">
         <v>3000</v>
       </c>
-      <c r="P89" s="8">
+      <c r="R89" s="8">
         <v>1.10097</v>
       </c>
-      <c r="Q89" s="8">
+      <c r="S89" s="8">
         <v>1</v>
       </c>
-      <c r="R89" s="8">
+      <c r="T89" s="8">
         <v>1.0004299999999999</v>
       </c>
-      <c r="S89" s="8">
+      <c r="U89" s="8">
         <v>1.0003299999999999</v>
       </c>
-      <c r="T89" s="8">
+      <c r="V89" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0003299999999999</v>
+      </c>
+      <c r="W89" s="8">
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:23">
       <c r="A90" s="8">
         <v>4000</v>
       </c>
@@ -10990,46 +11771,58 @@
         <v>1.0004999999999999</v>
       </c>
       <c r="F90" s="8">
+        <f t="shared" si="3"/>
+        <v>1.0003200000000001</v>
+      </c>
+      <c r="G90" s="8">
         <v>1.0037499999999999</v>
       </c>
-      <c r="H90" s="8">
+      <c r="I90" s="8">
         <v>4000</v>
       </c>
-      <c r="I90" s="8">
+      <c r="J90" s="8">
         <v>1.1007199999999999</v>
       </c>
-      <c r="J90" s="8">
+      <c r="K90" s="8">
         <v>1.0002500000000001</v>
       </c>
-      <c r="K90" s="8">
+      <c r="L90" s="8">
         <v>1.0003200000000001</v>
       </c>
-      <c r="L90" s="8">
+      <c r="M90" s="8">
         <v>1</v>
       </c>
-      <c r="M90" s="8">
+      <c r="N90" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O90" s="8">
         <v>1.00275</v>
       </c>
-      <c r="O90" s="8">
+      <c r="Q90" s="8">
         <v>4000</v>
       </c>
-      <c r="P90" s="8">
+      <c r="R90" s="8">
         <v>1.1007199999999999</v>
       </c>
-      <c r="Q90" s="8">
+      <c r="S90" s="8">
         <v>1</v>
       </c>
-      <c r="R90" s="8">
+      <c r="T90" s="8">
         <v>1.0003200000000001</v>
       </c>
-      <c r="S90" s="8">
+      <c r="U90" s="8">
         <v>1.0002500000000001</v>
       </c>
-      <c r="T90" s="8">
+      <c r="V90" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0002500000000001</v>
+      </c>
+      <c r="W90" s="8">
         <v>1.00675</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:23">
       <c r="A91" s="8">
         <v>5000</v>
       </c>
@@ -11046,66 +11839,81 @@
         <v>1.00061</v>
       </c>
       <c r="F91" s="8">
+        <f t="shared" si="3"/>
+        <v>1.00061</v>
+      </c>
+      <c r="G91" s="8">
         <v>1.0125999999999999</v>
       </c>
-      <c r="H91" s="8">
+      <c r="I91" s="8">
         <v>5000</v>
       </c>
-      <c r="I91" s="8">
+      <c r="J91" s="8">
         <v>1.1005799999999999</v>
       </c>
-      <c r="J91" s="8">
+      <c r="K91" s="8">
         <v>1.0004</v>
       </c>
-      <c r="K91" s="8">
+      <c r="L91" s="8">
         <v>1.0007699999999999</v>
       </c>
-      <c r="L91" s="8">
+      <c r="M91" s="8">
         <v>1.00021</v>
       </c>
-      <c r="M91" s="8">
+      <c r="N91" s="8">
+        <f t="shared" si="4"/>
+        <v>1.00021</v>
+      </c>
+      <c r="O91" s="8">
         <v>1.0094000000000001</v>
       </c>
-      <c r="O91" s="8">
+      <c r="Q91" s="8">
         <v>5000</v>
       </c>
-      <c r="P91" s="8">
+      <c r="R91" s="8">
         <v>1.1005799999999999</v>
-      </c>
-      <c r="Q91" s="8">
-        <v>1</v>
-      </c>
-      <c r="R91" s="8">
-        <v>1.0007699999999999</v>
       </c>
       <c r="S91" s="8">
         <v>1</v>
       </c>
       <c r="T91" s="8">
+        <v>1.0007699999999999</v>
+      </c>
+      <c r="U91" s="8">
+        <v>1</v>
+      </c>
+      <c r="V91" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W91" s="8">
         <v>1.0062</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:23">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
-      <c r="H92" s="8"/>
+      <c r="G92" s="8"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
       <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -11119,14 +11927,17 @@
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
       <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
       <c r="S93" s="12"/>
       <c r="T93" s="12"/>
-    </row>
-    <row r="94" spans="1:20">
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="5" t="s">
         <v>89</v>
       </c>
@@ -11135,46 +11946,52 @@
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="5" t="s">
+      <c r="G94" s="5"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
-      <c r="O94" s="5" t="s">
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="Q94" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="12"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
       <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
-    </row>
-    <row r="96" spans="1:20">
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" s="8" t="s">
         <v>69</v>
       </c>
@@ -11191,47 +12008,56 @@
         <v>73</v>
       </c>
       <c r="F96" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="8" t="s">
+      <c r="H96" s="12"/>
+      <c r="I96" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I96" s="8" t="s">
+      <c r="J96" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J96" s="8" t="s">
+      <c r="K96" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="L96" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L96" s="8" t="s">
+      <c r="M96" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M96" s="8" t="s">
+      <c r="N96" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O96" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O96" s="8" t="s">
+      <c r="Q96" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="P96" s="8" t="s">
+      <c r="R96" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q96" s="8" t="s">
+      <c r="S96" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R96" s="8" t="s">
+      <c r="T96" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S96" s="8" t="s">
+      <c r="U96" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T96" s="8" t="s">
+      <c r="V96" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W96" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:23">
       <c r="A97" s="8">
         <v>80000</v>
       </c>
@@ -11248,47 +12074,59 @@
         <v>95</v>
       </c>
       <c r="F97" s="8">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="G97" s="8">
         <v>817</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="8">
+      <c r="H97" s="12"/>
+      <c r="I97" s="8">
         <v>80000</v>
       </c>
-      <c r="I97" s="8">
+      <c r="J97" s="8">
         <v>20</v>
       </c>
-      <c r="J97" s="8">
+      <c r="K97" s="8">
         <v>135</v>
       </c>
-      <c r="K97" s="8">
+      <c r="L97" s="8">
         <v>203</v>
       </c>
-      <c r="L97" s="8">
+      <c r="M97" s="8">
         <v>161</v>
       </c>
-      <c r="M97" s="8">
+      <c r="N97" s="8">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="O97" s="8">
         <v>1055</v>
       </c>
-      <c r="O97" s="8">
+      <c r="Q97" s="8">
         <v>80000</v>
       </c>
-      <c r="P97" s="8">
+      <c r="R97" s="8">
         <v>16</v>
       </c>
-      <c r="Q97" s="8">
+      <c r="S97" s="8">
         <v>123</v>
       </c>
-      <c r="R97" s="8">
+      <c r="T97" s="8">
         <v>155</v>
       </c>
-      <c r="S97" s="8">
+      <c r="U97" s="8">
         <v>85</v>
       </c>
-      <c r="T97" s="8">
+      <c r="V97" s="8">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="W97" s="8">
         <v>811</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:23">
       <c r="A98" s="8">
         <v>100000</v>
       </c>
@@ -11305,47 +12143,59 @@
         <v>114</v>
       </c>
       <c r="F98" s="8">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="G98" s="8">
         <v>1196</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="8">
+      <c r="H98" s="12"/>
+      <c r="I98" s="8">
         <v>100000</v>
       </c>
-      <c r="I98" s="8">
+      <c r="J98" s="8">
         <v>16</v>
       </c>
-      <c r="J98" s="8">
+      <c r="K98" s="8">
         <v>170</v>
       </c>
-      <c r="K98" s="8">
+      <c r="L98" s="8">
         <v>217</v>
       </c>
-      <c r="L98" s="8">
+      <c r="M98" s="8">
         <v>182</v>
       </c>
-      <c r="M98" s="8">
+      <c r="N98" s="8">
+        <f t="shared" si="4"/>
+        <v>182</v>
+      </c>
+      <c r="O98" s="8">
         <v>1498</v>
       </c>
-      <c r="O98" s="8">
+      <c r="Q98" s="8">
         <v>100000</v>
       </c>
-      <c r="P98" s="8">
+      <c r="R98" s="8">
         <v>15</v>
       </c>
-      <c r="Q98" s="8">
+      <c r="S98" s="8">
         <v>165</v>
       </c>
-      <c r="R98" s="8">
+      <c r="T98" s="8">
         <v>185</v>
       </c>
-      <c r="S98" s="8">
+      <c r="U98" s="8">
         <v>106</v>
       </c>
-      <c r="T98" s="8">
+      <c r="V98" s="8">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="W98" s="8">
         <v>1175</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:23">
       <c r="A99" s="8">
         <v>120000</v>
       </c>
@@ -11362,47 +12212,59 @@
         <v>140</v>
       </c>
       <c r="F99" s="8">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="G99" s="8">
         <v>1626</v>
       </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="8">
+      <c r="H99" s="12"/>
+      <c r="I99" s="8">
         <v>120000</v>
       </c>
-      <c r="I99" s="8">
+      <c r="J99" s="8">
         <v>18</v>
       </c>
-      <c r="J99" s="8">
+      <c r="K99" s="8">
         <v>197</v>
       </c>
-      <c r="K99" s="8">
+      <c r="L99" s="8">
         <v>282</v>
       </c>
-      <c r="L99" s="8">
+      <c r="M99" s="8">
         <v>233</v>
       </c>
-      <c r="M99" s="8">
+      <c r="N99" s="8">
+        <f t="shared" si="4"/>
+        <v>233</v>
+      </c>
+      <c r="O99" s="8">
         <v>2172</v>
       </c>
-      <c r="O99" s="8">
+      <c r="Q99" s="8">
         <v>120000</v>
       </c>
-      <c r="P99" s="8">
+      <c r="R99" s="8">
         <v>15</v>
       </c>
-      <c r="Q99" s="8">
+      <c r="S99" s="8">
         <v>183</v>
       </c>
-      <c r="R99" s="8">
+      <c r="T99" s="8">
         <v>231</v>
       </c>
-      <c r="S99" s="8">
+      <c r="U99" s="8">
         <v>112</v>
       </c>
-      <c r="T99" s="8">
+      <c r="V99" s="8">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="W99" s="8">
         <v>1541</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:23">
       <c r="A100" s="8">
         <v>140000</v>
       </c>
@@ -11419,47 +12281,59 @@
         <v>160</v>
       </c>
       <c r="F100" s="8">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="G100" s="8">
         <v>2143</v>
       </c>
-      <c r="G100" s="12"/>
-      <c r="H100" s="8">
+      <c r="H100" s="12"/>
+      <c r="I100" s="8">
         <v>140000</v>
       </c>
-      <c r="I100" s="8">
+      <c r="J100" s="8">
         <v>16</v>
       </c>
-      <c r="J100" s="8">
+      <c r="K100" s="8">
         <v>241</v>
       </c>
-      <c r="K100" s="8">
+      <c r="L100" s="8">
         <v>300</v>
       </c>
-      <c r="L100" s="8">
+      <c r="M100" s="8">
         <v>251</v>
       </c>
-      <c r="M100" s="8">
+      <c r="N100" s="8">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="O100" s="8">
         <v>2717</v>
       </c>
-      <c r="O100" s="8">
+      <c r="Q100" s="8">
         <v>140000</v>
       </c>
-      <c r="P100" s="8">
+      <c r="R100" s="8">
         <v>17</v>
       </c>
-      <c r="Q100" s="8">
+      <c r="S100" s="8">
         <v>212</v>
       </c>
-      <c r="R100" s="8">
+      <c r="T100" s="8">
         <v>257</v>
       </c>
-      <c r="S100" s="8">
+      <c r="U100" s="8">
         <v>119</v>
       </c>
-      <c r="T100" s="8">
+      <c r="V100" s="8">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="W100" s="8">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:23">
       <c r="A101" s="8">
         <v>160000</v>
       </c>
@@ -11476,68 +12350,83 @@
         <v>189</v>
       </c>
       <c r="F101" s="8">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="G101" s="8">
         <v>2763</v>
       </c>
-      <c r="G101" s="12"/>
-      <c r="H101" s="8">
+      <c r="H101" s="12"/>
+      <c r="I101" s="8">
         <v>160000</v>
       </c>
-      <c r="I101" s="8">
+      <c r="J101" s="8">
         <v>19</v>
       </c>
-      <c r="J101" s="8">
+      <c r="K101" s="8">
         <v>280</v>
       </c>
-      <c r="K101" s="8">
+      <c r="L101" s="8">
         <v>339</v>
       </c>
-      <c r="L101" s="8">
+      <c r="M101" s="8">
         <v>295</v>
       </c>
-      <c r="M101" s="8">
+      <c r="N101" s="8">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="O101" s="8">
         <v>3629</v>
       </c>
-      <c r="O101" s="8">
+      <c r="Q101" s="8">
         <v>160000</v>
       </c>
-      <c r="P101" s="8">
+      <c r="R101" s="8">
         <v>19</v>
       </c>
-      <c r="Q101" s="8">
+      <c r="S101" s="8">
         <v>245</v>
       </c>
-      <c r="R101" s="8">
+      <c r="T101" s="8">
         <v>290</v>
       </c>
-      <c r="S101" s="8">
+      <c r="U101" s="8">
         <v>133</v>
       </c>
-      <c r="T101" s="8">
+      <c r="V101" s="8">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="W101" s="8">
         <v>2513</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:23">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="12"/>
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
       <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="11"/>
       <c r="S102" s="11"/>
       <c r="T102" s="11"/>
-    </row>
-    <row r="103" spans="1:20">
+      <c r="U102" s="11"/>
+      <c r="V102" s="11"/>
+      <c r="W102" s="11"/>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="8" t="s">
         <v>75</v>
       </c>
@@ -11554,47 +12443,56 @@
         <v>73</v>
       </c>
       <c r="F103" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G103" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="8" t="s">
+      <c r="H103" s="12"/>
+      <c r="I103" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I103" s="8" t="s">
+      <c r="J103" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J103" s="8" t="s">
+      <c r="K103" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="L103" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L103" s="8" t="s">
+      <c r="M103" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M103" s="8" t="s">
+      <c r="N103" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O103" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O103" s="8" t="s">
+      <c r="Q103" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P103" s="8" t="s">
+      <c r="R103" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q103" s="8" t="s">
+      <c r="S103" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R103" s="8" t="s">
+      <c r="T103" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S103" s="8" t="s">
+      <c r="U103" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T103" s="8" t="s">
+      <c r="V103" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W103" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:23">
       <c r="A104" s="8">
         <v>80000</v>
       </c>
@@ -11611,47 +12509,59 @@
         <v>0.64980000000000004</v>
       </c>
       <c r="F104" s="8">
+        <f t="shared" si="3"/>
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="G104" s="8">
         <v>0.64229999999999998</v>
       </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="8">
+      <c r="H104" s="12"/>
+      <c r="I104" s="8">
         <v>80000</v>
       </c>
-      <c r="I104" s="8">
+      <c r="J104" s="8">
         <v>0.60550000000000004</v>
       </c>
-      <c r="J104" s="8">
+      <c r="K104" s="8">
         <v>0.64759999999999995</v>
       </c>
-      <c r="K104" s="8">
+      <c r="L104" s="8">
         <v>0.65059999999999996</v>
       </c>
-      <c r="L104" s="8">
+      <c r="M104" s="8">
         <v>0.64780000000000004</v>
       </c>
-      <c r="M104" s="8">
+      <c r="N104" s="8">
+        <f t="shared" si="4"/>
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="O104" s="8">
         <v>0.64080000000000004</v>
       </c>
-      <c r="O104" s="8">
+      <c r="Q104" s="8">
         <v>80000</v>
       </c>
-      <c r="P104" s="8">
+      <c r="R104" s="8">
         <v>0.60409999999999997</v>
       </c>
-      <c r="Q104" s="8">
+      <c r="S104" s="8">
         <v>0.64959999999999996</v>
       </c>
-      <c r="R104" s="8">
+      <c r="T104" s="8">
         <v>0.65180000000000005</v>
       </c>
-      <c r="S104" s="8">
+      <c r="U104" s="8">
         <v>0.65849999999999997</v>
       </c>
-      <c r="T104" s="8">
+      <c r="V104" s="8">
+        <f t="shared" si="5"/>
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="W104" s="8">
         <v>0.64190000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:23">
       <c r="A105" s="8">
         <v>100000</v>
       </c>
@@ -11668,47 +12578,59 @@
         <v>0.65639999999999998</v>
       </c>
       <c r="F105" s="8">
+        <f t="shared" si="3"/>
+        <v>0.65639999999999998</v>
+      </c>
+      <c r="G105" s="8">
         <v>0.64559999999999995</v>
       </c>
-      <c r="G105" s="12"/>
-      <c r="H105" s="8">
+      <c r="H105" s="12"/>
+      <c r="I105" s="8">
         <v>100000</v>
       </c>
-      <c r="I105" s="8">
+      <c r="J105" s="8">
         <v>0.61960000000000004</v>
       </c>
-      <c r="J105" s="8">
+      <c r="K105" s="8">
         <v>0.65390000000000004</v>
       </c>
-      <c r="K105" s="8">
+      <c r="L105" s="8">
         <v>0.66310000000000002</v>
       </c>
-      <c r="L105" s="8">
+      <c r="M105" s="8">
         <v>0.65529999999999999</v>
       </c>
-      <c r="M105" s="8">
+      <c r="N105" s="8">
+        <f t="shared" si="4"/>
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="O105" s="8">
         <v>0.64380000000000004</v>
       </c>
-      <c r="O105" s="8">
+      <c r="Q105" s="8">
         <v>100000</v>
       </c>
-      <c r="P105" s="8">
+      <c r="R105" s="8">
         <v>0.61240000000000006</v>
       </c>
-      <c r="Q105" s="8">
+      <c r="S105" s="8">
         <v>0.65129999999999999</v>
       </c>
-      <c r="R105" s="8">
+      <c r="T105" s="8">
         <v>0.66369999999999996</v>
       </c>
-      <c r="S105" s="8">
+      <c r="U105" s="8">
         <v>0.66249999999999998</v>
       </c>
-      <c r="T105" s="8">
+      <c r="V105" s="8">
+        <f t="shared" si="5"/>
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="W105" s="8">
         <v>0.64490000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:23">
       <c r="A106" s="8">
         <v>120000</v>
       </c>
@@ -11725,47 +12647,59 @@
         <v>0.65669999999999995</v>
       </c>
       <c r="F106" s="8">
+        <f t="shared" si="3"/>
+        <v>0.65669999999999995</v>
+      </c>
+      <c r="G106" s="8">
         <v>0.64770000000000005</v>
       </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="8">
+      <c r="H106" s="12"/>
+      <c r="I106" s="8">
         <v>120000</v>
       </c>
-      <c r="I106" s="8">
+      <c r="J106" s="8">
         <v>0.62570000000000003</v>
       </c>
-      <c r="J106" s="8">
+      <c r="K106" s="8">
         <v>0.65610000000000002</v>
       </c>
-      <c r="K106" s="8">
+      <c r="L106" s="8">
         <v>0.67069999999999996</v>
       </c>
-      <c r="L106" s="8">
+      <c r="M106" s="8">
         <v>0.65910000000000002</v>
       </c>
-      <c r="M106" s="8">
+      <c r="N106" s="8">
+        <f t="shared" si="4"/>
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="O106" s="8">
         <v>0.64770000000000005</v>
       </c>
-      <c r="O106" s="8">
+      <c r="Q106" s="8">
         <v>120000</v>
       </c>
-      <c r="P106" s="8">
+      <c r="R106" s="8">
         <v>0.62609999999999999</v>
       </c>
-      <c r="Q106" s="8">
+      <c r="S106" s="8">
         <v>0.65329999999999999</v>
       </c>
-      <c r="R106" s="8">
+      <c r="T106" s="8">
         <v>0.66669999999999996</v>
       </c>
-      <c r="S106" s="8">
+      <c r="U106" s="8">
         <v>0.66459999999999997</v>
       </c>
-      <c r="T106" s="8">
+      <c r="V106" s="8">
+        <f t="shared" si="5"/>
+        <v>0.66459999999999997</v>
+      </c>
+      <c r="W106" s="8">
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:23">
       <c r="A107" s="8">
         <v>140000</v>
       </c>
@@ -11782,47 +12716,59 @@
         <v>0.65769999999999995</v>
       </c>
       <c r="F107" s="8">
+        <f t="shared" si="3"/>
+        <v>0.65769999999999995</v>
+      </c>
+      <c r="G107" s="8">
         <v>0.64790000000000003</v>
       </c>
-      <c r="G107" s="12"/>
-      <c r="H107" s="8">
+      <c r="H107" s="12"/>
+      <c r="I107" s="8">
         <v>140000</v>
       </c>
-      <c r="I107" s="8">
+      <c r="J107" s="8">
         <v>0.63180000000000003</v>
       </c>
-      <c r="J107" s="8">
+      <c r="K107" s="8">
         <v>0.66039999999999999</v>
       </c>
-      <c r="K107" s="8">
+      <c r="L107" s="8">
         <v>0.67310000000000003</v>
       </c>
-      <c r="L107" s="8">
+      <c r="M107" s="8">
         <v>0.66579999999999995</v>
       </c>
-      <c r="M107" s="8">
+      <c r="N107" s="8">
+        <f t="shared" si="4"/>
+        <v>0.66579999999999995</v>
+      </c>
+      <c r="O107" s="8">
         <v>0.64749999999999996</v>
       </c>
-      <c r="O107" s="8">
+      <c r="Q107" s="8">
         <v>140000</v>
       </c>
-      <c r="P107" s="8">
+      <c r="R107" s="8">
         <v>0.63100000000000001</v>
       </c>
-      <c r="Q107" s="8">
+      <c r="S107" s="8">
         <v>0.65680000000000005</v>
       </c>
-      <c r="R107" s="8">
+      <c r="T107" s="8">
         <v>0.68059999999999998</v>
       </c>
-      <c r="S107" s="8">
+      <c r="U107" s="8">
         <v>0.66559999999999997</v>
       </c>
-      <c r="T107" s="8">
+      <c r="V107" s="8">
+        <f t="shared" si="5"/>
+        <v>0.66559999999999997</v>
+      </c>
+      <c r="W107" s="8">
         <v>0.64910000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:23">
       <c r="A108" s="8">
         <v>160000</v>
       </c>
@@ -11839,68 +12785,83 @@
         <v>0.65669999999999995</v>
       </c>
       <c r="F108" s="8">
+        <f t="shared" si="3"/>
+        <v>0.65669999999999995</v>
+      </c>
+      <c r="G108" s="8">
         <v>0.64959999999999996</v>
       </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="8">
+      <c r="H108" s="12"/>
+      <c r="I108" s="8">
         <v>160000</v>
       </c>
-      <c r="I108" s="8">
+      <c r="J108" s="8">
         <v>0.62849999999999995</v>
       </c>
-      <c r="J108" s="8">
+      <c r="K108" s="8">
         <v>0.65969999999999995</v>
       </c>
-      <c r="K108" s="8">
+      <c r="L108" s="8">
         <v>0.67710000000000004</v>
       </c>
-      <c r="L108" s="8">
+      <c r="M108" s="8">
         <v>0.66720000000000002</v>
       </c>
-      <c r="M108" s="8">
+      <c r="N108" s="8">
+        <f t="shared" si="4"/>
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="O108" s="8">
         <v>0.64859999999999995</v>
       </c>
-      <c r="O108" s="8">
+      <c r="Q108" s="8">
         <v>160000</v>
       </c>
-      <c r="P108" s="8">
+      <c r="R108" s="8">
         <v>0.62729999999999997</v>
       </c>
-      <c r="Q108" s="8">
+      <c r="S108" s="8">
         <v>0.6583</v>
       </c>
-      <c r="R108" s="8">
+      <c r="T108" s="8">
         <v>0.67279999999999995</v>
       </c>
-      <c r="S108" s="8">
+      <c r="U108" s="8">
         <v>0.6653</v>
       </c>
-      <c r="T108" s="8">
+      <c r="V108" s="8">
+        <f t="shared" si="5"/>
+        <v>0.6653</v>
+      </c>
+      <c r="W108" s="8">
         <v>0.64949999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:23">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12"/>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11"/>
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
       <c r="O109" s="11"/>
-      <c r="P109" s="11"/>
       <c r="Q109" s="11"/>
       <c r="R109" s="11"/>
       <c r="S109" s="11"/>
       <c r="T109" s="11"/>
-    </row>
-    <row r="110" spans="1:20">
+      <c r="U109" s="11"/>
+      <c r="V109" s="11"/>
+      <c r="W109" s="11"/>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="8" t="s">
         <v>76</v>
       </c>
@@ -11917,47 +12878,56 @@
         <v>73</v>
       </c>
       <c r="F110" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G110" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="8" t="s">
+      <c r="H110" s="12"/>
+      <c r="I110" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I110" s="8" t="s">
+      <c r="J110" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J110" s="8" t="s">
+      <c r="K110" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K110" s="8" t="s">
+      <c r="L110" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L110" s="8" t="s">
+      <c r="M110" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M110" s="8" t="s">
+      <c r="N110" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O110" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O110" s="8" t="s">
+      <c r="Q110" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P110" s="8" t="s">
+      <c r="R110" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q110" s="8" t="s">
+      <c r="S110" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R110" s="8" t="s">
+      <c r="T110" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S110" s="8" t="s">
+      <c r="U110" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T110" s="8" t="s">
+      <c r="V110" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W110" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:23">
       <c r="A111" s="8">
         <v>80000</v>
       </c>
@@ -11974,47 +12944,59 @@
         <v>1.00061</v>
       </c>
       <c r="F111" s="8">
+        <f t="shared" si="3"/>
+        <v>1.00061</v>
+      </c>
+      <c r="G111" s="8">
         <v>1.0125999999999999</v>
       </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="8">
+      <c r="H111" s="12"/>
+      <c r="I111" s="8">
         <v>80000</v>
       </c>
-      <c r="I111" s="8">
+      <c r="J111" s="8">
         <v>1.1005799999999999</v>
       </c>
-      <c r="J111" s="8">
+      <c r="K111" s="8">
         <v>1.0004</v>
       </c>
-      <c r="K111" s="8">
+      <c r="L111" s="8">
         <v>1.0007699999999999</v>
       </c>
-      <c r="L111" s="8">
+      <c r="M111" s="8">
         <v>1.00021</v>
       </c>
-      <c r="M111" s="8">
+      <c r="N111" s="8">
+        <f t="shared" si="4"/>
+        <v>1.00021</v>
+      </c>
+      <c r="O111" s="8">
         <v>1.0094000000000001</v>
       </c>
-      <c r="O111" s="8">
+      <c r="Q111" s="8">
         <v>80000</v>
       </c>
-      <c r="P111" s="8">
+      <c r="R111" s="8">
         <v>1.1005799999999999</v>
-      </c>
-      <c r="Q111" s="8">
-        <v>1</v>
-      </c>
-      <c r="R111" s="8">
-        <v>1.0007699999999999</v>
       </c>
       <c r="S111" s="8">
         <v>1</v>
       </c>
       <c r="T111" s="8">
+        <v>1.0007699999999999</v>
+      </c>
+      <c r="U111" s="8">
+        <v>1</v>
+      </c>
+      <c r="V111" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W111" s="8">
         <v>1.0062</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:23">
       <c r="A112" s="8">
         <v>100000</v>
       </c>
@@ -12031,47 +13013,59 @@
         <v>1.0002</v>
       </c>
       <c r="F112" s="8">
+        <f t="shared" si="3"/>
+        <v>1.0002</v>
+      </c>
+      <c r="G112" s="8">
         <v>1.0069999999999999</v>
       </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="8">
+      <c r="H112" s="12"/>
+      <c r="I112" s="8">
         <v>100000</v>
       </c>
-      <c r="I112" s="8">
+      <c r="J112" s="8">
         <v>1.1005799999999999</v>
       </c>
-      <c r="J112" s="8">
+      <c r="K112" s="8">
         <v>1.0002</v>
       </c>
-      <c r="K112" s="8">
+      <c r="L112" s="8">
         <v>1.00051</v>
       </c>
-      <c r="L112" s="8">
+      <c r="M112" s="8">
         <v>1.0002</v>
       </c>
-      <c r="M112" s="8">
+      <c r="N112" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0002</v>
+      </c>
+      <c r="O112" s="8">
         <v>1.0069999999999999</v>
       </c>
-      <c r="O112" s="8">
+      <c r="Q112" s="8">
         <v>100000</v>
       </c>
-      <c r="P112" s="8">
+      <c r="R112" s="8">
         <v>1.1005799999999999</v>
       </c>
-      <c r="Q112" s="8">
+      <c r="S112" s="8">
         <v>1.0002</v>
       </c>
-      <c r="R112" s="8">
+      <c r="T112" s="8">
         <v>1.00051</v>
       </c>
-      <c r="S112" s="8">
+      <c r="U112" s="8">
         <v>1.0004</v>
       </c>
-      <c r="T112" s="8">
+      <c r="V112" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0004</v>
+      </c>
+      <c r="W112" s="8">
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:23">
       <c r="A113" s="8">
         <v>120000</v>
       </c>
@@ -12088,47 +13082,59 @@
         <v>1.0002</v>
       </c>
       <c r="F113" s="8">
+        <f t="shared" si="3"/>
+        <v>1.0002</v>
+      </c>
+      <c r="G113" s="8">
         <v>1.0045999999999999</v>
       </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="8">
+      <c r="H113" s="12"/>
+      <c r="I113" s="8">
         <v>120000</v>
       </c>
-      <c r="I113" s="8">
+      <c r="J113" s="8">
         <v>1.1005799999999999</v>
       </c>
-      <c r="J113" s="8">
+      <c r="K113" s="8">
         <v>1.0005999999999999</v>
       </c>
-      <c r="K113" s="8">
+      <c r="L113" s="8">
         <v>1.0002599999999999</v>
       </c>
-      <c r="L113" s="8">
+      <c r="M113" s="8">
         <v>1.00061</v>
       </c>
-      <c r="M113" s="8">
+      <c r="N113" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0002599999999999</v>
+      </c>
+      <c r="O113" s="8">
         <v>1.0029999999999999</v>
       </c>
-      <c r="O113" s="8">
+      <c r="Q113" s="8">
         <v>120000</v>
       </c>
-      <c r="P113" s="8">
+      <c r="R113" s="8">
         <v>1.1005799999999999</v>
       </c>
-      <c r="Q113" s="8">
+      <c r="S113" s="8">
         <v>1</v>
       </c>
-      <c r="R113" s="8">
+      <c r="T113" s="8">
         <v>1.0002599999999999</v>
       </c>
-      <c r="S113" s="8">
+      <c r="U113" s="8">
         <v>1.0005999999999999</v>
       </c>
-      <c r="T113" s="8">
+      <c r="V113" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0002599999999999</v>
+      </c>
+      <c r="W113" s="8">
         <v>1.0014000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:23">
       <c r="A114" s="8">
         <v>140000</v>
       </c>
@@ -12145,47 +13151,59 @@
         <v>1.0005999999999999</v>
       </c>
       <c r="F114" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G114" s="8">
         <v>1.0014000000000001</v>
       </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="8">
+      <c r="H114" s="12"/>
+      <c r="I114" s="8">
         <v>140000</v>
       </c>
-      <c r="I114" s="8">
+      <c r="J114" s="8">
         <v>1.1005799999999999</v>
-      </c>
-      <c r="J114" s="8">
-        <v>1</v>
       </c>
       <c r="K114" s="8">
         <v>1</v>
       </c>
       <c r="L114" s="8">
+        <v>1</v>
+      </c>
+      <c r="M114" s="8">
         <v>1.0005999999999999</v>
       </c>
-      <c r="M114" s="8">
+      <c r="N114" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O114" s="8">
         <v>1.0022</v>
       </c>
-      <c r="O114" s="8">
+      <c r="Q114" s="8">
         <v>140000</v>
       </c>
-      <c r="P114" s="8">
+      <c r="R114" s="8">
         <v>1.1005799999999999</v>
       </c>
-      <c r="Q114" s="8">
+      <c r="S114" s="8">
         <v>1.0005999999999999</v>
       </c>
-      <c r="R114" s="8">
+      <c r="T114" s="8">
         <v>1</v>
       </c>
-      <c r="S114" s="8">
+      <c r="U114" s="8">
         <v>1</v>
       </c>
-      <c r="T114" s="8">
+      <c r="V114" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W114" s="8">
         <v>1.0005999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:23">
       <c r="A115" s="8">
         <v>160000</v>
       </c>
@@ -12202,47 +13220,59 @@
         <v>1</v>
       </c>
       <c r="F115" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G115" s="8">
         <v>1.0005999999999999</v>
       </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="8">
+      <c r="H115" s="12"/>
+      <c r="I115" s="8">
         <v>160000</v>
       </c>
-      <c r="I115" s="8">
+      <c r="J115" s="8">
         <v>1.1005799999999999</v>
-      </c>
-      <c r="J115" s="8">
-        <v>1</v>
       </c>
       <c r="K115" s="8">
         <v>1</v>
       </c>
       <c r="L115" s="8">
+        <v>1</v>
+      </c>
+      <c r="M115" s="8">
         <v>1.0004</v>
       </c>
-      <c r="M115" s="8">
+      <c r="N115" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O115" s="8">
         <v>1.0005999999999999</v>
       </c>
-      <c r="O115" s="8">
+      <c r="Q115" s="8">
         <v>160000</v>
       </c>
-      <c r="P115" s="8">
+      <c r="R115" s="8">
         <v>1.1005799999999999</v>
-      </c>
-      <c r="Q115" s="8">
-        <v>1</v>
-      </c>
-      <c r="R115" s="8">
-        <v>1</v>
       </c>
       <c r="S115" s="8">
         <v>1</v>
       </c>
       <c r="T115" s="8">
+        <v>1</v>
+      </c>
+      <c r="U115" s="8">
+        <v>1</v>
+      </c>
+      <c r="V115" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W115" s="8">
         <v>1.0014000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:23">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -12250,8 +13280,11 @@
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
-    </row>
-    <row r="117" spans="1:20">
+      <c r="H116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="V116" s="12"/>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -12259,8 +13292,11 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
-    </row>
-    <row r="118" spans="1:20">
+      <c r="H117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="V117" s="12"/>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -12268,8 +13304,11 @@
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
-    </row>
-    <row r="119" spans="1:20">
+      <c r="H118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="V118" s="12"/>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -12277,8 +13316,11 @@
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
-    </row>
-    <row r="120" spans="1:20">
+      <c r="H119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="V119" s="12"/>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -12286,8 +13328,11 @@
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
-    </row>
-    <row r="121" spans="1:20">
+      <c r="H120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="V120" s="12"/>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -12295,8 +13340,11 @@
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
-    </row>
-    <row r="122" spans="1:20">
+      <c r="H121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="V121" s="12"/>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -12304,8 +13352,11 @@
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
-    </row>
-    <row r="123" spans="1:20">
+      <c r="H122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="V122" s="12"/>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -12313,8 +13364,11 @@
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
-    </row>
-    <row r="124" spans="1:20">
+      <c r="H123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="V123" s="12"/>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -12322,8 +13376,11 @@
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
-    </row>
-    <row r="125" spans="1:20">
+      <c r="H124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="V124" s="12"/>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -12331,8 +13388,11 @@
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
-    </row>
-    <row r="126" spans="1:20">
+      <c r="H125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="V125" s="12"/>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -12340,8 +13400,11 @@
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
-    </row>
-    <row r="127" spans="1:20">
+      <c r="H126" s="12"/>
+      <c r="N126" s="12"/>
+      <c r="V126" s="12"/>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -12349,8 +13412,11 @@
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
-    </row>
-    <row r="128" spans="1:20">
+      <c r="H127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="V127" s="12"/>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -12358,8 +13424,11 @@
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="V128" s="12"/>
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -12367,8 +13436,11 @@
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="V129" s="12"/>
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -12376,8 +13448,11 @@
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130" s="12"/>
+      <c r="N130" s="12"/>
+      <c r="V130" s="12"/>
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -12385,8 +13460,11 @@
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="V131" s="12"/>
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -12394,8 +13472,11 @@
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="V132" s="12"/>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -12403,8 +13484,11 @@
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="V133" s="12"/>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -12412,8 +13496,11 @@
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="V134" s="12"/>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -12421,6 +13508,9 @@
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="V135" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="129">
   <si>
     <t>hash</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -514,6 +514,18 @@
     <t>SGLd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">    Total Elapse Fig1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    \varsigma = cut /m Fig2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    \tau = max load/(n/k) Fig3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -941,7 +953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6996,8 +7008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7078,7 +7090,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="8" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>70</v>
@@ -7503,7 +7515,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>70</v>
@@ -7928,7 +7940,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="8" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>70</v>

--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" activeTab="1"/>
@@ -953,7 +953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7008,8 +7008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:W77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Final results - real data" sheetId="8" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="StreamPartition50%80%（64位）" sheetId="2" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
     <sheet name="节点边度数" sheetId="4" r:id="rId8"/>
+    <sheet name="Table2 re-calc" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="129">
   <si>
     <t>hash</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -963,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7008,7 +7009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A73" sqref="A73:W77"/>
     </sheetView>
   </sheetViews>
@@ -19102,4 +19103,1783 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="10" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4.5119999999999996</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3.923</v>
+      </c>
+      <c r="D2" s="8">
+        <v>506</v>
+      </c>
+      <c r="E2" s="8">
+        <v>552</v>
+      </c>
+      <c r="F2" s="8">
+        <v>533</v>
+      </c>
+      <c r="G2" s="8">
+        <v>512</v>
+      </c>
+      <c r="H2" s="8">
+        <v>534</v>
+      </c>
+      <c r="I2" s="8">
+        <v>518</v>
+      </c>
+      <c r="J2" s="8">
+        <v>520</v>
+      </c>
+      <c r="K2" s="8">
+        <v>518</v>
+      </c>
+      <c r="L2" s="8">
+        <v>397</v>
+      </c>
+      <c r="M2" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4.4180000000000001</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4.5979999999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>518</v>
+      </c>
+      <c r="E3" s="8">
+        <v>502</v>
+      </c>
+      <c r="F3" s="8">
+        <v>453</v>
+      </c>
+      <c r="G3" s="8">
+        <v>439</v>
+      </c>
+      <c r="H3" s="8">
+        <v>439</v>
+      </c>
+      <c r="I3" s="8">
+        <v>440</v>
+      </c>
+      <c r="J3" s="8">
+        <v>435</v>
+      </c>
+      <c r="K3" s="8">
+        <v>435</v>
+      </c>
+      <c r="L3" s="8">
+        <v>409</v>
+      </c>
+      <c r="M3" s="8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>8.82</v>
+      </c>
+      <c r="C4" s="8">
+        <v>8.7390000000000008</v>
+      </c>
+      <c r="D4" s="8">
+        <v>125</v>
+      </c>
+      <c r="E4" s="8">
+        <v>125</v>
+      </c>
+      <c r="F4" s="8">
+        <v>125</v>
+      </c>
+      <c r="G4" s="8">
+        <v>139</v>
+      </c>
+      <c r="H4" s="8">
+        <v>137</v>
+      </c>
+      <c r="I4" s="8">
+        <v>138</v>
+      </c>
+      <c r="J4" s="8">
+        <v>125</v>
+      </c>
+      <c r="K4" s="8">
+        <v>123</v>
+      </c>
+      <c r="L4" s="8">
+        <v>112</v>
+      </c>
+      <c r="M4" s="8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8">
+        <v>209</v>
+      </c>
+      <c r="E5" s="8">
+        <v>207</v>
+      </c>
+      <c r="F5" s="8">
+        <v>204</v>
+      </c>
+      <c r="G5" s="8">
+        <v>582</v>
+      </c>
+      <c r="H5" s="8">
+        <v>603</v>
+      </c>
+      <c r="I5" s="8">
+        <v>600</v>
+      </c>
+      <c r="J5" s="8">
+        <v>222</v>
+      </c>
+      <c r="K5" s="8">
+        <v>227</v>
+      </c>
+      <c r="L5" s="8">
+        <v>74</v>
+      </c>
+      <c r="M5" s="8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2324</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2290</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2550</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2252</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2438</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2370</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2272</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2361</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1140</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8">
+        <v>63</v>
+      </c>
+      <c r="D7" s="8">
+        <v>544</v>
+      </c>
+      <c r="E7" s="8">
+        <v>542</v>
+      </c>
+      <c r="F7" s="8">
+        <v>542</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1543</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1310</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1290</v>
+      </c>
+      <c r="J7" s="8">
+        <v>501</v>
+      </c>
+      <c r="K7" s="8">
+        <v>491</v>
+      </c>
+      <c r="L7" s="8">
+        <v>251</v>
+      </c>
+      <c r="M7" s="8">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
+        <v>70</v>
+      </c>
+      <c r="C8" s="8">
+        <v>70</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1143</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1168</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1209</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1558</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1472</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1528</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1140</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1145</v>
+      </c>
+      <c r="L8" s="8">
+        <v>558</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8">
+        <v>233</v>
+      </c>
+      <c r="C9" s="8">
+        <v>232</v>
+      </c>
+      <c r="D9" s="8">
+        <v>16507</v>
+      </c>
+      <c r="E9" s="8">
+        <v>16715</v>
+      </c>
+      <c r="F9" s="8">
+        <v>16716</v>
+      </c>
+      <c r="G9" s="8">
+        <v>16704</v>
+      </c>
+      <c r="H9" s="8">
+        <v>16811</v>
+      </c>
+      <c r="I9" s="8">
+        <v>16343</v>
+      </c>
+      <c r="J9" s="8">
+        <v>16541</v>
+      </c>
+      <c r="K9" s="8">
+        <v>16581</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4520</v>
+      </c>
+      <c r="M9" s="8">
+        <v>8047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>421</v>
+      </c>
+      <c r="C10" s="8">
+        <v>417</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3179</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3104</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3110</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3934</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3884</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3988</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3031</v>
+      </c>
+      <c r="K10" s="8">
+        <v>3067</v>
+      </c>
+      <c r="L10" s="8">
+        <v>832</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1420</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1426</v>
+      </c>
+      <c r="D11" s="8">
+        <v>9023</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10348</v>
+      </c>
+      <c r="F11" s="8">
+        <v>10395</v>
+      </c>
+      <c r="G11" s="8">
+        <v>13252</v>
+      </c>
+      <c r="H11" s="8">
+        <v>13377</v>
+      </c>
+      <c r="I11" s="8">
+        <v>13255</v>
+      </c>
+      <c r="J11" s="8">
+        <v>10841</v>
+      </c>
+      <c r="K11" s="8">
+        <v>10520</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2465</v>
+      </c>
+      <c r="M11" s="8">
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1522</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1616</v>
+      </c>
+      <c r="D12" s="8">
+        <v>12053</v>
+      </c>
+      <c r="E12" s="8">
+        <v>12364</v>
+      </c>
+      <c r="F12" s="8">
+        <v>13016</v>
+      </c>
+      <c r="G12" s="8">
+        <v>13471</v>
+      </c>
+      <c r="H12" s="8">
+        <v>13811</v>
+      </c>
+      <c r="I12" s="8">
+        <v>13719</v>
+      </c>
+      <c r="J12" s="8">
+        <v>12319</v>
+      </c>
+      <c r="K12" s="8">
+        <v>12636</v>
+      </c>
+      <c r="L12" s="8">
+        <v>2420</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1347</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1308</v>
+      </c>
+      <c r="D13" s="8">
+        <v>11069</v>
+      </c>
+      <c r="E13" s="8">
+        <v>11187</v>
+      </c>
+      <c r="F13" s="8">
+        <v>11093</v>
+      </c>
+      <c r="G13" s="8">
+        <v>12379</v>
+      </c>
+      <c r="H13" s="8">
+        <v>12573</v>
+      </c>
+      <c r="I13" s="8">
+        <v>11977</v>
+      </c>
+      <c r="J13" s="8">
+        <v>10923</v>
+      </c>
+      <c r="K13" s="8">
+        <v>10912</v>
+      </c>
+      <c r="L13" s="8">
+        <v>2484</v>
+      </c>
+      <c r="M13" s="8">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10">
+        <f>AVERAGE(B2:B13)</f>
+        <v>429.14583333333331</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:M14" si="0">AVERAGE(C2:C13)</f>
+        <v>433.93833333333333</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>4766.666666666667</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>4925.333333333333</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>4995.5</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>5563.75</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="0"/>
+        <v>5615.75</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>5513.833333333333</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>4905.833333333333</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="0"/>
+        <v>4918</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="0"/>
+        <v>1305.1666666666667</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="0"/>
+        <v>2559.9166666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="D16" s="8">
+        <v>185</v>
+      </c>
+      <c r="E16" s="8">
+        <v>180</v>
+      </c>
+      <c r="F16" s="8">
+        <v>184</v>
+      </c>
+      <c r="G16" s="8">
+        <v>185</v>
+      </c>
+      <c r="H16" s="8">
+        <v>184</v>
+      </c>
+      <c r="I16" s="8">
+        <v>187</v>
+      </c>
+      <c r="J16" s="8">
+        <v>180</v>
+      </c>
+      <c r="K16" s="8">
+        <v>183</v>
+      </c>
+      <c r="L16" s="8">
+        <v>226</v>
+      </c>
+      <c r="M16" s="8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="D17" s="8">
+        <v>165</v>
+      </c>
+      <c r="E17" s="8">
+        <v>166</v>
+      </c>
+      <c r="F17" s="8">
+        <v>164</v>
+      </c>
+      <c r="G17" s="8">
+        <v>171</v>
+      </c>
+      <c r="H17" s="8">
+        <v>173</v>
+      </c>
+      <c r="I17" s="8">
+        <v>170</v>
+      </c>
+      <c r="J17" s="8">
+        <v>163</v>
+      </c>
+      <c r="K17" s="8">
+        <v>163</v>
+      </c>
+      <c r="L17" s="8">
+        <v>443</v>
+      </c>
+      <c r="M17" s="8">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="D18" s="8">
+        <v>47</v>
+      </c>
+      <c r="E18" s="8">
+        <v>47</v>
+      </c>
+      <c r="F18" s="8">
+        <v>47</v>
+      </c>
+      <c r="G18" s="8">
+        <v>53</v>
+      </c>
+      <c r="H18" s="8">
+        <v>52</v>
+      </c>
+      <c r="I18" s="8">
+        <v>51</v>
+      </c>
+      <c r="J18" s="8">
+        <v>46</v>
+      </c>
+      <c r="K18" s="8">
+        <v>47</v>
+      </c>
+      <c r="L18" s="8">
+        <v>103</v>
+      </c>
+      <c r="M18" s="8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8">
+        <v>8.1479999999999997</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8.2070000000000007</v>
+      </c>
+      <c r="D19" s="8">
+        <v>103</v>
+      </c>
+      <c r="E19" s="8">
+        <v>106</v>
+      </c>
+      <c r="F19" s="8">
+        <v>102</v>
+      </c>
+      <c r="G19" s="8">
+        <v>257</v>
+      </c>
+      <c r="H19" s="8">
+        <v>243</v>
+      </c>
+      <c r="I19" s="8">
+        <v>243</v>
+      </c>
+      <c r="J19" s="8">
+        <v>103</v>
+      </c>
+      <c r="K19" s="8">
+        <v>102</v>
+      </c>
+      <c r="L19" s="8">
+        <v>77</v>
+      </c>
+      <c r="M19" s="8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="8">
+        <v>9.01</v>
+      </c>
+      <c r="C20" s="8">
+        <v>8.4629999999999992</v>
+      </c>
+      <c r="D20" s="8">
+        <v>878</v>
+      </c>
+      <c r="E20" s="8">
+        <v>877</v>
+      </c>
+      <c r="F20" s="8">
+        <v>925</v>
+      </c>
+      <c r="G20" s="8">
+        <v>933</v>
+      </c>
+      <c r="H20" s="8">
+        <v>933</v>
+      </c>
+      <c r="I20" s="8">
+        <v>903</v>
+      </c>
+      <c r="J20" s="8">
+        <v>881</v>
+      </c>
+      <c r="K20" s="8">
+        <v>897</v>
+      </c>
+      <c r="L20" s="8">
+        <v>956</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8">
+        <v>141</v>
+      </c>
+      <c r="E21" s="8">
+        <v>141</v>
+      </c>
+      <c r="F21" s="8">
+        <v>140</v>
+      </c>
+      <c r="G21" s="8">
+        <v>502</v>
+      </c>
+      <c r="H21" s="8">
+        <v>482</v>
+      </c>
+      <c r="I21" s="8">
+        <v>472</v>
+      </c>
+      <c r="J21" s="8">
+        <v>140</v>
+      </c>
+      <c r="K21" s="8">
+        <v>141</v>
+      </c>
+      <c r="L21" s="8">
+        <v>269</v>
+      </c>
+      <c r="M21" s="8">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="8">
+        <v>75</v>
+      </c>
+      <c r="C22" s="8">
+        <v>74</v>
+      </c>
+      <c r="D22" s="8">
+        <v>318</v>
+      </c>
+      <c r="E22" s="8">
+        <v>327</v>
+      </c>
+      <c r="F22" s="8">
+        <v>326</v>
+      </c>
+      <c r="G22" s="8">
+        <v>478</v>
+      </c>
+      <c r="H22" s="8">
+        <v>453</v>
+      </c>
+      <c r="I22" s="8">
+        <v>473</v>
+      </c>
+      <c r="J22" s="8">
+        <v>333</v>
+      </c>
+      <c r="K22" s="8">
+        <v>390</v>
+      </c>
+      <c r="L22" s="8">
+        <v>852</v>
+      </c>
+      <c r="M22" s="8">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="8">
+        <v>78</v>
+      </c>
+      <c r="C23" s="8">
+        <v>78</v>
+      </c>
+      <c r="D23" s="8">
+        <v>7232</v>
+      </c>
+      <c r="E23" s="8">
+        <v>7257</v>
+      </c>
+      <c r="F23" s="8">
+        <v>7244</v>
+      </c>
+      <c r="G23" s="8">
+        <v>7280</v>
+      </c>
+      <c r="H23" s="8">
+        <v>7421</v>
+      </c>
+      <c r="I23" s="8">
+        <v>7488</v>
+      </c>
+      <c r="J23" s="8">
+        <v>7267</v>
+      </c>
+      <c r="K23" s="8">
+        <v>7447</v>
+      </c>
+      <c r="L23" s="8">
+        <v>5307</v>
+      </c>
+      <c r="M23" s="8">
+        <v>8721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="8">
+        <v>112</v>
+      </c>
+      <c r="C24" s="8">
+        <v>115</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1183</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1180</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1173</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1408</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1406</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1402</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1127</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1135</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1018</v>
+      </c>
+      <c r="M24" s="8">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8">
+        <v>393</v>
+      </c>
+      <c r="C25" s="8">
+        <v>390</v>
+      </c>
+      <c r="D25" s="8">
+        <v>3920</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4166</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4180</v>
+      </c>
+      <c r="G25" s="8">
+        <v>5142</v>
+      </c>
+      <c r="H25" s="8">
+        <v>5085</v>
+      </c>
+      <c r="I25" s="8">
+        <v>5107</v>
+      </c>
+      <c r="J25" s="8">
+        <v>4116</v>
+      </c>
+      <c r="K25" s="8">
+        <v>4122</v>
+      </c>
+      <c r="L25" s="8">
+        <v>2676</v>
+      </c>
+      <c r="M25" s="8">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8">
+        <v>443</v>
+      </c>
+      <c r="C26" s="8">
+        <v>449</v>
+      </c>
+      <c r="D26" s="8">
+        <v>4930</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4318</v>
+      </c>
+      <c r="F26" s="8">
+        <v>4315</v>
+      </c>
+      <c r="G26" s="8">
+        <v>4760</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4684</v>
+      </c>
+      <c r="I26" s="8">
+        <v>4680</v>
+      </c>
+      <c r="J26" s="8">
+        <v>4428</v>
+      </c>
+      <c r="K26" s="8">
+        <v>4584</v>
+      </c>
+      <c r="L26" s="8">
+        <v>2678</v>
+      </c>
+      <c r="M26" s="8">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8">
+        <v>404</v>
+      </c>
+      <c r="C27" s="8">
+        <v>406</v>
+      </c>
+      <c r="D27" s="8">
+        <v>4491</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4662</v>
+      </c>
+      <c r="F27" s="8">
+        <v>4572</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4796</v>
+      </c>
+      <c r="H27" s="8">
+        <v>4773</v>
+      </c>
+      <c r="I27" s="8">
+        <v>4746</v>
+      </c>
+      <c r="J27" s="8">
+        <v>4592</v>
+      </c>
+      <c r="K27" s="8">
+        <v>4537</v>
+      </c>
+      <c r="L27" s="8">
+        <v>2999</v>
+      </c>
+      <c r="M27" s="8">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="10">
+        <f>AVERAGE(B16:B27)</f>
+        <v>128.84566666666669</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" ref="C28:M28" si="1">AVERAGE(C16:C27)</f>
+        <v>129.31991666666667</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="1"/>
+        <v>1966.0833333333333</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="1"/>
+        <v>1952.25</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="1"/>
+        <v>1947.6666666666667</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="1"/>
+        <v>2163.75</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="1"/>
+        <v>2157.4166666666665</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="1"/>
+        <v>2160.1666666666665</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="1"/>
+        <v>1948</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="1"/>
+        <v>1979</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="1"/>
+        <v>1467</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="1"/>
+        <v>2744.6666666666665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.698</v>
+      </c>
+      <c r="D30" s="8">
+        <v>103</v>
+      </c>
+      <c r="E30" s="8">
+        <v>104</v>
+      </c>
+      <c r="F30" s="8">
+        <v>104</v>
+      </c>
+      <c r="G30" s="8">
+        <v>109</v>
+      </c>
+      <c r="H30" s="8">
+        <v>108</v>
+      </c>
+      <c r="I30" s="8">
+        <v>106</v>
+      </c>
+      <c r="J30" s="8">
+        <v>100</v>
+      </c>
+      <c r="K30" s="8">
+        <v>112</v>
+      </c>
+      <c r="L30" s="8">
+        <v>214</v>
+      </c>
+      <c r="M30" s="8">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="D31" s="8">
+        <v>99</v>
+      </c>
+      <c r="E31" s="8">
+        <v>99</v>
+      </c>
+      <c r="F31" s="8">
+        <v>98</v>
+      </c>
+      <c r="G31" s="8">
+        <v>100</v>
+      </c>
+      <c r="H31" s="8">
+        <v>99</v>
+      </c>
+      <c r="I31" s="8">
+        <v>99</v>
+      </c>
+      <c r="J31" s="8">
+        <v>95</v>
+      </c>
+      <c r="K31" s="8">
+        <v>94</v>
+      </c>
+      <c r="L31" s="8">
+        <v>226</v>
+      </c>
+      <c r="M31" s="8">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="D32" s="8">
+        <v>19</v>
+      </c>
+      <c r="E32" s="8">
+        <v>20</v>
+      </c>
+      <c r="F32" s="8">
+        <v>19</v>
+      </c>
+      <c r="G32" s="8">
+        <v>26</v>
+      </c>
+      <c r="H32" s="8">
+        <v>25</v>
+      </c>
+      <c r="I32" s="8">
+        <v>24</v>
+      </c>
+      <c r="J32" s="8">
+        <v>19</v>
+      </c>
+      <c r="K32" s="8">
+        <v>20</v>
+      </c>
+      <c r="L32" s="8">
+        <v>94</v>
+      </c>
+      <c r="M32" s="8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="8">
+        <v>8.1869999999999994</v>
+      </c>
+      <c r="C33" s="8">
+        <v>8.5419999999999998</v>
+      </c>
+      <c r="D33" s="8">
+        <v>55</v>
+      </c>
+      <c r="E33" s="8">
+        <v>58</v>
+      </c>
+      <c r="F33" s="8">
+        <v>55</v>
+      </c>
+      <c r="G33" s="8">
+        <v>215</v>
+      </c>
+      <c r="H33" s="8">
+        <v>201</v>
+      </c>
+      <c r="I33" s="8">
+        <v>198</v>
+      </c>
+      <c r="J33" s="8">
+        <v>53</v>
+      </c>
+      <c r="K33" s="8">
+        <v>53</v>
+      </c>
+      <c r="L33" s="8">
+        <v>110</v>
+      </c>
+      <c r="M33" s="8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="8">
+        <v>8.3230000000000004</v>
+      </c>
+      <c r="C34" s="8">
+        <v>8.3409999999999993</v>
+      </c>
+      <c r="D34" s="8">
+        <v>480</v>
+      </c>
+      <c r="E34" s="8">
+        <v>478</v>
+      </c>
+      <c r="F34" s="8">
+        <v>476</v>
+      </c>
+      <c r="G34" s="8">
+        <v>486</v>
+      </c>
+      <c r="H34" s="8">
+        <v>488</v>
+      </c>
+      <c r="I34" s="8">
+        <v>482</v>
+      </c>
+      <c r="J34" s="8">
+        <v>476</v>
+      </c>
+      <c r="K34" s="8">
+        <v>475</v>
+      </c>
+      <c r="L34" s="8">
+        <v>915</v>
+      </c>
+      <c r="M34" s="8">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8">
+        <v>17</v>
+      </c>
+      <c r="C35" s="8">
+        <v>17</v>
+      </c>
+      <c r="D35" s="8">
+        <v>56</v>
+      </c>
+      <c r="E35" s="8">
+        <v>57</v>
+      </c>
+      <c r="F35" s="8">
+        <v>57</v>
+      </c>
+      <c r="G35" s="8">
+        <v>393</v>
+      </c>
+      <c r="H35" s="8">
+        <v>405</v>
+      </c>
+      <c r="I35" s="8">
+        <v>401</v>
+      </c>
+      <c r="J35" s="8">
+        <v>58</v>
+      </c>
+      <c r="K35" s="8">
+        <v>61</v>
+      </c>
+      <c r="L35" s="8">
+        <v>325</v>
+      </c>
+      <c r="M35" s="8">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8">
+        <v>70</v>
+      </c>
+      <c r="C36" s="8">
+        <v>71</v>
+      </c>
+      <c r="D36" s="8">
+        <v>121</v>
+      </c>
+      <c r="E36" s="8">
+        <v>122</v>
+      </c>
+      <c r="F36" s="8">
+        <v>122</v>
+      </c>
+      <c r="G36" s="8">
+        <v>259</v>
+      </c>
+      <c r="H36" s="8">
+        <v>242</v>
+      </c>
+      <c r="I36" s="8">
+        <v>245</v>
+      </c>
+      <c r="J36" s="8">
+        <v>124</v>
+      </c>
+      <c r="K36" s="8">
+        <v>123</v>
+      </c>
+      <c r="L36" s="8">
+        <v>971</v>
+      </c>
+      <c r="M36" s="8">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="8">
+        <v>77</v>
+      </c>
+      <c r="C37" s="8">
+        <v>77</v>
+      </c>
+      <c r="D37" s="8">
+        <v>3240</v>
+      </c>
+      <c r="E37" s="8">
+        <v>3240</v>
+      </c>
+      <c r="F37" s="8">
+        <v>3221</v>
+      </c>
+      <c r="G37" s="8">
+        <v>3248</v>
+      </c>
+      <c r="H37" s="8">
+        <v>3249</v>
+      </c>
+      <c r="I37" s="8">
+        <v>3251</v>
+      </c>
+      <c r="J37" s="8">
+        <v>3281</v>
+      </c>
+      <c r="K37" s="8">
+        <v>3212</v>
+      </c>
+      <c r="L37" s="8">
+        <v>5741</v>
+      </c>
+      <c r="M37" s="8">
+        <v>9245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="8">
+        <v>112</v>
+      </c>
+      <c r="C38" s="8">
+        <v>112</v>
+      </c>
+      <c r="D38" s="8">
+        <v>62</v>
+      </c>
+      <c r="E38" s="8">
+        <v>55</v>
+      </c>
+      <c r="F38" s="8">
+        <v>55</v>
+      </c>
+      <c r="G38" s="8">
+        <v>311</v>
+      </c>
+      <c r="H38" s="8">
+        <v>307</v>
+      </c>
+      <c r="I38" s="8">
+        <v>307</v>
+      </c>
+      <c r="J38" s="8">
+        <v>56</v>
+      </c>
+      <c r="K38" s="8">
+        <v>56</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1755</v>
+      </c>
+      <c r="M38" s="8">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="8">
+        <v>384</v>
+      </c>
+      <c r="C39" s="8">
+        <v>370</v>
+      </c>
+      <c r="D39" s="8">
+        <v>819</v>
+      </c>
+      <c r="E39" s="8">
+        <v>812</v>
+      </c>
+      <c r="F39" s="8">
+        <v>823</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1730</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1683</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1744</v>
+      </c>
+      <c r="J39" s="8">
+        <v>835</v>
+      </c>
+      <c r="K39" s="8">
+        <v>818</v>
+      </c>
+      <c r="L39" s="8">
+        <v>3001</v>
+      </c>
+      <c r="M39" s="8">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="8">
+        <v>407</v>
+      </c>
+      <c r="C40" s="8">
+        <v>409</v>
+      </c>
+      <c r="D40" s="8">
+        <v>985</v>
+      </c>
+      <c r="E40" s="8">
+        <v>985</v>
+      </c>
+      <c r="F40" s="8">
+        <v>986</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1425</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1422</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1425</v>
+      </c>
+      <c r="J40" s="8">
+        <v>981</v>
+      </c>
+      <c r="K40" s="8">
+        <v>983</v>
+      </c>
+      <c r="L40" s="8">
+        <v>3025</v>
+      </c>
+      <c r="M40" s="8">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="8">
+        <v>410</v>
+      </c>
+      <c r="C41" s="8">
+        <v>411</v>
+      </c>
+      <c r="D41" s="8">
+        <v>974</v>
+      </c>
+      <c r="E41" s="8">
+        <v>972</v>
+      </c>
+      <c r="F41" s="8">
+        <v>988</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1415</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1413</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1427</v>
+      </c>
+      <c r="J41" s="8">
+        <v>958</v>
+      </c>
+      <c r="K41" s="8">
+        <v>974</v>
+      </c>
+      <c r="L41" s="8">
+        <v>3078</v>
+      </c>
+      <c r="M41" s="8">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="10">
+        <f>AVERAGE(B30:B41)</f>
+        <v>125.05366666666667</v>
+      </c>
+      <c r="C42" s="10">
+        <f t="shared" ref="C42:M42" si="2">AVERAGE(C30:C41)</f>
+        <v>124.17516666666666</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="2"/>
+        <v>584.41666666666663</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="2"/>
+        <v>583.5</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="2"/>
+        <v>583.66666666666663</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="2"/>
+        <v>809.75</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="2"/>
+        <v>803.5</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="2"/>
+        <v>809.08333333333337</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="2"/>
+        <v>586.33333333333337</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="2"/>
+        <v>581.75</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="2"/>
+        <v>1621.25</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="2"/>
+        <v>2912.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/paper/experiments.xlsx
+++ b/trunk/paper/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9540" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Final results - real data" sheetId="8" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
     <sheet name="节点边度数" sheetId="4" r:id="rId8"/>
     <sheet name="Table2 re-calc" sheetId="10" r:id="rId9"/>
+    <sheet name="Table 6 re-calc" sheetId="11" r:id="rId10"/>
+    <sheet name="Table 8 re-calc" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="137">
   <si>
     <t>hash</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -527,6 +529,31 @@
     <t xml:space="preserve">    \tau = max load/(n/k) Fig3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>FNL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGLd0.3</t>
+  </si>
+  <si>
+    <t>SGLd0.5</t>
+  </si>
+  <si>
+    <t>SGLd0.8</t>
+  </si>
+  <si>
+    <t>SGLs0.3</t>
+  </si>
+  <si>
+    <t>SGLs0.5</t>
+  </si>
+  <si>
+    <t>SGLs0.8</t>
+  </si>
+  <si>
+    <t>avg.</t>
+  </si>
 </sst>
 </file>
 
@@ -604,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -627,13 +654,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,6 +718,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -964,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M42"/>
+    <sheetView topLeftCell="J43" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60:T73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6999,6 +7040,735 @@
       </c>
     </row>
     <row r="101" s="4" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.312</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.108</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>7.1000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.123</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.112</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.124</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.154</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.112</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.121</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.154</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.215</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.252</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.254</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.254</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="10">
+        <f>ROUND(AVERAGE(B2:B13), 3)</f>
+        <v>0.161</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:H14" si="0">ROUND(AVERAGE(C2:C13), 3)</f>
+        <v>0.154</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1.0329999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.0229999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.091</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.054</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1.026</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.02</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.0239999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.018</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.0189999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.0179999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.087</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.081</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.089</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.0599999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.091</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.0599999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="10">
+        <f>ROUND(AVERAGE(B2:B13),3)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:G14" si="0">ROUND(AVERAGE(C2:C13),3)</f>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>1.069</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0369999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19109,7 +19879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
